--- a/Stock_data/ExxonMobil.xlsx
+++ b/Stock_data/ExxonMobil.xlsx
@@ -525,7 +525,7 @@
         <v>43832</v>
       </c>
       <c r="B4" t="n">
-        <v>55.63116836547852</v>
+        <v>55.63117980957031</v>
       </c>
       <c r="C4" t="n">
         <v>70.90000152587891</v>
@@ -548,7 +548,7 @@
         <v>43833</v>
       </c>
       <c r="B5" t="n">
-        <v>55.18393325805664</v>
+        <v>55.18392562866211</v>
       </c>
       <c r="C5" t="n">
         <v>70.33000183105469</v>
@@ -594,7 +594,7 @@
         <v>43837</v>
       </c>
       <c r="B7" t="n">
-        <v>55.15253448486328</v>
+        <v>55.15253829956055</v>
       </c>
       <c r="C7" t="n">
         <v>70.29000091552734</v>
@@ -617,7 +617,7 @@
         <v>43838</v>
       </c>
       <c r="B8" t="n">
-        <v>54.32081985473633</v>
+        <v>54.32082366943359</v>
       </c>
       <c r="C8" t="n">
         <v>69.23000335693359</v>
@@ -640,7 +640,7 @@
         <v>43839</v>
       </c>
       <c r="B9" t="n">
-        <v>54.7366828918457</v>
+        <v>54.73669052124023</v>
       </c>
       <c r="C9" t="n">
         <v>69.76000213623047</v>
@@ -663,7 +663,7 @@
         <v>43840</v>
       </c>
       <c r="B10" t="n">
-        <v>54.25019836425781</v>
+        <v>54.25019454956055</v>
       </c>
       <c r="C10" t="n">
         <v>69.13999938964844</v>
@@ -709,7 +709,7 @@
         <v>43844</v>
       </c>
       <c r="B12" t="n">
-        <v>54.29728698730469</v>
+        <v>54.29727554321289</v>
       </c>
       <c r="C12" t="n">
         <v>69.19999694824219</v>
@@ -732,7 +732,7 @@
         <v>43845</v>
       </c>
       <c r="B13" t="n">
-        <v>54.21097183227539</v>
+        <v>54.21096420288086</v>
       </c>
       <c r="C13" t="n">
         <v>69.08999633789062</v>
@@ -801,7 +801,7 @@
         <v>43851</v>
       </c>
       <c r="B16" t="n">
-        <v>53.02616119384766</v>
+        <v>53.02617263793945</v>
       </c>
       <c r="C16" t="n">
         <v>67.58000183105469</v>
@@ -824,7 +824,7 @@
         <v>43852</v>
       </c>
       <c r="B17" t="n">
-        <v>52.72014999389648</v>
+        <v>52.72015762329102</v>
       </c>
       <c r="C17" t="n">
         <v>67.19000244140625</v>
@@ -847,7 +847,7 @@
         <v>43853</v>
       </c>
       <c r="B18" t="n">
-        <v>52.39059066772461</v>
+        <v>52.39060211181641</v>
       </c>
       <c r="C18" t="n">
         <v>66.76999664306641</v>
@@ -870,7 +870,7 @@
         <v>43854</v>
       </c>
       <c r="B19" t="n">
-        <v>52.03750228881836</v>
+        <v>52.03749847412109</v>
       </c>
       <c r="C19" t="n">
         <v>66.31999969482422</v>
@@ -893,7 +893,7 @@
         <v>43857</v>
       </c>
       <c r="B20" t="n">
-        <v>50.79777526855469</v>
+        <v>50.79777145385742</v>
       </c>
       <c r="C20" t="n">
         <v>64.73999786376953</v>
@@ -916,7 +916,7 @@
         <v>43858</v>
       </c>
       <c r="B21" t="n">
-        <v>50.72715377807617</v>
+        <v>50.7271614074707</v>
       </c>
       <c r="C21" t="n">
         <v>64.65000152587891</v>
@@ -939,7 +939,7 @@
         <v>43859</v>
       </c>
       <c r="B22" t="n">
-        <v>50.30345153808594</v>
+        <v>50.30344772338867</v>
       </c>
       <c r="C22" t="n">
         <v>64.11000061035156</v>
@@ -962,7 +962,7 @@
         <v>43860</v>
       </c>
       <c r="B23" t="n">
-        <v>50.83700561523438</v>
+        <v>50.83700942993164</v>
       </c>
       <c r="C23" t="n">
         <v>64.79000091552734</v>
@@ -985,7 +985,7 @@
         <v>43861</v>
       </c>
       <c r="B24" t="n">
-        <v>48.74200820922852</v>
+        <v>48.74200439453125</v>
       </c>
       <c r="C24" t="n">
         <v>62.11999893188477</v>
@@ -1008,7 +1008,7 @@
         <v>43864</v>
       </c>
       <c r="B25" t="n">
-        <v>47.6513557434082</v>
+        <v>47.65135955810547</v>
       </c>
       <c r="C25" t="n">
         <v>60.72999954223633</v>
@@ -1031,7 +1031,7 @@
         <v>43865</v>
       </c>
       <c r="B26" t="n">
-        <v>47.05503845214844</v>
+        <v>47.05502700805664</v>
       </c>
       <c r="C26" t="n">
         <v>59.97000122070312</v>
@@ -1077,7 +1077,7 @@
         <v>43867</v>
       </c>
       <c r="B28" t="n">
-        <v>48.55369567871094</v>
+        <v>48.55368804931641</v>
       </c>
       <c r="C28" t="n">
         <v>61.88000106811523</v>
@@ -1100,7 +1100,7 @@
         <v>43868</v>
       </c>
       <c r="B29" t="n">
-        <v>48.23198699951172</v>
+        <v>48.23199844360352</v>
       </c>
       <c r="C29" t="n">
         <v>61.47000122070312</v>
@@ -1123,7 +1123,7 @@
         <v>43871</v>
       </c>
       <c r="B30" t="n">
-        <v>47.72261047363281</v>
+        <v>47.72260665893555</v>
       </c>
       <c r="C30" t="n">
         <v>59.95999908447266</v>
@@ -1146,7 +1146,7 @@
         <v>43872</v>
       </c>
       <c r="B31" t="n">
-        <v>48.17627334594727</v>
+        <v>48.17627716064453</v>
       </c>
       <c r="C31" t="n">
         <v>60.52999877929688</v>
@@ -1169,7 +1169,7 @@
         <v>43873</v>
       </c>
       <c r="B32" t="n">
-        <v>48.76525497436523</v>
+        <v>48.76524353027344</v>
       </c>
       <c r="C32" t="n">
         <v>61.27000045776367</v>
@@ -1192,7 +1192,7 @@
         <v>43874</v>
       </c>
       <c r="B33" t="n">
-        <v>48.49463272094727</v>
+        <v>48.49464416503906</v>
       </c>
       <c r="C33" t="n">
         <v>60.93000030517578</v>
@@ -1215,7 +1215,7 @@
         <v>43875</v>
       </c>
       <c r="B34" t="n">
-        <v>48.27179336547852</v>
+        <v>48.27178955078125</v>
       </c>
       <c r="C34" t="n">
         <v>60.65000152587891</v>
@@ -1238,7 +1238,7 @@
         <v>43879</v>
       </c>
       <c r="B35" t="n">
-        <v>47.658935546875</v>
+        <v>47.65893936157227</v>
       </c>
       <c r="C35" t="n">
         <v>59.88000106811523</v>
@@ -1261,7 +1261,7 @@
         <v>43880</v>
       </c>
       <c r="B36" t="n">
-        <v>48.02505874633789</v>
+        <v>48.02505493164062</v>
       </c>
       <c r="C36" t="n">
         <v>60.34000015258789</v>
@@ -1284,7 +1284,7 @@
         <v>43881</v>
       </c>
       <c r="B37" t="n">
-        <v>47.64302062988281</v>
+        <v>47.64302825927734</v>
       </c>
       <c r="C37" t="n">
         <v>59.86000061035156</v>
@@ -1307,7 +1307,7 @@
         <v>43882</v>
       </c>
       <c r="B38" t="n">
-        <v>47.06200408935547</v>
+        <v>47.06200790405273</v>
       </c>
       <c r="C38" t="n">
         <v>59.13000106811523</v>
@@ -1330,7 +1330,7 @@
         <v>43885</v>
       </c>
       <c r="B39" t="n">
-        <v>44.85734558105469</v>
+        <v>44.85734176635742</v>
       </c>
       <c r="C39" t="n">
         <v>56.36000061035156</v>
@@ -1353,7 +1353,7 @@
         <v>43886</v>
       </c>
       <c r="B40" t="n">
-        <v>43.13818359375</v>
+        <v>43.13817977905273</v>
       </c>
       <c r="C40" t="n">
         <v>54.20000076293945</v>
@@ -1376,7 +1376,7 @@
         <v>43887</v>
       </c>
       <c r="B41" t="n">
-        <v>42.1910514831543</v>
+        <v>42.19105529785156</v>
       </c>
       <c r="C41" t="n">
         <v>53.0099983215332</v>
@@ -1399,7 +1399,7 @@
         <v>43888</v>
       </c>
       <c r="B42" t="n">
-        <v>39.65210723876953</v>
+        <v>39.65210342407227</v>
       </c>
       <c r="C42" t="n">
         <v>49.81999969482422</v>
@@ -1422,7 +1422,7 @@
         <v>43889</v>
       </c>
       <c r="B43" t="n">
-        <v>40.94147872924805</v>
+        <v>40.94147491455078</v>
       </c>
       <c r="C43" t="n">
         <v>51.43999862670898</v>
@@ -1445,7 +1445,7 @@
         <v>43892</v>
       </c>
       <c r="B44" t="n">
-        <v>42.88349151611328</v>
+        <v>42.88349533081055</v>
       </c>
       <c r="C44" t="n">
         <v>53.88000106811523</v>
@@ -1468,7 +1468,7 @@
         <v>43893</v>
       </c>
       <c r="B45" t="n">
-        <v>40.83005142211914</v>
+        <v>40.83004760742188</v>
       </c>
       <c r="C45" t="n">
         <v>51.29999923706055</v>
@@ -1491,7 +1491,7 @@
         <v>43894</v>
       </c>
       <c r="B46" t="n">
-        <v>41.72146224975586</v>
+        <v>41.72146606445312</v>
       </c>
       <c r="C46" t="n">
         <v>52.41999816894531</v>
@@ -1514,7 +1514,7 @@
         <v>43895</v>
       </c>
       <c r="B47" t="n">
-        <v>39.88292694091797</v>
+        <v>39.8829231262207</v>
       </c>
       <c r="C47" t="n">
         <v>50.11000061035156</v>
@@ -1537,7 +1537,7 @@
         <v>43896</v>
       </c>
       <c r="B48" t="n">
-        <v>37.95682525634766</v>
+        <v>37.95682907104492</v>
       </c>
       <c r="C48" t="n">
         <v>47.68999862670898</v>
@@ -1560,7 +1560,7 @@
         <v>43899</v>
       </c>
       <c r="B49" t="n">
-        <v>33.31668090820312</v>
+        <v>33.31668472290039</v>
       </c>
       <c r="C49" t="n">
         <v>41.86000061035156</v>
@@ -1629,7 +1629,7 @@
         <v>43902</v>
       </c>
       <c r="B52" t="n">
-        <v>29.59183692932129</v>
+        <v>29.59184455871582</v>
       </c>
       <c r="C52" t="n">
         <v>37.18000030517578</v>
@@ -1675,7 +1675,7 @@
         <v>43906</v>
       </c>
       <c r="B54" t="n">
-        <v>27.45085144042969</v>
+        <v>27.45084571838379</v>
       </c>
       <c r="C54" t="n">
         <v>34.4900016784668</v>
@@ -1721,7 +1721,7 @@
         <v>43908</v>
       </c>
       <c r="B56" t="n">
-        <v>26.36044883728027</v>
+        <v>26.3604564666748</v>
       </c>
       <c r="C56" t="n">
         <v>33.11999893188477</v>
@@ -1767,7 +1767,7 @@
         <v>43910</v>
       </c>
       <c r="B58" t="n">
-        <v>26.05801200866699</v>
+        <v>26.05801010131836</v>
       </c>
       <c r="C58" t="n">
         <v>32.7400016784668</v>
@@ -1813,7 +1813,7 @@
         <v>43914</v>
       </c>
       <c r="B60" t="n">
-        <v>28.20695495605469</v>
+        <v>28.20695877075195</v>
       </c>
       <c r="C60" t="n">
         <v>35.43999862670898</v>
@@ -1836,7 +1836,7 @@
         <v>43915</v>
       </c>
       <c r="B61" t="n">
-        <v>29.67938804626465</v>
+        <v>29.67938423156738</v>
       </c>
       <c r="C61" t="n">
         <v>37.29000091552734</v>
@@ -1882,7 +1882,7 @@
         <v>43917</v>
       </c>
       <c r="B63" t="n">
-        <v>29.40877342224121</v>
+        <v>29.40877532958984</v>
       </c>
       <c r="C63" t="n">
         <v>36.95000076293945</v>
@@ -1905,7 +1905,7 @@
         <v>43920</v>
       </c>
       <c r="B64" t="n">
-        <v>29.84652900695801</v>
+        <v>29.84652709960938</v>
       </c>
       <c r="C64" t="n">
         <v>37.5</v>
@@ -1928,7 +1928,7 @@
         <v>43921</v>
       </c>
       <c r="B65" t="n">
-        <v>30.22061157226562</v>
+        <v>30.22060394287109</v>
       </c>
       <c r="C65" t="n">
         <v>37.97000122070312</v>
@@ -1951,7 +1951,7 @@
         <v>43922</v>
       </c>
       <c r="B66" t="n">
-        <v>29.87040328979492</v>
+        <v>29.87040519714355</v>
       </c>
       <c r="C66" t="n">
         <v>37.52999877929688</v>
@@ -1974,7 +1974,7 @@
         <v>43923</v>
       </c>
       <c r="B67" t="n">
-        <v>32.15465927124023</v>
+        <v>32.1546630859375</v>
       </c>
       <c r="C67" t="n">
         <v>40.40000152587891</v>
@@ -1997,7 +1997,7 @@
         <v>43924</v>
       </c>
       <c r="B68" t="n">
-        <v>31.20753288269043</v>
+        <v>31.20752334594727</v>
       </c>
       <c r="C68" t="n">
         <v>39.20999908447266</v>
@@ -2020,7 +2020,7 @@
         <v>43927</v>
       </c>
       <c r="B69" t="n">
-        <v>32.21037292480469</v>
+        <v>32.21037673950195</v>
       </c>
       <c r="C69" t="n">
         <v>40.47000122070312</v>
@@ -2043,7 +2043,7 @@
         <v>43928</v>
       </c>
       <c r="B70" t="n">
-        <v>32.82321548461914</v>
+        <v>32.82322311401367</v>
       </c>
       <c r="C70" t="n">
         <v>41.2400016784668</v>
@@ -2066,7 +2066,7 @@
         <v>43929</v>
       </c>
       <c r="B71" t="n">
-        <v>34.90054321289062</v>
+        <v>34.90053558349609</v>
       </c>
       <c r="C71" t="n">
         <v>43.84999847412109</v>
@@ -2089,7 +2089,7 @@
         <v>43930</v>
       </c>
       <c r="B72" t="n">
-        <v>34.32748413085938</v>
+        <v>34.32749938964844</v>
       </c>
       <c r="C72" t="n">
         <v>43.13000106811523</v>
@@ -2181,7 +2181,7 @@
         <v>43937</v>
       </c>
       <c r="B76" t="n">
-        <v>31.1597843170166</v>
+        <v>31.15977668762207</v>
       </c>
       <c r="C76" t="n">
         <v>39.15000152587891</v>
@@ -2204,7 +2204,7 @@
         <v>43938</v>
       </c>
       <c r="B77" t="n">
-        <v>34.39912033081055</v>
+        <v>34.39911651611328</v>
       </c>
       <c r="C77" t="n">
         <v>43.22000122070312</v>
@@ -2227,7 +2227,7 @@
         <v>43941</v>
       </c>
       <c r="B78" t="n">
-        <v>32.77546691894531</v>
+        <v>32.77546310424805</v>
       </c>
       <c r="C78" t="n">
         <v>41.18000030517578</v>
@@ -2250,7 +2250,7 @@
         <v>43942</v>
       </c>
       <c r="B79" t="n">
-        <v>32.60036849975586</v>
+        <v>32.60037231445312</v>
       </c>
       <c r="C79" t="n">
         <v>40.95999908447266</v>
@@ -2273,7 +2273,7 @@
         <v>43943</v>
       </c>
       <c r="B80" t="n">
-        <v>33.53158569335938</v>
+        <v>33.53158187866211</v>
       </c>
       <c r="C80" t="n">
         <v>42.13000106811523</v>
@@ -2296,7 +2296,7 @@
         <v>43944</v>
       </c>
       <c r="B81" t="n">
-        <v>34.58217620849609</v>
+        <v>34.58218002319336</v>
       </c>
       <c r="C81" t="n">
         <v>43.45000076293945</v>
@@ -2319,7 +2319,7 @@
         <v>43945</v>
       </c>
       <c r="B82" t="n">
-        <v>34.8050422668457</v>
+        <v>34.80502700805664</v>
       </c>
       <c r="C82" t="n">
         <v>43.72999954223633</v>
@@ -2388,7 +2388,7 @@
         <v>43950</v>
       </c>
       <c r="B85" t="n">
-        <v>37.77376174926758</v>
+        <v>37.77376937866211</v>
       </c>
       <c r="C85" t="n">
         <v>47.45999908447266</v>
@@ -2480,7 +2480,7 @@
         <v>43956</v>
       </c>
       <c r="B89" t="n">
-        <v>35.68053436279297</v>
+        <v>35.6805305480957</v>
       </c>
       <c r="C89" t="n">
         <v>44.83000183105469</v>
@@ -2503,7 +2503,7 @@
         <v>43957</v>
       </c>
       <c r="B90" t="n">
-        <v>35.011962890625</v>
+        <v>35.01196670532227</v>
       </c>
       <c r="C90" t="n">
         <v>43.9900016784668</v>
@@ -2526,7 +2526,7 @@
         <v>43958</v>
       </c>
       <c r="B91" t="n">
-        <v>35.21095275878906</v>
+        <v>35.2109489440918</v>
       </c>
       <c r="C91" t="n">
         <v>44.2400016784668</v>
@@ -2572,7 +2572,7 @@
         <v>43962</v>
       </c>
       <c r="B93" t="n">
-        <v>36.40480422973633</v>
+        <v>36.40480804443359</v>
       </c>
       <c r="C93" t="n">
         <v>45.7400016784668</v>
@@ -2595,7 +2595,7 @@
         <v>43963</v>
       </c>
       <c r="B94" t="n">
-        <v>35.79630661010742</v>
+        <v>35.79630279541016</v>
       </c>
       <c r="C94" t="n">
         <v>44.11999893188477</v>
@@ -2618,7 +2618,7 @@
         <v>43964</v>
       </c>
       <c r="B95" t="n">
-        <v>34.01946640014648</v>
+        <v>34.01946258544922</v>
       </c>
       <c r="C95" t="n">
         <v>41.93000030517578</v>
@@ -2641,7 +2641,7 @@
         <v>43965</v>
       </c>
       <c r="B96" t="n">
-        <v>34.31966018676758</v>
+        <v>34.31965637207031</v>
       </c>
       <c r="C96" t="n">
         <v>42.29999923706055</v>
@@ -2687,7 +2687,7 @@
         <v>43969</v>
       </c>
       <c r="B98" t="n">
-        <v>36.78612899780273</v>
+        <v>36.78614044189453</v>
       </c>
       <c r="C98" t="n">
         <v>45.34000015258789</v>
@@ -2710,7 +2710,7 @@
         <v>43970</v>
       </c>
       <c r="B99" t="n">
-        <v>35.65026092529297</v>
+        <v>35.6502571105957</v>
       </c>
       <c r="C99" t="n">
         <v>43.93999862670898</v>
@@ -2733,7 +2733,7 @@
         <v>43971</v>
       </c>
       <c r="B100" t="n">
-        <v>36.81047439575195</v>
+        <v>36.81048202514648</v>
       </c>
       <c r="C100" t="n">
         <v>45.36999893188477</v>
@@ -2779,7 +2779,7 @@
         <v>43973</v>
       </c>
       <c r="B102" t="n">
-        <v>36.18574523925781</v>
+        <v>36.18574905395508</v>
       </c>
       <c r="C102" t="n">
         <v>44.59999847412109</v>
@@ -2825,7 +2825,7 @@
         <v>43978</v>
       </c>
       <c r="B104" t="n">
-        <v>37.5163459777832</v>
+        <v>37.51634216308594</v>
       </c>
       <c r="C104" t="n">
         <v>46.2400016784668</v>
@@ -2848,7 +2848,7 @@
         <v>43979</v>
       </c>
       <c r="B105" t="n">
-        <v>36.54273223876953</v>
+        <v>36.54274368286133</v>
       </c>
       <c r="C105" t="n">
         <v>45.04000091552734</v>
@@ -2871,7 +2871,7 @@
         <v>43980</v>
       </c>
       <c r="B106" t="n">
-        <v>36.89161682128906</v>
+        <v>36.8916130065918</v>
       </c>
       <c r="C106" t="n">
         <v>45.47000122070312</v>
@@ -2894,7 +2894,7 @@
         <v>43983</v>
       </c>
       <c r="B107" t="n">
-        <v>37.54879379272461</v>
+        <v>37.54879760742188</v>
       </c>
       <c r="C107" t="n">
         <v>46.27999877929688</v>
@@ -2917,7 +2917,7 @@
         <v>43984</v>
       </c>
       <c r="B108" t="n">
-        <v>38.38447189331055</v>
+        <v>38.38448333740234</v>
       </c>
       <c r="C108" t="n">
         <v>47.31000137329102</v>
@@ -2940,7 +2940,7 @@
         <v>43985</v>
       </c>
       <c r="B109" t="n">
-        <v>39.95036315917969</v>
+        <v>39.95035934448242</v>
       </c>
       <c r="C109" t="n">
         <v>49.2400016784668</v>
@@ -2963,7 +2963,7 @@
         <v>43986</v>
       </c>
       <c r="B110" t="n">
-        <v>39.83677291870117</v>
+        <v>39.83676147460938</v>
       </c>
       <c r="C110" t="n">
         <v>49.09999847412109</v>
@@ -2986,7 +2986,7 @@
         <v>43987</v>
       </c>
       <c r="B111" t="n">
-        <v>43.06591415405273</v>
+        <v>43.06590270996094</v>
       </c>
       <c r="C111" t="n">
         <v>53.08000183105469</v>
@@ -3055,7 +3055,7 @@
         <v>43992</v>
       </c>
       <c r="B114" t="n">
-        <v>41.09435653686523</v>
+        <v>41.09435272216797</v>
       </c>
       <c r="C114" t="n">
         <v>50.65000152587891</v>
@@ -3078,7 +3078,7 @@
         <v>43993</v>
       </c>
       <c r="B115" t="n">
-        <v>37.4676628112793</v>
+        <v>37.46765899658203</v>
       </c>
       <c r="C115" t="n">
         <v>46.18000030517578</v>
@@ -3124,7 +3124,7 @@
         <v>43997</v>
       </c>
       <c r="B117" t="n">
-        <v>38.24654388427734</v>
+        <v>38.24655532836914</v>
       </c>
       <c r="C117" t="n">
         <v>47.13999938964844</v>
@@ -3147,7 +3147,7 @@
         <v>43998</v>
       </c>
       <c r="B118" t="n">
-        <v>39.10657119750977</v>
+        <v>39.10656356811523</v>
       </c>
       <c r="C118" t="n">
         <v>48.20000076293945</v>
@@ -3170,7 +3170,7 @@
         <v>43999</v>
       </c>
       <c r="B119" t="n">
-        <v>37.83275985717773</v>
+        <v>37.83276748657227</v>
       </c>
       <c r="C119" t="n">
         <v>46.63000106811523</v>
@@ -3216,7 +3216,7 @@
         <v>44001</v>
       </c>
       <c r="B121" t="n">
-        <v>37.30539703369141</v>
+        <v>37.30539321899414</v>
       </c>
       <c r="C121" t="n">
         <v>45.97999954223633</v>
@@ -3239,7 +3239,7 @@
         <v>44004</v>
       </c>
       <c r="B122" t="n">
-        <v>37.66238021850586</v>
+        <v>37.66237640380859</v>
       </c>
       <c r="C122" t="n">
         <v>46.41999816894531</v>
@@ -3285,7 +3285,7 @@
         <v>44006</v>
       </c>
       <c r="B124" t="n">
-        <v>36.10461044311523</v>
+        <v>36.1046028137207</v>
       </c>
       <c r="C124" t="n">
         <v>44.5</v>
@@ -3331,7 +3331,7 @@
         <v>44008</v>
       </c>
       <c r="B126" t="n">
-        <v>35.39063262939453</v>
+        <v>35.39062881469727</v>
       </c>
       <c r="C126" t="n">
         <v>43.61999893188477</v>
@@ -3354,7 +3354,7 @@
         <v>44011</v>
       </c>
       <c r="B127" t="n">
-        <v>35.95856475830078</v>
+        <v>35.95856094360352</v>
       </c>
       <c r="C127" t="n">
         <v>44.31999969482422</v>
@@ -3377,7 +3377,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>36.28311157226562</v>
+        <v>36.28310394287109</v>
       </c>
       <c r="C128" t="n">
         <v>44.72000122070312</v>
@@ -3400,7 +3400,7 @@
         <v>44013</v>
       </c>
       <c r="B129" t="n">
-        <v>35.46364974975586</v>
+        <v>35.46365356445312</v>
       </c>
       <c r="C129" t="n">
         <v>43.70999908447266</v>
@@ -3423,7 +3423,7 @@
         <v>44014</v>
       </c>
       <c r="B130" t="n">
-        <v>35.76384735107422</v>
+        <v>35.76385116577148</v>
       </c>
       <c r="C130" t="n">
         <v>44.08000183105469</v>
@@ -3446,7 +3446,7 @@
         <v>44018</v>
       </c>
       <c r="B131" t="n">
-        <v>36.0153694152832</v>
+        <v>36.01535797119141</v>
       </c>
       <c r="C131" t="n">
         <v>44.38999938964844</v>
@@ -3469,7 +3469,7 @@
         <v>44019</v>
       </c>
       <c r="B132" t="n">
-        <v>35.08232498168945</v>
+        <v>35.08232116699219</v>
       </c>
       <c r="C132" t="n">
         <v>43.2400016784668</v>
@@ -3492,7 +3492,7 @@
         <v>44020</v>
       </c>
       <c r="B133" t="n">
-        <v>35.00119018554688</v>
+        <v>35.00119400024414</v>
       </c>
       <c r="C133" t="n">
         <v>43.13999938964844</v>
@@ -3515,7 +3515,7 @@
         <v>44021</v>
       </c>
       <c r="B134" t="n">
-        <v>33.55701446533203</v>
+        <v>33.5570068359375</v>
       </c>
       <c r="C134" t="n">
         <v>41.36000061035156</v>
@@ -3538,7 +3538,7 @@
         <v>44022</v>
       </c>
       <c r="B135" t="n">
-        <v>34.60363388061523</v>
+        <v>34.6036376953125</v>
       </c>
       <c r="C135" t="n">
         <v>42.65000152587891</v>
@@ -3561,7 +3561,7 @@
         <v>44025</v>
       </c>
       <c r="B136" t="n">
-        <v>34.61175155639648</v>
+        <v>34.61174774169922</v>
       </c>
       <c r="C136" t="n">
         <v>42.65999984741211</v>
@@ -3584,7 +3584,7 @@
         <v>44026</v>
       </c>
       <c r="B137" t="n">
-        <v>35.7557258605957</v>
+        <v>35.7557373046875</v>
       </c>
       <c r="C137" t="n">
         <v>44.06999969482422</v>
@@ -3607,7 +3607,7 @@
         <v>44027</v>
       </c>
       <c r="B138" t="n">
-        <v>36.2100830078125</v>
+        <v>36.21008682250977</v>
       </c>
       <c r="C138" t="n">
         <v>44.63000106811523</v>
@@ -3653,7 +3653,7 @@
         <v>44029</v>
       </c>
       <c r="B140" t="n">
-        <v>35.30949783325195</v>
+        <v>35.30949401855469</v>
       </c>
       <c r="C140" t="n">
         <v>43.52000045776367</v>
@@ -3676,7 +3676,7 @@
         <v>44032</v>
       </c>
       <c r="B141" t="n">
-        <v>34.48192977905273</v>
+        <v>34.48193359375</v>
       </c>
       <c r="C141" t="n">
         <v>42.5</v>
@@ -3722,7 +3722,7 @@
         <v>44034</v>
       </c>
       <c r="B143" t="n">
-        <v>35.38251876831055</v>
+        <v>35.38252639770508</v>
       </c>
       <c r="C143" t="n">
         <v>43.61000061035156</v>
@@ -3745,7 +3745,7 @@
         <v>44035</v>
       </c>
       <c r="B144" t="n">
-        <v>35.45553588867188</v>
+        <v>35.45553970336914</v>
       </c>
       <c r="C144" t="n">
         <v>43.70000076293945</v>
@@ -3768,7 +3768,7 @@
         <v>44036</v>
       </c>
       <c r="B145" t="n">
-        <v>35.23647308349609</v>
+        <v>35.23647689819336</v>
       </c>
       <c r="C145" t="n">
         <v>43.43000030517578</v>
@@ -3791,7 +3791,7 @@
         <v>44039</v>
       </c>
       <c r="B146" t="n">
-        <v>35.7557258605957</v>
+        <v>35.7557373046875</v>
       </c>
       <c r="C146" t="n">
         <v>44.06999969482422</v>
@@ -3814,7 +3814,7 @@
         <v>44040</v>
       </c>
       <c r="B147" t="n">
-        <v>35.33383941650391</v>
+        <v>35.33383560180664</v>
       </c>
       <c r="C147" t="n">
         <v>43.54999923706055</v>
@@ -3837,7 +3837,7 @@
         <v>44041</v>
       </c>
       <c r="B148" t="n">
-        <v>35.72327423095703</v>
+        <v>35.7232780456543</v>
       </c>
       <c r="C148" t="n">
         <v>44.02999877929688</v>
@@ -3860,7 +3860,7 @@
         <v>44042</v>
       </c>
       <c r="B149" t="n">
-        <v>33.97077941894531</v>
+        <v>33.97078323364258</v>
       </c>
       <c r="C149" t="n">
         <v>41.86999893188477</v>
@@ -3883,7 +3883,7 @@
         <v>44043</v>
       </c>
       <c r="B150" t="n">
-        <v>34.14116668701172</v>
+        <v>34.14117050170898</v>
       </c>
       <c r="C150" t="n">
         <v>42.08000183105469</v>
@@ -3906,7 +3906,7 @@
         <v>44046</v>
       </c>
       <c r="B151" t="n">
-        <v>34.27909851074219</v>
+        <v>34.27909469604492</v>
       </c>
       <c r="C151" t="n">
         <v>42.25</v>
@@ -3952,7 +3952,7 @@
         <v>44048</v>
       </c>
       <c r="B153" t="n">
-        <v>35.57724761962891</v>
+        <v>35.57723617553711</v>
       </c>
       <c r="C153" t="n">
         <v>43.84999847412109</v>
@@ -3975,7 +3975,7 @@
         <v>44049</v>
       </c>
       <c r="B154" t="n">
-        <v>35.40685653686523</v>
+        <v>35.40686416625977</v>
       </c>
       <c r="C154" t="n">
         <v>43.63999938964844</v>
@@ -3998,7 +3998,7 @@
         <v>44050</v>
       </c>
       <c r="B155" t="n">
-        <v>35.24459457397461</v>
+        <v>35.24458694458008</v>
       </c>
       <c r="C155" t="n">
         <v>43.43999862670898</v>
@@ -4021,7 +4021,7 @@
         <v>44053</v>
       </c>
       <c r="B156" t="n">
-        <v>36.11272430419922</v>
+        <v>36.11271667480469</v>
       </c>
       <c r="C156" t="n">
         <v>44.5099983215332</v>
@@ -4044,7 +4044,7 @@
         <v>44054</v>
       </c>
       <c r="B157" t="n">
-        <v>36.48594284057617</v>
+        <v>36.48593902587891</v>
       </c>
       <c r="C157" t="n">
         <v>44.97000122070312</v>
@@ -4090,7 +4090,7 @@
         <v>44056</v>
       </c>
       <c r="B159" t="n">
-        <v>35.58413314819336</v>
+        <v>35.58412551879883</v>
       </c>
       <c r="C159" t="n">
         <v>43.0099983215332</v>
@@ -4113,7 +4113,7 @@
         <v>44057</v>
       </c>
       <c r="B160" t="n">
-        <v>35.74132919311523</v>
+        <v>35.7413330078125</v>
       </c>
       <c r="C160" t="n">
         <v>43.20000076293945</v>
@@ -4136,7 +4136,7 @@
         <v>44060</v>
       </c>
       <c r="B161" t="n">
-        <v>35.27801513671875</v>
+        <v>35.27801895141602</v>
       </c>
       <c r="C161" t="n">
         <v>42.63999938964844</v>
@@ -4182,7 +4182,7 @@
         <v>44062</v>
       </c>
       <c r="B163" t="n">
-        <v>34.71541213989258</v>
+        <v>34.71541595458984</v>
       </c>
       <c r="C163" t="n">
         <v>41.95999908447266</v>
@@ -4205,7 +4205,7 @@
         <v>44063</v>
       </c>
       <c r="B164" t="n">
-        <v>34.1859245300293</v>
+        <v>34.18592071533203</v>
       </c>
       <c r="C164" t="n">
         <v>41.31999969482422</v>
@@ -4251,7 +4251,7 @@
         <v>44067</v>
       </c>
       <c r="B166" t="n">
-        <v>34.93053817749023</v>
+        <v>34.93052673339844</v>
       </c>
       <c r="C166" t="n">
         <v>42.22000122070312</v>
@@ -4320,7 +4320,7 @@
         <v>44070</v>
       </c>
       <c r="B169" t="n">
-        <v>32.87871551513672</v>
+        <v>32.87872314453125</v>
       </c>
       <c r="C169" t="n">
         <v>39.7400016784668</v>
@@ -4343,7 +4343,7 @@
         <v>44071</v>
       </c>
       <c r="B170" t="n">
-        <v>33.66469573974609</v>
+        <v>33.66469192504883</v>
       </c>
       <c r="C170" t="n">
         <v>40.68999862670898</v>
@@ -4366,7 +4366,7 @@
         <v>44074</v>
       </c>
       <c r="B171" t="n">
-        <v>33.04418563842773</v>
+        <v>33.04418182373047</v>
       </c>
       <c r="C171" t="n">
         <v>39.93999862670898</v>
@@ -4435,7 +4435,7 @@
         <v>44077</v>
       </c>
       <c r="B174" t="n">
-        <v>32.35748672485352</v>
+        <v>32.35748291015625</v>
       </c>
       <c r="C174" t="n">
         <v>39.11000061035156</v>
@@ -4458,7 +4458,7 @@
         <v>44078</v>
       </c>
       <c r="B175" t="n">
-        <v>32.33266448974609</v>
+        <v>32.33266830444336</v>
       </c>
       <c r="C175" t="n">
         <v>39.08000183105469</v>
@@ -4481,7 +4481,7 @@
         <v>44082</v>
       </c>
       <c r="B176" t="n">
-        <v>31.58805656433105</v>
+        <v>31.58805847167969</v>
       </c>
       <c r="C176" t="n">
         <v>38.18000030517578</v>
@@ -4504,7 +4504,7 @@
         <v>44083</v>
       </c>
       <c r="B177" t="n">
-        <v>31.39777183532715</v>
+        <v>31.39776802062988</v>
       </c>
       <c r="C177" t="n">
         <v>37.95000076293945</v>
@@ -4527,7 +4527,7 @@
         <v>44084</v>
       </c>
       <c r="B178" t="n">
-        <v>30.61178588867188</v>
+        <v>30.61178970336914</v>
       </c>
       <c r="C178" t="n">
         <v>37</v>
@@ -4573,7 +4573,7 @@
         <v>44088</v>
       </c>
       <c r="B180" t="n">
-        <v>30.33048629760742</v>
+        <v>30.33049011230469</v>
       </c>
       <c r="C180" t="n">
         <v>36.65999984741211</v>
@@ -4596,7 +4596,7 @@
         <v>44089</v>
       </c>
       <c r="B181" t="n">
-        <v>30.00782775878906</v>
+        <v>30.0078239440918</v>
       </c>
       <c r="C181" t="n">
         <v>36.27000045776367</v>
@@ -4619,7 +4619,7 @@
         <v>44090</v>
       </c>
       <c r="B182" t="n">
-        <v>31.28193283081055</v>
+        <v>31.28193855285645</v>
       </c>
       <c r="C182" t="n">
         <v>37.81000137329102</v>
@@ -4665,7 +4665,7 @@
         <v>44092</v>
       </c>
       <c r="B184" t="n">
-        <v>30.76898002624512</v>
+        <v>30.76898384094238</v>
       </c>
       <c r="C184" t="n">
         <v>37.18999862670898</v>
@@ -4688,7 +4688,7 @@
         <v>44095</v>
       </c>
       <c r="B185" t="n">
-        <v>30.14020538330078</v>
+        <v>30.14019966125488</v>
       </c>
       <c r="C185" t="n">
         <v>36.43000030517578</v>
@@ -4711,7 +4711,7 @@
         <v>44096</v>
       </c>
       <c r="B186" t="n">
-        <v>29.39558601379395</v>
+        <v>29.39558982849121</v>
       </c>
       <c r="C186" t="n">
         <v>35.52999877929688</v>
@@ -4734,7 +4734,7 @@
         <v>44097</v>
       </c>
       <c r="B187" t="n">
-        <v>28.45241546630859</v>
+        <v>28.45241165161133</v>
       </c>
       <c r="C187" t="n">
         <v>34.38999938964844</v>
@@ -4757,7 +4757,7 @@
         <v>44098</v>
       </c>
       <c r="B188" t="n">
-        <v>28.39449882507324</v>
+        <v>28.39449691772461</v>
       </c>
       <c r="C188" t="n">
         <v>34.31999969482422</v>
@@ -4780,7 +4780,7 @@
         <v>44099</v>
       </c>
       <c r="B189" t="n">
-        <v>28.65925407409668</v>
+        <v>28.65925025939941</v>
       </c>
       <c r="C189" t="n">
         <v>34.63999938964844</v>
@@ -4803,7 +4803,7 @@
         <v>44102</v>
       </c>
       <c r="B190" t="n">
-        <v>29.21356964111328</v>
+        <v>29.21357536315918</v>
       </c>
       <c r="C190" t="n">
         <v>35.31000137329102</v>
@@ -4826,7 +4826,7 @@
         <v>44103</v>
       </c>
       <c r="B191" t="n">
-        <v>28.36140632629395</v>
+        <v>28.36140251159668</v>
       </c>
       <c r="C191" t="n">
         <v>34.27999877929688</v>
@@ -4849,7 +4849,7 @@
         <v>44104</v>
       </c>
       <c r="B192" t="n">
-        <v>28.40278244018555</v>
+        <v>28.40277671813965</v>
       </c>
       <c r="C192" t="n">
         <v>34.33000183105469</v>
@@ -4941,7 +4941,7 @@
         <v>44110</v>
       </c>
       <c r="B196" t="n">
-        <v>27.62507247924805</v>
+        <v>27.62506675720215</v>
       </c>
       <c r="C196" t="n">
         <v>33.38999938964844</v>
@@ -4964,7 +4964,7 @@
         <v>44111</v>
       </c>
       <c r="B197" t="n">
-        <v>27.71607208251953</v>
+        <v>27.71607971191406</v>
       </c>
       <c r="C197" t="n">
         <v>33.5</v>
@@ -4987,7 +4987,7 @@
         <v>44112</v>
       </c>
       <c r="B198" t="n">
-        <v>29.17220306396484</v>
+        <v>29.17220115661621</v>
       </c>
       <c r="C198" t="n">
         <v>35.2599983215332</v>
@@ -5010,7 +5010,7 @@
         <v>44113</v>
       </c>
       <c r="B199" t="n">
-        <v>28.74198532104492</v>
+        <v>28.74198722839355</v>
       </c>
       <c r="C199" t="n">
         <v>34.7400016784668</v>
@@ -5033,7 +5033,7 @@
         <v>44116</v>
       </c>
       <c r="B200" t="n">
-        <v>28.65097808837891</v>
+        <v>28.65097618103027</v>
       </c>
       <c r="C200" t="n">
         <v>34.63000106811523</v>
@@ -5056,7 +5056,7 @@
         <v>44117</v>
       </c>
       <c r="B201" t="n">
-        <v>28.31176376342773</v>
+        <v>28.3117618560791</v>
       </c>
       <c r="C201" t="n">
         <v>34.22000122070312</v>
@@ -5102,7 +5102,7 @@
         <v>44119</v>
       </c>
       <c r="B203" t="n">
-        <v>28.50205612182617</v>
+        <v>28.50205993652344</v>
       </c>
       <c r="C203" t="n">
         <v>34.45000076293945</v>
@@ -5125,7 +5125,7 @@
         <v>44120</v>
       </c>
       <c r="B204" t="n">
-        <v>28.21248435974121</v>
+        <v>28.21248245239258</v>
       </c>
       <c r="C204" t="n">
         <v>34.09999847412109</v>
@@ -5148,7 +5148,7 @@
         <v>44123</v>
       </c>
       <c r="B205" t="n">
-        <v>27.64988708496094</v>
+        <v>27.6498908996582</v>
       </c>
       <c r="C205" t="n">
         <v>33.41999816894531</v>
@@ -5171,7 +5171,7 @@
         <v>44124</v>
       </c>
       <c r="B206" t="n">
-        <v>27.88154792785645</v>
+        <v>27.88155174255371</v>
       </c>
       <c r="C206" t="n">
         <v>33.70000076293945</v>
@@ -5194,7 +5194,7 @@
         <v>44125</v>
       </c>
       <c r="B207" t="n">
-        <v>27.43478012084961</v>
+        <v>27.43477821350098</v>
       </c>
       <c r="C207" t="n">
         <v>33.15999984741211</v>
@@ -5217,7 +5217,7 @@
         <v>44126</v>
       </c>
       <c r="B208" t="n">
-        <v>28.84126472473145</v>
+        <v>28.84127235412598</v>
       </c>
       <c r="C208" t="n">
         <v>34.86000061035156</v>
@@ -5240,7 +5240,7 @@
         <v>44127</v>
       </c>
       <c r="B209" t="n">
-        <v>28.26212882995605</v>
+        <v>28.26212310791016</v>
       </c>
       <c r="C209" t="n">
         <v>34.15999984741211</v>
@@ -5309,7 +5309,7 @@
         <v>44132</v>
       </c>
       <c r="B212" t="n">
-        <v>26.11930084228516</v>
+        <v>26.11930274963379</v>
       </c>
       <c r="C212" t="n">
         <v>31.56999969482422</v>
@@ -5332,7 +5332,7 @@
         <v>44133</v>
       </c>
       <c r="B213" t="n">
-        <v>27.27758407592773</v>
+        <v>27.27758598327637</v>
       </c>
       <c r="C213" t="n">
         <v>32.97000122070312</v>
@@ -5355,7 +5355,7 @@
         <v>44134</v>
       </c>
       <c r="B214" t="n">
-        <v>26.98801040649414</v>
+        <v>26.98801612854004</v>
       </c>
       <c r="C214" t="n">
         <v>32.61999893188477</v>
@@ -5378,7 +5378,7 @@
         <v>44137</v>
       </c>
       <c r="B215" t="n">
-        <v>28.12147903442383</v>
+        <v>28.12147521972656</v>
       </c>
       <c r="C215" t="n">
         <v>33.9900016784668</v>
@@ -5401,7 +5401,7 @@
         <v>44138</v>
       </c>
       <c r="B216" t="n">
-        <v>27.64161682128906</v>
+        <v>27.64161491394043</v>
       </c>
       <c r="C216" t="n">
         <v>33.40999984741211</v>
@@ -5424,7 +5424,7 @@
         <v>44139</v>
       </c>
       <c r="B217" t="n">
-        <v>27.49269104003906</v>
+        <v>27.49269485473633</v>
       </c>
       <c r="C217" t="n">
         <v>33.22999954223633</v>
@@ -5447,7 +5447,7 @@
         <v>44140</v>
       </c>
       <c r="B218" t="n">
-        <v>27.44305038452148</v>
+        <v>27.44304847717285</v>
       </c>
       <c r="C218" t="n">
         <v>33.16999816894531</v>
@@ -5470,7 +5470,7 @@
         <v>44141</v>
       </c>
       <c r="B219" t="n">
-        <v>27.12038803100586</v>
+        <v>27.12038612365723</v>
       </c>
       <c r="C219" t="n">
         <v>32.77999877929688</v>
@@ -5516,7 +5516,7 @@
         <v>44145</v>
       </c>
       <c r="B221" t="n">
-        <v>31.23172760009766</v>
+        <v>31.23171806335449</v>
       </c>
       <c r="C221" t="n">
         <v>36.86000061035156</v>
@@ -5539,7 +5539,7 @@
         <v>44146</v>
       </c>
       <c r="B222" t="n">
-        <v>30.90974617004395</v>
+        <v>30.90974044799805</v>
       </c>
       <c r="C222" t="n">
         <v>36.47999954223633</v>
@@ -5562,7 +5562,7 @@
         <v>44147</v>
       </c>
       <c r="B223" t="n">
-        <v>29.85060691833496</v>
+        <v>29.8506031036377</v>
       </c>
       <c r="C223" t="n">
         <v>35.22999954223633</v>
@@ -5585,7 +5585,7 @@
         <v>44148</v>
       </c>
       <c r="B224" t="n">
-        <v>30.5708179473877</v>
+        <v>30.57081985473633</v>
       </c>
       <c r="C224" t="n">
         <v>36.08000183105469</v>
@@ -5631,7 +5631,7 @@
         <v>44152</v>
       </c>
       <c r="B226" t="n">
-        <v>32.76534652709961</v>
+        <v>32.76533889770508</v>
       </c>
       <c r="C226" t="n">
         <v>38.66999816894531</v>
@@ -5654,7 +5654,7 @@
         <v>44153</v>
       </c>
       <c r="B227" t="n">
-        <v>31.52827262878418</v>
+        <v>31.52828216552734</v>
       </c>
       <c r="C227" t="n">
         <v>37.20999908447266</v>
@@ -5677,7 +5677,7 @@
         <v>44154</v>
       </c>
       <c r="B228" t="n">
-        <v>31.68926620483398</v>
+        <v>31.68925857543945</v>
       </c>
       <c r="C228" t="n">
         <v>37.40000152587891</v>
@@ -5700,7 +5700,7 @@
         <v>44155</v>
       </c>
       <c r="B229" t="n">
-        <v>31.29950141906738</v>
+        <v>31.29949760437012</v>
       </c>
       <c r="C229" t="n">
         <v>36.93999862670898</v>
@@ -5769,7 +5769,7 @@
         <v>44160</v>
       </c>
       <c r="B232" t="n">
-        <v>34.57858276367188</v>
+        <v>34.57857894897461</v>
       </c>
       <c r="C232" t="n">
         <v>40.81000137329102</v>
@@ -5792,7 +5792,7 @@
         <v>44162</v>
       </c>
       <c r="B233" t="n">
-        <v>34.05325698852539</v>
+        <v>34.05325317382812</v>
       </c>
       <c r="C233" t="n">
         <v>40.18999862670898</v>
@@ -5838,7 +5838,7 @@
         <v>44166</v>
       </c>
       <c r="B235" t="n">
-        <v>32.62129974365234</v>
+        <v>32.62130355834961</v>
       </c>
       <c r="C235" t="n">
         <v>38.5</v>
@@ -5861,7 +5861,7 @@
         <v>44167</v>
       </c>
       <c r="B236" t="n">
-        <v>33.84141540527344</v>
+        <v>33.84142303466797</v>
       </c>
       <c r="C236" t="n">
         <v>39.93999862670898</v>
@@ -5884,7 +5884,7 @@
         <v>44168</v>
       </c>
       <c r="B237" t="n">
-        <v>34.07019805908203</v>
+        <v>34.07018661499023</v>
       </c>
       <c r="C237" t="n">
         <v>40.20999908447266</v>
@@ -5976,7 +5976,7 @@
         <v>44174</v>
       </c>
       <c r="B241" t="n">
-        <v>36.26471710205078</v>
+        <v>36.26471328735352</v>
       </c>
       <c r="C241" t="n">
         <v>42.79999923706055</v>
@@ -6022,7 +6022,7 @@
         <v>44176</v>
       </c>
       <c r="B243" t="n">
-        <v>37.11202239990234</v>
+        <v>37.11202621459961</v>
       </c>
       <c r="C243" t="n">
         <v>43.79999923706055</v>
@@ -6045,7 +6045,7 @@
         <v>44179</v>
       </c>
       <c r="B244" t="n">
-        <v>35.77328872680664</v>
+        <v>35.77328109741211</v>
       </c>
       <c r="C244" t="n">
         <v>42.22000122070312</v>
@@ -6137,7 +6137,7 @@
         <v>44183</v>
       </c>
       <c r="B248" t="n">
-        <v>36.20540618896484</v>
+        <v>36.20541000366211</v>
       </c>
       <c r="C248" t="n">
         <v>42.72999954223633</v>
@@ -6160,7 +6160,7 @@
         <v>44186</v>
       </c>
       <c r="B249" t="n">
-        <v>35.54450225830078</v>
+        <v>35.54450607299805</v>
       </c>
       <c r="C249" t="n">
         <v>41.95000076293945</v>
@@ -6206,7 +6206,7 @@
         <v>44188</v>
       </c>
       <c r="B251" t="n">
-        <v>35.39199066162109</v>
+        <v>35.39198684692383</v>
       </c>
       <c r="C251" t="n">
         <v>41.77000045776367</v>
@@ -6229,7 +6229,7 @@
         <v>44189</v>
       </c>
       <c r="B252" t="n">
-        <v>35.24794387817383</v>
+        <v>35.24794769287109</v>
       </c>
       <c r="C252" t="n">
         <v>41.59999847412109</v>
@@ -6252,7 +6252,7 @@
         <v>44193</v>
       </c>
       <c r="B253" t="n">
-        <v>35.36657333374023</v>
+        <v>35.3665771484375</v>
       </c>
       <c r="C253" t="n">
         <v>41.7400016784668</v>
@@ -6275,7 +6275,7 @@
         <v>44194</v>
       </c>
       <c r="B254" t="n">
-        <v>34.96834945678711</v>
+        <v>34.96833801269531</v>
       </c>
       <c r="C254" t="n">
         <v>41.27000045776367</v>
@@ -6298,7 +6298,7 @@
         <v>44195</v>
       </c>
       <c r="B255" t="n">
-        <v>35.24794387817383</v>
+        <v>35.24794769287109</v>
       </c>
       <c r="C255" t="n">
         <v>41.59999847412109</v>
@@ -6321,7 +6321,7 @@
         <v>44196</v>
       </c>
       <c r="B256" t="n">
-        <v>34.92597579956055</v>
+        <v>34.92597198486328</v>
       </c>
       <c r="C256" t="n">
         <v>41.22000122070312</v>
@@ -6344,7 +6344,7 @@
         <v>44200</v>
       </c>
       <c r="B257" t="n">
-        <v>35.1632194519043</v>
+        <v>35.16322708129883</v>
       </c>
       <c r="C257" t="n">
         <v>41.5</v>
@@ -6367,7 +6367,7 @@
         <v>44201</v>
       </c>
       <c r="B258" t="n">
-        <v>36.85783004760742</v>
+        <v>36.85783386230469</v>
       </c>
       <c r="C258" t="n">
         <v>43.5</v>
@@ -6390,7 +6390,7 @@
         <v>44202</v>
       </c>
       <c r="B259" t="n">
-        <v>37.79834365844727</v>
+        <v>37.79834747314453</v>
       </c>
       <c r="C259" t="n">
         <v>44.61000061035156</v>
@@ -6413,7 +6413,7 @@
         <v>44203</v>
       </c>
       <c r="B260" t="n">
-        <v>38.09490203857422</v>
+        <v>38.09489822387695</v>
       </c>
       <c r="C260" t="n">
         <v>44.95999908447266</v>
@@ -6436,7 +6436,7 @@
         <v>44204</v>
       </c>
       <c r="B261" t="n">
-        <v>38.51854705810547</v>
+        <v>38.51855850219727</v>
       </c>
       <c r="C261" t="n">
         <v>45.45999908447266</v>
@@ -6459,7 +6459,7 @@
         <v>44207</v>
       </c>
       <c r="B262" t="n">
-        <v>39.68783950805664</v>
+        <v>39.68783187866211</v>
       </c>
       <c r="C262" t="n">
         <v>46.84000015258789</v>
@@ -6482,7 +6482,7 @@
         <v>44208</v>
       </c>
       <c r="B263" t="n">
-        <v>40.56903457641602</v>
+        <v>40.56903839111328</v>
       </c>
       <c r="C263" t="n">
         <v>47.88000106811523</v>
@@ -6505,7 +6505,7 @@
         <v>44209</v>
       </c>
       <c r="B264" t="n">
-        <v>41.02658081054688</v>
+        <v>41.02657699584961</v>
       </c>
       <c r="C264" t="n">
         <v>48.41999816894531</v>
@@ -6528,7 +6528,7 @@
         <v>44210</v>
       </c>
       <c r="B265" t="n">
-        <v>42.62799453735352</v>
+        <v>42.62798690795898</v>
       </c>
       <c r="C265" t="n">
         <v>50.31000137329102</v>
@@ -6551,7 +6551,7 @@
         <v>44211</v>
       </c>
       <c r="B266" t="n">
-        <v>40.57751083374023</v>
+        <v>40.5775146484375</v>
       </c>
       <c r="C266" t="n">
         <v>47.88999938964844</v>
@@ -6574,7 +6574,7 @@
         <v>44215</v>
       </c>
       <c r="B267" t="n">
-        <v>41.38245010375977</v>
+        <v>41.38245391845703</v>
       </c>
       <c r="C267" t="n">
         <v>48.84000015258789</v>
@@ -6597,7 +6597,7 @@
         <v>44216</v>
       </c>
       <c r="B268" t="n">
-        <v>41.96708297729492</v>
+        <v>41.96709442138672</v>
       </c>
       <c r="C268" t="n">
         <v>49.52999877929688</v>
@@ -6620,7 +6620,7 @@
         <v>44217</v>
       </c>
       <c r="B269" t="n">
-        <v>40.76391220092773</v>
+        <v>40.763916015625</v>
       </c>
       <c r="C269" t="n">
         <v>48.11000061035156</v>
@@ -6643,7 +6643,7 @@
         <v>44218</v>
       </c>
       <c r="B270" t="n">
-        <v>40.18775177001953</v>
+        <v>40.18774795532227</v>
       </c>
       <c r="C270" t="n">
         <v>47.43000030517578</v>
@@ -6689,7 +6689,7 @@
         <v>44222</v>
       </c>
       <c r="B272" t="n">
-        <v>38.86595153808594</v>
+        <v>38.86594772338867</v>
       </c>
       <c r="C272" t="n">
         <v>45.86999893188477</v>
@@ -6712,7 +6712,7 @@
         <v>44223</v>
       </c>
       <c r="B273" t="n">
-        <v>38.42534255981445</v>
+        <v>38.42535018920898</v>
       </c>
       <c r="C273" t="n">
         <v>45.34999847412109</v>
@@ -6735,7 +6735,7 @@
         <v>44224</v>
       </c>
       <c r="B274" t="n">
-        <v>39.02693939208984</v>
+        <v>39.02693557739258</v>
       </c>
       <c r="C274" t="n">
         <v>46.06000137329102</v>
@@ -6758,7 +6758,7 @@
         <v>44225</v>
       </c>
       <c r="B275" t="n">
-        <v>37.99321746826172</v>
+        <v>37.99322891235352</v>
       </c>
       <c r="C275" t="n">
         <v>44.84000015258789</v>
@@ -6804,7 +6804,7 @@
         <v>44229</v>
       </c>
       <c r="B277" t="n">
-        <v>38.66259765625</v>
+        <v>38.66260147094727</v>
       </c>
       <c r="C277" t="n">
         <v>45.63000106811523</v>
@@ -6827,7 +6827,7 @@
         <v>44230</v>
       </c>
       <c r="B278" t="n">
-        <v>40.17927551269531</v>
+        <v>40.17927169799805</v>
       </c>
       <c r="C278" t="n">
         <v>47.41999816894531</v>
@@ -6850,7 +6850,7 @@
         <v>44231</v>
       </c>
       <c r="B279" t="n">
-        <v>40.9503288269043</v>
+        <v>40.95032119750977</v>
       </c>
       <c r="C279" t="n">
         <v>48.33000183105469</v>
@@ -6873,7 +6873,7 @@
         <v>44232</v>
       </c>
       <c r="B280" t="n">
-        <v>42.32297134399414</v>
+        <v>42.32295989990234</v>
       </c>
       <c r="C280" t="n">
         <v>49.95000076293945</v>
@@ -6896,7 +6896,7 @@
         <v>44235</v>
       </c>
       <c r="B281" t="n">
-        <v>44.1446647644043</v>
+        <v>44.14467239379883</v>
       </c>
       <c r="C281" t="n">
         <v>52.09999847412109</v>
@@ -6965,7 +6965,7 @@
         <v>44238</v>
       </c>
       <c r="B284" t="n">
-        <v>42.94690322875977</v>
+        <v>42.9469108581543</v>
       </c>
       <c r="C284" t="n">
         <v>49.84000015258789</v>
@@ -6988,7 +6988,7 @@
         <v>44239</v>
       </c>
       <c r="B285" t="n">
-        <v>43.53287506103516</v>
+        <v>43.53286361694336</v>
       </c>
       <c r="C285" t="n">
         <v>50.52000045776367</v>
@@ -7011,7 +7011,7 @@
         <v>44243</v>
       </c>
       <c r="B286" t="n">
-        <v>44.84264755249023</v>
+        <v>44.8426399230957</v>
       </c>
       <c r="C286" t="n">
         <v>52.04000091552734</v>
@@ -7034,7 +7034,7 @@
         <v>44244</v>
       </c>
       <c r="B287" t="n">
-        <v>45.54061126708984</v>
+        <v>45.54062271118164</v>
       </c>
       <c r="C287" t="n">
         <v>52.84999847412109</v>
@@ -7080,7 +7080,7 @@
         <v>44246</v>
       </c>
       <c r="B289" t="n">
-        <v>45.12700653076172</v>
+        <v>45.12699890136719</v>
       </c>
       <c r="C289" t="n">
         <v>52.36999893188477</v>
@@ -7126,7 +7126,7 @@
         <v>44250</v>
       </c>
       <c r="B291" t="n">
-        <v>47.43635177612305</v>
+        <v>47.43634414672852</v>
       </c>
       <c r="C291" t="n">
         <v>55.04999923706055</v>
@@ -7172,7 +7172,7 @@
         <v>44252</v>
       </c>
       <c r="B293" t="n">
-        <v>48.04814910888672</v>
+        <v>48.04815292358398</v>
       </c>
       <c r="C293" t="n">
         <v>55.7599983215332</v>
@@ -7195,7 +7195,7 @@
         <v>44253</v>
       </c>
       <c r="B294" t="n">
-        <v>46.85039520263672</v>
+        <v>46.85039138793945</v>
       </c>
       <c r="C294" t="n">
         <v>54.36999893188477</v>
@@ -7218,7 +7218,7 @@
         <v>44256</v>
       </c>
       <c r="B295" t="n">
-        <v>48.59962463378906</v>
+        <v>48.59963226318359</v>
       </c>
       <c r="C295" t="n">
         <v>56.40000152587891</v>
@@ -7241,7 +7241,7 @@
         <v>44257</v>
       </c>
       <c r="B296" t="n">
-        <v>48.31528472900391</v>
+        <v>48.31528091430664</v>
       </c>
       <c r="C296" t="n">
         <v>56.06999969482422</v>
@@ -7287,7 +7287,7 @@
         <v>44259</v>
       </c>
       <c r="B298" t="n">
-        <v>50.59015655517578</v>
+        <v>50.59015274047852</v>
       </c>
       <c r="C298" t="n">
         <v>58.70999908447266</v>
@@ -7310,7 +7310,7 @@
         <v>44260</v>
       </c>
       <c r="B299" t="n">
-        <v>52.50311279296875</v>
+        <v>52.50311660766602</v>
       </c>
       <c r="C299" t="n">
         <v>60.93000030517578</v>
@@ -7333,7 +7333,7 @@
         <v>44263</v>
       </c>
       <c r="B300" t="n">
-        <v>52.45141220092773</v>
+        <v>52.451416015625</v>
       </c>
       <c r="C300" t="n">
         <v>60.86999893188477</v>
@@ -7356,7 +7356,7 @@
         <v>44264</v>
       </c>
       <c r="B301" t="n">
-        <v>51.64141464233398</v>
+        <v>51.64141845703125</v>
       </c>
       <c r="C301" t="n">
         <v>59.93000030517578</v>
@@ -7425,7 +7425,7 @@
         <v>44267</v>
       </c>
       <c r="B304" t="n">
-        <v>53.39927673339844</v>
+        <v>53.39928436279297</v>
       </c>
       <c r="C304" t="n">
         <v>61.97000122070312</v>
@@ -7471,7 +7471,7 @@
         <v>44271</v>
       </c>
       <c r="B306" t="n">
-        <v>50.9348258972168</v>
+        <v>50.93483352661133</v>
       </c>
       <c r="C306" t="n">
         <v>59.11000061035156</v>
@@ -7494,7 +7494,7 @@
         <v>44272</v>
       </c>
       <c r="B307" t="n">
-        <v>51.15887451171875</v>
+        <v>51.15887069702148</v>
       </c>
       <c r="C307" t="n">
         <v>59.36999893188477</v>
@@ -7655,7 +7655,7 @@
         <v>44281</v>
       </c>
       <c r="B314" t="n">
-        <v>49.72845840454102</v>
+        <v>49.72845458984375</v>
       </c>
       <c r="C314" t="n">
         <v>57.70999908447266</v>
@@ -7678,7 +7678,7 @@
         <v>44284</v>
       </c>
       <c r="B315" t="n">
-        <v>49.46133422851562</v>
+        <v>49.46133041381836</v>
       </c>
       <c r="C315" t="n">
         <v>57.40000152587891</v>
@@ -7724,7 +7724,7 @@
         <v>44286</v>
       </c>
       <c r="B317" t="n">
-        <v>48.10847854614258</v>
+        <v>48.10847473144531</v>
       </c>
       <c r="C317" t="n">
         <v>55.83000183105469</v>
@@ -7747,7 +7747,7 @@
         <v>44287</v>
       </c>
       <c r="B318" t="n">
-        <v>49.45272064208984</v>
+        <v>49.45270919799805</v>
       </c>
       <c r="C318" t="n">
         <v>57.38999938964844</v>
@@ -7770,7 +7770,7 @@
         <v>44291</v>
       </c>
       <c r="B319" t="n">
-        <v>48.68580627441406</v>
+        <v>48.68581390380859</v>
       </c>
       <c r="C319" t="n">
         <v>56.5</v>
@@ -7816,7 +7816,7 @@
         <v>44293</v>
       </c>
       <c r="B321" t="n">
-        <v>48.76335906982422</v>
+        <v>48.76336288452148</v>
       </c>
       <c r="C321" t="n">
         <v>56.59000015258789</v>
@@ -7839,7 +7839,7 @@
         <v>44294</v>
       </c>
       <c r="B322" t="n">
-        <v>48.25495529174805</v>
+        <v>48.25495147705078</v>
       </c>
       <c r="C322" t="n">
         <v>56</v>
@@ -7862,7 +7862,7 @@
         <v>44295</v>
       </c>
       <c r="B323" t="n">
-        <v>48.14294052124023</v>
+        <v>48.1429328918457</v>
       </c>
       <c r="C323" t="n">
         <v>55.86999893188477</v>
@@ -7885,7 +7885,7 @@
         <v>44298</v>
       </c>
       <c r="B324" t="n">
-        <v>47.8241081237793</v>
+        <v>47.82411193847656</v>
       </c>
       <c r="C324" t="n">
         <v>55.5</v>
@@ -7908,7 +7908,7 @@
         <v>44299</v>
       </c>
       <c r="B325" t="n">
-        <v>48.00506973266602</v>
+        <v>48.00506591796875</v>
       </c>
       <c r="C325" t="n">
         <v>55.70999908447266</v>
@@ -7954,7 +7954,7 @@
         <v>44301</v>
       </c>
       <c r="B327" t="n">
-        <v>49.09941101074219</v>
+        <v>49.09941864013672</v>
       </c>
       <c r="C327" t="n">
         <v>56.97999954223633</v>
@@ -7977,7 +7977,7 @@
         <v>44302</v>
       </c>
       <c r="B328" t="n">
-        <v>48.82368087768555</v>
+        <v>48.82367324829102</v>
       </c>
       <c r="C328" t="n">
         <v>56.65999984741211</v>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="B329" t="n">
-        <v>48.66857528686523</v>
+        <v>48.66857147216797</v>
       </c>
       <c r="C329" t="n">
         <v>56.47999954223633</v>
@@ -8046,7 +8046,7 @@
         <v>44307</v>
       </c>
       <c r="B331" t="n">
-        <v>48.25495529174805</v>
+        <v>48.25495147705078</v>
       </c>
       <c r="C331" t="n">
         <v>56</v>
@@ -8069,7 +8069,7 @@
         <v>44308</v>
       </c>
       <c r="B332" t="n">
-        <v>47.62592315673828</v>
+        <v>47.62591934204102</v>
       </c>
       <c r="C332" t="n">
         <v>55.27000045776367</v>
@@ -8092,7 +8092,7 @@
         <v>44309</v>
       </c>
       <c r="B333" t="n">
-        <v>47.88442230224609</v>
+        <v>47.88442993164062</v>
       </c>
       <c r="C333" t="n">
         <v>55.56999969482422</v>
@@ -8138,7 +8138,7 @@
         <v>44313</v>
       </c>
       <c r="B335" t="n">
-        <v>48.60825347900391</v>
+        <v>48.60824966430664</v>
       </c>
       <c r="C335" t="n">
         <v>56.40999984741211</v>
@@ -8161,7 +8161,7 @@
         <v>44314</v>
       </c>
       <c r="B336" t="n">
-        <v>50.07314682006836</v>
+        <v>50.07313919067383</v>
       </c>
       <c r="C336" t="n">
         <v>58.11000061035156</v>
@@ -8207,7 +8207,7 @@
         <v>44316</v>
       </c>
       <c r="B338" t="n">
-        <v>49.32347106933594</v>
+        <v>49.32346343994141</v>
       </c>
       <c r="C338" t="n">
         <v>57.2400016784668</v>
@@ -8230,7 +8230,7 @@
         <v>44319</v>
       </c>
       <c r="B339" t="n">
-        <v>50.68493270874023</v>
+        <v>50.68492889404297</v>
       </c>
       <c r="C339" t="n">
         <v>58.81999969482422</v>
@@ -8253,7 +8253,7 @@
         <v>44320</v>
       </c>
       <c r="B340" t="n">
-        <v>51.00376892089844</v>
+        <v>51.00376510620117</v>
       </c>
       <c r="C340" t="n">
         <v>59.18999862670898</v>
@@ -8276,7 +8276,7 @@
         <v>44321</v>
       </c>
       <c r="B341" t="n">
-        <v>52.5375862121582</v>
+        <v>52.53758239746094</v>
       </c>
       <c r="C341" t="n">
         <v>60.97000122070312</v>
@@ -8299,7 +8299,7 @@
         <v>44322</v>
       </c>
       <c r="B342" t="n">
-        <v>53.03736877441406</v>
+        <v>53.0373649597168</v>
       </c>
       <c r="C342" t="n">
         <v>61.54999923706055</v>
@@ -8322,7 +8322,7 @@
         <v>44323</v>
       </c>
       <c r="B343" t="n">
-        <v>53.79565811157227</v>
+        <v>53.7956657409668</v>
       </c>
       <c r="C343" t="n">
         <v>62.43000030517578</v>
@@ -8345,7 +8345,7 @@
         <v>44326</v>
       </c>
       <c r="B344" t="n">
-        <v>53.9249153137207</v>
+        <v>53.92491149902344</v>
       </c>
       <c r="C344" t="n">
         <v>62.58000183105469</v>
@@ -8368,7 +8368,7 @@
         <v>44327</v>
       </c>
       <c r="B345" t="n">
-        <v>52.21014404296875</v>
+        <v>52.21014022827148</v>
       </c>
       <c r="C345" t="n">
         <v>60.59000015258789</v>
@@ -8391,7 +8391,7 @@
         <v>44328</v>
       </c>
       <c r="B346" t="n">
-        <v>52.48990249633789</v>
+        <v>52.48990631103516</v>
       </c>
       <c r="C346" t="n">
         <v>60.04000091552734</v>
@@ -8437,7 +8437,7 @@
         <v>44330</v>
       </c>
       <c r="B348" t="n">
-        <v>53.12810516357422</v>
+        <v>53.12810134887695</v>
       </c>
       <c r="C348" t="n">
         <v>60.77000045776367</v>
@@ -8483,7 +8483,7 @@
         <v>44334</v>
       </c>
       <c r="B350" t="n">
-        <v>52.83086013793945</v>
+        <v>52.83085632324219</v>
       </c>
       <c r="C350" t="n">
         <v>60.43000030517578</v>
@@ -8529,7 +8529,7 @@
         <v>44336</v>
       </c>
       <c r="B352" t="n">
-        <v>51.44079971313477</v>
+        <v>51.44080352783203</v>
       </c>
       <c r="C352" t="n">
         <v>58.84000015258789</v>
@@ -8552,7 +8552,7 @@
         <v>44337</v>
       </c>
       <c r="B353" t="n">
-        <v>51.51073837280273</v>
+        <v>51.5107421875</v>
       </c>
       <c r="C353" t="n">
         <v>58.91999816894531</v>
@@ -8575,7 +8575,7 @@
         <v>44340</v>
       </c>
       <c r="B354" t="n">
-        <v>52.11398315429688</v>
+        <v>52.11397552490234</v>
       </c>
       <c r="C354" t="n">
         <v>59.61000061035156</v>
@@ -8598,7 +8598,7 @@
         <v>44341</v>
       </c>
       <c r="B355" t="n">
-        <v>50.93373107910156</v>
+        <v>50.93373870849609</v>
       </c>
       <c r="C355" t="n">
         <v>58.2599983215332</v>
@@ -8621,7 +8621,7 @@
         <v>44342</v>
       </c>
       <c r="B356" t="n">
-        <v>51.52822875976562</v>
+        <v>51.52823257446289</v>
       </c>
       <c r="C356" t="n">
         <v>58.93999862670898</v>
@@ -8644,7 +8644,7 @@
         <v>44343</v>
       </c>
       <c r="B357" t="n">
-        <v>51.19600296020508</v>
+        <v>51.19601821899414</v>
       </c>
       <c r="C357" t="n">
         <v>58.56000137329102</v>
@@ -8667,7 +8667,7 @@
         <v>44344</v>
       </c>
       <c r="B358" t="n">
-        <v>51.02990341186523</v>
+        <v>51.0298957824707</v>
       </c>
       <c r="C358" t="n">
         <v>58.36999893188477</v>
@@ -8690,7 +8690,7 @@
         <v>44348</v>
       </c>
       <c r="B359" t="n">
-        <v>52.85708618164062</v>
+        <v>52.85708999633789</v>
       </c>
       <c r="C359" t="n">
         <v>60.45999908447266</v>
@@ -8713,7 +8713,7 @@
         <v>44349</v>
       </c>
       <c r="B360" t="n">
-        <v>53.27671813964844</v>
+        <v>53.2767219543457</v>
       </c>
       <c r="C360" t="n">
         <v>60.93999862670898</v>
@@ -8759,7 +8759,7 @@
         <v>44351</v>
       </c>
       <c r="B362" t="n">
-        <v>53.72258758544922</v>
+        <v>53.72259140014648</v>
       </c>
       <c r="C362" t="n">
         <v>61.45000076293945</v>
@@ -8782,7 +8782,7 @@
         <v>44354</v>
       </c>
       <c r="B363" t="n">
-        <v>53.37289047241211</v>
+        <v>53.37288284301758</v>
       </c>
       <c r="C363" t="n">
         <v>61.04999923706055</v>
@@ -8805,7 +8805,7 @@
         <v>44355</v>
       </c>
       <c r="B364" t="n">
-        <v>54.31708145141602</v>
+        <v>54.31707382202148</v>
       </c>
       <c r="C364" t="n">
         <v>62.13000106811523</v>
@@ -8828,7 +8828,7 @@
         <v>44356</v>
       </c>
       <c r="B365" t="n">
-        <v>54.77169799804688</v>
+        <v>54.77168655395508</v>
       </c>
       <c r="C365" t="n">
         <v>62.65000152587891</v>
@@ -8851,7 +8851,7 @@
         <v>44357</v>
       </c>
       <c r="B366" t="n">
-        <v>54.8591194152832</v>
+        <v>54.85911178588867</v>
       </c>
       <c r="C366" t="n">
         <v>62.75</v>
@@ -8874,7 +8874,7 @@
         <v>44358</v>
       </c>
       <c r="B367" t="n">
-        <v>54.35204696655273</v>
+        <v>54.35205078125</v>
       </c>
       <c r="C367" t="n">
         <v>62.16999816894531</v>
@@ -8897,7 +8897,7 @@
         <v>44361</v>
       </c>
       <c r="B368" t="n">
-        <v>54.26461791992188</v>
+        <v>54.26462936401367</v>
       </c>
       <c r="C368" t="n">
         <v>62.06999969482422</v>
@@ -8943,7 +8943,7 @@
         <v>44363</v>
       </c>
       <c r="B370" t="n">
-        <v>56.03934860229492</v>
+        <v>56.03934478759766</v>
       </c>
       <c r="C370" t="n">
         <v>64.09999847412109</v>
@@ -8966,7 +8966,7 @@
         <v>44364</v>
       </c>
       <c r="B371" t="n">
-        <v>54.19468307495117</v>
+        <v>54.1946907043457</v>
       </c>
       <c r="C371" t="n">
         <v>61.9900016784668</v>
@@ -8989,7 +8989,7 @@
         <v>44365</v>
       </c>
       <c r="B372" t="n">
-        <v>52.80463027954102</v>
+        <v>52.80463409423828</v>
       </c>
       <c r="C372" t="n">
         <v>60.40000152587891</v>
@@ -9012,7 +9012,7 @@
         <v>44368</v>
       </c>
       <c r="B373" t="n">
-        <v>54.71923065185547</v>
+        <v>54.71924209594727</v>
       </c>
       <c r="C373" t="n">
         <v>62.59000015258789</v>
@@ -9035,7 +9035,7 @@
         <v>44369</v>
       </c>
       <c r="B374" t="n">
-        <v>55.76833724975586</v>
+        <v>55.76833343505859</v>
       </c>
       <c r="C374" t="n">
         <v>63.79000091552734</v>
@@ -9081,7 +9081,7 @@
         <v>44371</v>
       </c>
       <c r="B376" t="n">
-        <v>56.40652847290039</v>
+        <v>56.40653991699219</v>
       </c>
       <c r="C376" t="n">
         <v>64.51999664306641</v>
@@ -9104,7 +9104,7 @@
         <v>44372</v>
       </c>
       <c r="B377" t="n">
-        <v>56.5289306640625</v>
+        <v>56.52893447875977</v>
       </c>
       <c r="C377" t="n">
         <v>64.66000366210938</v>
@@ -9127,7 +9127,7 @@
         <v>44375</v>
       </c>
       <c r="B378" t="n">
-        <v>55.08642196655273</v>
+        <v>55.08641815185547</v>
       </c>
       <c r="C378" t="n">
         <v>63.0099983215332</v>
@@ -9219,7 +9219,7 @@
         <v>44379</v>
       </c>
       <c r="B382" t="n">
-        <v>55.22629928588867</v>
+        <v>55.22629547119141</v>
       </c>
       <c r="C382" t="n">
         <v>63.16999816894531</v>
@@ -9288,7 +9288,7 @@
         <v>44385</v>
       </c>
       <c r="B385" t="n">
-        <v>52.57731628417969</v>
+        <v>52.57732772827148</v>
       </c>
       <c r="C385" t="n">
         <v>60.13999938964844</v>
@@ -9311,7 +9311,7 @@
         <v>44386</v>
       </c>
       <c r="B386" t="n">
-        <v>53.53025817871094</v>
+        <v>53.5302619934082</v>
       </c>
       <c r="C386" t="n">
         <v>61.22999954223633</v>
@@ -9334,7 +9334,7 @@
         <v>44389</v>
       </c>
       <c r="B387" t="n">
-        <v>53.47780227661133</v>
+        <v>53.47779846191406</v>
       </c>
       <c r="C387" t="n">
         <v>61.16999816894531</v>
@@ -9380,7 +9380,7 @@
         <v>44391</v>
       </c>
       <c r="B389" t="n">
-        <v>52.04403686523438</v>
+        <v>52.04402923583984</v>
       </c>
       <c r="C389" t="n">
         <v>59.52999877929688</v>
@@ -9403,7 +9403,7 @@
         <v>44392</v>
       </c>
       <c r="B390" t="n">
-        <v>51.53696441650391</v>
+        <v>51.53697204589844</v>
       </c>
       <c r="C390" t="n">
         <v>58.95000076293945</v>
@@ -9426,7 +9426,7 @@
         <v>44393</v>
       </c>
       <c r="B391" t="n">
-        <v>50.1119499206543</v>
+        <v>50.11194610595703</v>
       </c>
       <c r="C391" t="n">
         <v>57.31999969482422</v>
@@ -9472,7 +9472,7 @@
         <v>44397</v>
       </c>
       <c r="B393" t="n">
-        <v>48.9229621887207</v>
+        <v>48.92296981811523</v>
       </c>
       <c r="C393" t="n">
         <v>55.95999908447266</v>
@@ -9495,7 +9495,7 @@
         <v>44398</v>
       </c>
       <c r="B394" t="n">
-        <v>50.49661254882812</v>
+        <v>50.49662017822266</v>
       </c>
       <c r="C394" t="n">
         <v>57.7599983215332</v>
@@ -9518,7 +9518,7 @@
         <v>44399</v>
       </c>
       <c r="B395" t="n">
-        <v>49.92835235595703</v>
+        <v>49.92835998535156</v>
       </c>
       <c r="C395" t="n">
         <v>57.11000061035156</v>
@@ -9541,7 +9541,7 @@
         <v>44400</v>
       </c>
       <c r="B396" t="n">
-        <v>49.86715316772461</v>
+        <v>49.86716079711914</v>
       </c>
       <c r="C396" t="n">
         <v>57.04000091552734</v>
@@ -9564,7 +9564,7 @@
         <v>44403</v>
       </c>
       <c r="B397" t="n">
-        <v>51.12607574462891</v>
+        <v>51.12607192993164</v>
       </c>
       <c r="C397" t="n">
         <v>58.47999954223633</v>
@@ -9633,7 +9633,7 @@
         <v>44406</v>
       </c>
       <c r="B400" t="n">
-        <v>51.51948928833008</v>
+        <v>51.51948547363281</v>
       </c>
       <c r="C400" t="n">
         <v>58.93000030517578</v>
@@ -9656,7 +9656,7 @@
         <v>44407</v>
       </c>
       <c r="B401" t="n">
-        <v>50.33050155639648</v>
+        <v>50.33050537109375</v>
       </c>
       <c r="C401" t="n">
         <v>57.56999969482422</v>
@@ -9679,7 +9679,7 @@
         <v>44410</v>
       </c>
       <c r="B402" t="n">
-        <v>50.3392448425293</v>
+        <v>50.33924865722656</v>
       </c>
       <c r="C402" t="n">
         <v>57.58000183105469</v>
@@ -9702,7 +9702,7 @@
         <v>44411</v>
       </c>
       <c r="B403" t="n">
-        <v>50.88127899169922</v>
+        <v>50.88128280639648</v>
       </c>
       <c r="C403" t="n">
         <v>58.20000076293945</v>
@@ -9725,7 +9725,7 @@
         <v>44412</v>
       </c>
       <c r="B404" t="n">
-        <v>49.69230270385742</v>
+        <v>49.69230651855469</v>
       </c>
       <c r="C404" t="n">
         <v>56.84000015258789</v>
@@ -9748,7 +9748,7 @@
         <v>44413</v>
       </c>
       <c r="B405" t="n">
-        <v>50.00703811645508</v>
+        <v>50.00703048706055</v>
       </c>
       <c r="C405" t="n">
         <v>57.20000076293945</v>
@@ -9771,7 +9771,7 @@
         <v>44414</v>
       </c>
       <c r="B406" t="n">
-        <v>50.58404159545898</v>
+        <v>50.58404541015625</v>
       </c>
       <c r="C406" t="n">
         <v>57.86000061035156</v>
@@ -9794,7 +9794,7 @@
         <v>44417</v>
       </c>
       <c r="B407" t="n">
-        <v>50.00703811645508</v>
+        <v>50.00703048706055</v>
       </c>
       <c r="C407" t="n">
         <v>57.20000076293945</v>
@@ -9817,7 +9817,7 @@
         <v>44418</v>
       </c>
       <c r="B408" t="n">
-        <v>50.86379623413086</v>
+        <v>50.86380004882812</v>
       </c>
       <c r="C408" t="n">
         <v>58.18000030517578</v>
@@ -9840,7 +9840,7 @@
         <v>44419</v>
       </c>
       <c r="B409" t="n">
-        <v>51.01242065429688</v>
+        <v>51.01241302490234</v>
       </c>
       <c r="C409" t="n">
         <v>58.34999847412109</v>
@@ -9909,7 +9909,7 @@
         <v>44424</v>
       </c>
       <c r="B412" t="n">
-        <v>49.64570236206055</v>
+        <v>49.64569854736328</v>
       </c>
       <c r="C412" t="n">
         <v>55.93999862670898</v>
@@ -9932,7 +9932,7 @@
         <v>44425</v>
       </c>
       <c r="B413" t="n">
-        <v>49.30845642089844</v>
+        <v>49.30846405029297</v>
       </c>
       <c r="C413" t="n">
         <v>55.56000137329102</v>
@@ -9978,7 +9978,7 @@
         <v>44427</v>
       </c>
       <c r="B415" t="n">
-        <v>46.7968864440918</v>
+        <v>46.79689025878906</v>
       </c>
       <c r="C415" t="n">
         <v>52.72999954223633</v>
@@ -10001,7 +10001,7 @@
         <v>44428</v>
       </c>
       <c r="B416" t="n">
-        <v>46.80576324462891</v>
+        <v>46.80575942993164</v>
       </c>
       <c r="C416" t="n">
         <v>52.7400016784668</v>
@@ -10024,7 +10024,7 @@
         <v>44431</v>
       </c>
       <c r="B417" t="n">
-        <v>48.73159408569336</v>
+        <v>48.73160171508789</v>
       </c>
       <c r="C417" t="n">
         <v>54.90999984741211</v>
@@ -10047,7 +10047,7 @@
         <v>44432</v>
       </c>
       <c r="B418" t="n">
-        <v>49.13096237182617</v>
+        <v>49.13095855712891</v>
       </c>
       <c r="C418" t="n">
         <v>55.36000061035156</v>
@@ -10070,7 +10070,7 @@
         <v>44433</v>
       </c>
       <c r="B419" t="n">
-        <v>49.21971130371094</v>
+        <v>49.21970748901367</v>
       </c>
       <c r="C419" t="n">
         <v>55.45999908447266</v>
@@ -10116,7 +10116,7 @@
         <v>44435</v>
       </c>
       <c r="B421" t="n">
-        <v>49.49483108520508</v>
+        <v>49.49482727050781</v>
       </c>
       <c r="C421" t="n">
         <v>55.77000045776367</v>
@@ -10139,7 +10139,7 @@
         <v>44438</v>
       </c>
       <c r="B422" t="n">
-        <v>48.95345687866211</v>
+        <v>48.95346450805664</v>
       </c>
       <c r="C422" t="n">
         <v>55.15999984741211</v>
@@ -10162,7 +10162,7 @@
         <v>44439</v>
       </c>
       <c r="B423" t="n">
-        <v>48.38547515869141</v>
+        <v>48.38547897338867</v>
       </c>
       <c r="C423" t="n">
         <v>54.52000045776367</v>
@@ -10185,7 +10185,7 @@
         <v>44440</v>
       </c>
       <c r="B424" t="n">
-        <v>47.71986770629883</v>
+        <v>47.7198600769043</v>
       </c>
       <c r="C424" t="n">
         <v>53.77000045776367</v>
@@ -10208,7 +10208,7 @@
         <v>44441</v>
       </c>
       <c r="B425" t="n">
-        <v>48.88246917724609</v>
+        <v>48.88246536254883</v>
       </c>
       <c r="C425" t="n">
         <v>55.08000183105469</v>
@@ -10231,7 +10231,7 @@
         <v>44442</v>
       </c>
       <c r="B426" t="n">
-        <v>48.69609451293945</v>
+        <v>48.69609069824219</v>
       </c>
       <c r="C426" t="n">
         <v>54.86999893188477</v>
@@ -10254,7 +10254,7 @@
         <v>44446</v>
       </c>
       <c r="B427" t="n">
-        <v>48.41210174560547</v>
+        <v>48.41209411621094</v>
       </c>
       <c r="C427" t="n">
         <v>54.54999923706055</v>
@@ -10277,7 +10277,7 @@
         <v>44447</v>
       </c>
       <c r="B428" t="n">
-        <v>47.96836090087891</v>
+        <v>47.96835327148438</v>
       </c>
       <c r="C428" t="n">
         <v>54.04999923706055</v>
@@ -10346,7 +10346,7 @@
         <v>44452</v>
       </c>
       <c r="B431" t="n">
-        <v>49.13983154296875</v>
+        <v>49.13983535766602</v>
       </c>
       <c r="C431" t="n">
         <v>55.36999893188477</v>
@@ -10369,7 +10369,7 @@
         <v>44453</v>
       </c>
       <c r="B432" t="n">
-        <v>48.43872451782227</v>
+        <v>48.438720703125</v>
       </c>
       <c r="C432" t="n">
         <v>54.58000183105469</v>
@@ -10415,7 +10415,7 @@
         <v>44455</v>
       </c>
       <c r="B434" t="n">
-        <v>49.53920364379883</v>
+        <v>49.53919982910156</v>
       </c>
       <c r="C434" t="n">
         <v>55.81999969482422</v>
@@ -10438,7 +10438,7 @@
         <v>44456</v>
       </c>
       <c r="B435" t="n">
-        <v>48.95345687866211</v>
+        <v>48.95346450805664</v>
       </c>
       <c r="C435" t="n">
         <v>55.15999984741211</v>
@@ -10461,7 +10461,7 @@
         <v>44459</v>
       </c>
       <c r="B436" t="n">
-        <v>47.64886474609375</v>
+        <v>47.64887237548828</v>
       </c>
       <c r="C436" t="n">
         <v>53.68999862670898</v>
@@ -10507,7 +10507,7 @@
         <v>44461</v>
       </c>
       <c r="B438" t="n">
-        <v>48.99784088134766</v>
+        <v>48.99784469604492</v>
       </c>
       <c r="C438" t="n">
         <v>55.20999908447266</v>
@@ -10530,7 +10530,7 @@
         <v>44462</v>
       </c>
       <c r="B439" t="n">
-        <v>50.65744018554688</v>
+        <v>50.65743255615234</v>
       </c>
       <c r="C439" t="n">
         <v>57.08000183105469</v>
@@ -10553,7 +10553,7 @@
         <v>44463</v>
       </c>
       <c r="B440" t="n">
-        <v>51.11004638671875</v>
+        <v>51.11004257202148</v>
       </c>
       <c r="C440" t="n">
         <v>57.59000015258789</v>
@@ -10576,7 +10576,7 @@
         <v>44466</v>
       </c>
       <c r="B441" t="n">
-        <v>52.62763595581055</v>
+        <v>52.62763977050781</v>
       </c>
       <c r="C441" t="n">
         <v>59.29999923706055</v>
@@ -10599,7 +10599,7 @@
         <v>44467</v>
       </c>
       <c r="B442" t="n">
-        <v>53.17787551879883</v>
+        <v>53.17787933349609</v>
       </c>
       <c r="C442" t="n">
         <v>59.91999816894531</v>
@@ -10645,7 +10645,7 @@
         <v>44469</v>
       </c>
       <c r="B444" t="n">
-        <v>52.20164108276367</v>
+        <v>52.2016487121582</v>
       </c>
       <c r="C444" t="n">
         <v>58.81999969482422</v>
@@ -10691,7 +10691,7 @@
         <v>44473</v>
       </c>
       <c r="B446" t="n">
-        <v>54.77534484863281</v>
+        <v>54.77534103393555</v>
       </c>
       <c r="C446" t="n">
         <v>61.72000122070312</v>
@@ -10714,7 +10714,7 @@
         <v>44474</v>
       </c>
       <c r="B447" t="n">
-        <v>54.68659973144531</v>
+        <v>54.68659591674805</v>
       </c>
       <c r="C447" t="n">
         <v>61.61999893188477</v>
@@ -10737,7 +10737,7 @@
         <v>44475</v>
       </c>
       <c r="B448" t="n">
-        <v>53.68374633789062</v>
+        <v>53.68374252319336</v>
       </c>
       <c r="C448" t="n">
         <v>60.4900016784668</v>
@@ -10783,7 +10783,7 @@
         <v>44477</v>
       </c>
       <c r="B450" t="n">
-        <v>55.18358993530273</v>
+        <v>55.18358612060547</v>
       </c>
       <c r="C450" t="n">
         <v>62.18000030517578</v>
@@ -10806,7 +10806,7 @@
         <v>44480</v>
       </c>
       <c r="B451" t="n">
-        <v>54.63334274291992</v>
+        <v>54.63334655761719</v>
       </c>
       <c r="C451" t="n">
         <v>61.56000137329102</v>
@@ -10829,7 +10829,7 @@
         <v>44481</v>
       </c>
       <c r="B452" t="n">
-        <v>54.34934997558594</v>
+        <v>54.3493537902832</v>
       </c>
       <c r="C452" t="n">
         <v>61.2400016784668</v>
@@ -10875,7 +10875,7 @@
         <v>44483</v>
       </c>
       <c r="B454" t="n">
-        <v>55.02383804321289</v>
+        <v>55.02383422851562</v>
       </c>
       <c r="C454" t="n">
         <v>62</v>
@@ -10921,7 +10921,7 @@
         <v>44487</v>
       </c>
       <c r="B456" t="n">
-        <v>55.52082443237305</v>
+        <v>55.52082061767578</v>
       </c>
       <c r="C456" t="n">
         <v>62.56000137329102</v>
@@ -10944,7 +10944,7 @@
         <v>44488</v>
       </c>
       <c r="B457" t="n">
-        <v>56.35506820678711</v>
+        <v>56.35505676269531</v>
       </c>
       <c r="C457" t="n">
         <v>63.5</v>
@@ -10967,7 +10967,7 @@
         <v>44489</v>
       </c>
       <c r="B458" t="n">
-        <v>56.66567611694336</v>
+        <v>56.66567230224609</v>
       </c>
       <c r="C458" t="n">
         <v>63.84999847412109</v>
@@ -10990,7 +10990,7 @@
         <v>44490</v>
       </c>
       <c r="B459" t="n">
-        <v>55.63619613647461</v>
+        <v>55.63619995117188</v>
       </c>
       <c r="C459" t="n">
         <v>62.68999862670898</v>
@@ -11013,7 +11013,7 @@
         <v>44491</v>
       </c>
       <c r="B460" t="n">
-        <v>56.0178108215332</v>
+        <v>56.01781463623047</v>
       </c>
       <c r="C460" t="n">
         <v>63.11999893188477</v>
@@ -11036,7 +11036,7 @@
         <v>44494</v>
       </c>
       <c r="B461" t="n">
-        <v>57.10941696166992</v>
+        <v>57.10940933227539</v>
       </c>
       <c r="C461" t="n">
         <v>64.34999847412109</v>
@@ -11059,7 +11059,7 @@
         <v>44495</v>
       </c>
       <c r="B462" t="n">
-        <v>58.43175506591797</v>
+        <v>58.4317626953125</v>
       </c>
       <c r="C462" t="n">
         <v>65.83999633789062</v>
@@ -11082,7 +11082,7 @@
         <v>44496</v>
       </c>
       <c r="B463" t="n">
-        <v>56.9141731262207</v>
+        <v>56.91416931152344</v>
       </c>
       <c r="C463" t="n">
         <v>64.12999725341797</v>
@@ -11105,7 +11105,7 @@
         <v>44497</v>
       </c>
       <c r="B464" t="n">
-        <v>57.07392120361328</v>
+        <v>57.07391738891602</v>
       </c>
       <c r="C464" t="n">
         <v>64.30999755859375</v>
@@ -11128,7 +11128,7 @@
         <v>44498</v>
       </c>
       <c r="B465" t="n">
-        <v>57.21590423583984</v>
+        <v>57.21590805053711</v>
       </c>
       <c r="C465" t="n">
         <v>64.47000122070312</v>
@@ -11151,7 +11151,7 @@
         <v>44501</v>
       </c>
       <c r="B466" t="n">
-        <v>58.24539184570312</v>
+        <v>58.24538803100586</v>
       </c>
       <c r="C466" t="n">
         <v>65.62999725341797</v>
@@ -11266,7 +11266,7 @@
         <v>44508</v>
       </c>
       <c r="B471" t="n">
-        <v>58.32526779174805</v>
+        <v>58.32527542114258</v>
       </c>
       <c r="C471" t="n">
         <v>65.72000122070312</v>
@@ -11335,7 +11335,7 @@
         <v>44511</v>
       </c>
       <c r="B474" t="n">
-        <v>57.84095001220703</v>
+        <v>57.84094619750977</v>
       </c>
       <c r="C474" t="n">
         <v>64.30999755859375</v>
@@ -11358,7 +11358,7 @@
         <v>44512</v>
       </c>
       <c r="B475" t="n">
-        <v>57.40023803710938</v>
+        <v>57.40023422241211</v>
       </c>
       <c r="C475" t="n">
         <v>63.81999969482422</v>
@@ -11381,7 +11381,7 @@
         <v>44515</v>
       </c>
       <c r="B476" t="n">
-        <v>57.89492034912109</v>
+        <v>57.89491271972656</v>
       </c>
       <c r="C476" t="n">
         <v>64.37000274658203</v>
@@ -11427,7 +11427,7 @@
         <v>44517</v>
       </c>
       <c r="B478" t="n">
-        <v>57.84095001220703</v>
+        <v>57.84094619750977</v>
       </c>
       <c r="C478" t="n">
         <v>64.30999755859375</v>
@@ -11450,7 +11450,7 @@
         <v>44518</v>
       </c>
       <c r="B479" t="n">
-        <v>57.21136093139648</v>
+        <v>57.21136474609375</v>
       </c>
       <c r="C479" t="n">
         <v>63.61000061035156</v>
@@ -11496,7 +11496,7 @@
         <v>44522</v>
       </c>
       <c r="B481" t="n">
-        <v>55.32260894775391</v>
+        <v>55.32260131835938</v>
       </c>
       <c r="C481" t="n">
         <v>61.5099983215332</v>
@@ -11519,7 +11519,7 @@
         <v>44523</v>
       </c>
       <c r="B482" t="n">
-        <v>56.77964401245117</v>
+        <v>56.77964019775391</v>
       </c>
       <c r="C482" t="n">
         <v>63.13000106811523</v>
@@ -11542,7 +11542,7 @@
         <v>44524</v>
       </c>
       <c r="B483" t="n">
-        <v>57.09443664550781</v>
+        <v>57.09444046020508</v>
       </c>
       <c r="C483" t="n">
         <v>63.47999954223633</v>
@@ -11565,7 +11565,7 @@
         <v>44526</v>
       </c>
       <c r="B484" t="n">
-        <v>55.08875274658203</v>
+        <v>55.08876037597656</v>
       </c>
       <c r="C484" t="n">
         <v>61.25</v>
@@ -11588,7 +11588,7 @@
         <v>44529</v>
       </c>
       <c r="B485" t="n">
-        <v>55.39456176757812</v>
+        <v>55.39455795288086</v>
       </c>
       <c r="C485" t="n">
         <v>61.59000015258789</v>
@@ -11611,7 +11611,7 @@
         <v>44530</v>
       </c>
       <c r="B486" t="n">
-        <v>53.82059860229492</v>
+        <v>53.82059097290039</v>
       </c>
       <c r="C486" t="n">
         <v>59.84000015258789</v>
@@ -11634,7 +11634,7 @@
         <v>44531</v>
       </c>
       <c r="B487" t="n">
-        <v>53.7756233215332</v>
+        <v>53.77562713623047</v>
       </c>
       <c r="C487" t="n">
         <v>59.79000091552734</v>
@@ -11657,7 +11657,7 @@
         <v>44532</v>
       </c>
       <c r="B488" t="n">
-        <v>55.11574172973633</v>
+        <v>55.11573791503906</v>
       </c>
       <c r="C488" t="n">
         <v>61.27999877929688</v>
@@ -11703,7 +11703,7 @@
         <v>44536</v>
       </c>
       <c r="B490" t="n">
-        <v>55.38555908203125</v>
+        <v>55.38556289672852</v>
       </c>
       <c r="C490" t="n">
         <v>61.58000183105469</v>
@@ -11726,7 +11726,7 @@
         <v>44537</v>
       </c>
       <c r="B491" t="n">
-        <v>56.00615692138672</v>
+        <v>56.00616073608398</v>
       </c>
       <c r="C491" t="n">
         <v>62.27000045776367</v>
@@ -11749,7 +11749,7 @@
         <v>44538</v>
       </c>
       <c r="B492" t="n">
-        <v>56.16804504394531</v>
+        <v>56.16805267333984</v>
       </c>
       <c r="C492" t="n">
         <v>62.45000076293945</v>
@@ -11772,7 +11772,7 @@
         <v>44539</v>
       </c>
       <c r="B493" t="n">
-        <v>56.31195831298828</v>
+        <v>56.31195449829102</v>
       </c>
       <c r="C493" t="n">
         <v>62.61000061035156</v>
@@ -11795,7 +11795,7 @@
         <v>44540</v>
       </c>
       <c r="B494" t="n">
-        <v>56.67170715332031</v>
+        <v>56.67171096801758</v>
       </c>
       <c r="C494" t="n">
         <v>63.0099983215332</v>
@@ -11841,7 +11841,7 @@
         <v>44544</v>
       </c>
       <c r="B496" t="n">
-        <v>55.34958267211914</v>
+        <v>55.34958648681641</v>
       </c>
       <c r="C496" t="n">
         <v>61.54000091552734</v>
@@ -11864,7 +11864,7 @@
         <v>44545</v>
       </c>
       <c r="B497" t="n">
-        <v>55.10675048828125</v>
+        <v>55.10674667358398</v>
       </c>
       <c r="C497" t="n">
         <v>61.27000045776367</v>
@@ -11910,7 +11910,7 @@
         <v>44547</v>
       </c>
       <c r="B499" t="n">
-        <v>53.99148559570312</v>
+        <v>53.99147796630859</v>
       </c>
       <c r="C499" t="n">
         <v>60.02999877929688</v>
@@ -11933,7 +11933,7 @@
         <v>44550</v>
       </c>
       <c r="B500" t="n">
-        <v>53.20899200439453</v>
+        <v>53.2089958190918</v>
       </c>
       <c r="C500" t="n">
         <v>59.15999984741211</v>
@@ -11956,7 +11956,7 @@
         <v>44551</v>
       </c>
       <c r="B501" t="n">
-        <v>54.41420364379883</v>
+        <v>54.41419982910156</v>
       </c>
       <c r="C501" t="n">
         <v>60.5</v>
@@ -11979,7 +11979,7 @@
         <v>44552</v>
       </c>
       <c r="B502" t="n">
-        <v>54.85491561889648</v>
+        <v>54.85491180419922</v>
       </c>
       <c r="C502" t="n">
         <v>60.9900016784668</v>
@@ -12002,7 +12002,7 @@
         <v>44553</v>
       </c>
       <c r="B503" t="n">
-        <v>54.88188934326172</v>
+        <v>54.88189697265625</v>
       </c>
       <c r="C503" t="n">
         <v>61.02000045776367</v>
@@ -12025,7 +12025,7 @@
         <v>44557</v>
       </c>
       <c r="B504" t="n">
-        <v>55.66437530517578</v>
+        <v>55.66438293457031</v>
       </c>
       <c r="C504" t="n">
         <v>61.88999938964844</v>
@@ -12117,7 +12117,7 @@
         <v>44561</v>
       </c>
       <c r="B508" t="n">
-        <v>55.0347900390625</v>
+        <v>55.03479766845703</v>
       </c>
       <c r="C508" t="n">
         <v>61.18999862670898</v>
@@ -12140,7 +12140,7 @@
         <v>44564</v>
       </c>
       <c r="B509" t="n">
-        <v>57.14840316772461</v>
+        <v>57.14841461181641</v>
       </c>
       <c r="C509" t="n">
         <v>63.54000091552734</v>
@@ -12163,7 +12163,7 @@
         <v>44565</v>
       </c>
       <c r="B510" t="n">
-        <v>59.29798889160156</v>
+        <v>59.29800033569336</v>
       </c>
       <c r="C510" t="n">
         <v>65.93000030517578</v>
@@ -12186,7 +12186,7 @@
         <v>44566</v>
       </c>
       <c r="B511" t="n">
-        <v>60.03549575805664</v>
+        <v>60.0355110168457</v>
       </c>
       <c r="C511" t="n">
         <v>66.75</v>
@@ -12209,7 +12209,7 @@
         <v>44567</v>
       </c>
       <c r="B512" t="n">
-        <v>61.44758224487305</v>
+        <v>61.44757080078125</v>
       </c>
       <c r="C512" t="n">
         <v>68.31999969482422</v>
@@ -12255,7 +12255,7 @@
         <v>44571</v>
       </c>
       <c r="B514" t="n">
-        <v>61.58249664306641</v>
+        <v>61.58249282836914</v>
       </c>
       <c r="C514" t="n">
         <v>68.47000122070312</v>
@@ -12324,7 +12324,7 @@
         <v>44574</v>
       </c>
       <c r="B517" t="n">
-        <v>63.52521133422852</v>
+        <v>63.52519989013672</v>
       </c>
       <c r="C517" t="n">
         <v>70.62999725341797</v>
@@ -12370,7 +12370,7 @@
         <v>44579</v>
       </c>
       <c r="B519" t="n">
-        <v>65.72876739501953</v>
+        <v>65.728759765625</v>
       </c>
       <c r="C519" t="n">
         <v>73.08000183105469</v>
@@ -12393,7 +12393,7 @@
         <v>44580</v>
       </c>
       <c r="B520" t="n">
-        <v>65.75572967529297</v>
+        <v>65.7557373046875</v>
       </c>
       <c r="C520" t="n">
         <v>73.11000061035156</v>
@@ -12416,7 +12416,7 @@
         <v>44581</v>
       </c>
       <c r="B521" t="n">
-        <v>65.89964294433594</v>
+        <v>65.89965057373047</v>
       </c>
       <c r="C521" t="n">
         <v>73.26999664306641</v>
@@ -12439,7 +12439,7 @@
         <v>44582</v>
       </c>
       <c r="B522" t="n">
-        <v>64.91029357910156</v>
+        <v>64.91030883789062</v>
       </c>
       <c r="C522" t="n">
         <v>72.16999816894531</v>
@@ -12462,7 +12462,7 @@
         <v>44585</v>
       </c>
       <c r="B523" t="n">
-        <v>65.46794128417969</v>
+        <v>65.46793365478516</v>
       </c>
       <c r="C523" t="n">
         <v>72.79000091552734</v>
@@ -12485,7 +12485,7 @@
         <v>44586</v>
       </c>
       <c r="B524" t="n">
-        <v>67.39266967773438</v>
+        <v>67.39268493652344</v>
       </c>
       <c r="C524" t="n">
         <v>74.93000030517578</v>
@@ -12577,7 +12577,7 @@
         <v>44592</v>
       </c>
       <c r="B528" t="n">
-        <v>68.31904602050781</v>
+        <v>68.31906890869141</v>
       </c>
       <c r="C528" t="n">
         <v>75.95999908447266</v>
@@ -12623,7 +12623,7 @@
         <v>44594</v>
       </c>
       <c r="B530" t="n">
-        <v>72.51029205322266</v>
+        <v>72.51030731201172</v>
       </c>
       <c r="C530" t="n">
         <v>80.62000274658203</v>
@@ -12646,7 +12646,7 @@
         <v>44595</v>
       </c>
       <c r="B531" t="n">
-        <v>71.66484832763672</v>
+        <v>71.66485595703125</v>
       </c>
       <c r="C531" t="n">
         <v>79.68000030517578</v>
@@ -12692,7 +12692,7 @@
         <v>44599</v>
       </c>
       <c r="B533" t="n">
-        <v>74.10225677490234</v>
+        <v>74.10224914550781</v>
       </c>
       <c r="C533" t="n">
         <v>82.38999938964844</v>
@@ -12715,7 +12715,7 @@
         <v>44600</v>
       </c>
       <c r="B534" t="n">
-        <v>72.18650817871094</v>
+        <v>72.18650054931641</v>
       </c>
       <c r="C534" t="n">
         <v>80.26000213623047</v>
@@ -12738,7 +12738,7 @@
         <v>44601</v>
       </c>
       <c r="B535" t="n">
-        <v>71.84093475341797</v>
+        <v>71.84095001220703</v>
       </c>
       <c r="C535" t="n">
         <v>79</v>
@@ -12761,7 +12761,7 @@
         <v>44602</v>
       </c>
       <c r="B536" t="n">
-        <v>71.14981842041016</v>
+        <v>71.14983367919922</v>
       </c>
       <c r="C536" t="n">
         <v>78.23999786376953</v>
@@ -12784,7 +12784,7 @@
         <v>44603</v>
       </c>
       <c r="B537" t="n">
-        <v>72.9412841796875</v>
+        <v>72.94129180908203</v>
       </c>
       <c r="C537" t="n">
         <v>80.20999908447266</v>
@@ -12807,7 +12807,7 @@
         <v>44606</v>
       </c>
       <c r="B538" t="n">
-        <v>71.82275390625</v>
+        <v>71.82276153564453</v>
       </c>
       <c r="C538" t="n">
         <v>78.98000335693359</v>
@@ -12876,7 +12876,7 @@
         <v>44609</v>
       </c>
       <c r="B541" t="n">
-        <v>71.14071655273438</v>
+        <v>71.14073181152344</v>
       </c>
       <c r="C541" t="n">
         <v>78.23000335693359</v>
@@ -12899,7 +12899,7 @@
         <v>44610</v>
       </c>
       <c r="B542" t="n">
-        <v>70.34957885742188</v>
+        <v>70.34957122802734</v>
       </c>
       <c r="C542" t="n">
         <v>77.36000061035156</v>
@@ -12922,7 +12922,7 @@
         <v>44614</v>
       </c>
       <c r="B543" t="n">
-        <v>69.5311279296875</v>
+        <v>69.53112030029297</v>
       </c>
       <c r="C543" t="n">
         <v>76.45999908447266</v>
@@ -12968,7 +12968,7 @@
         <v>44616</v>
       </c>
       <c r="B545" t="n">
-        <v>68.93093109130859</v>
+        <v>68.93093872070312</v>
       </c>
       <c r="C545" t="n">
         <v>75.80000305175781</v>
@@ -12991,7 +12991,7 @@
         <v>44617</v>
       </c>
       <c r="B546" t="n">
-        <v>70.78605651855469</v>
+        <v>70.78606414794922</v>
       </c>
       <c r="C546" t="n">
         <v>77.83999633789062</v>
@@ -13014,7 +13014,7 @@
         <v>44620</v>
       </c>
       <c r="B547" t="n">
-        <v>71.31350708007812</v>
+        <v>71.31349945068359</v>
       </c>
       <c r="C547" t="n">
         <v>78.41999816894531</v>
@@ -13037,7 +13037,7 @@
         <v>44621</v>
       </c>
       <c r="B548" t="n">
-        <v>71.99554443359375</v>
+        <v>71.99553680419922</v>
       </c>
       <c r="C548" t="n">
         <v>79.16999816894531</v>
@@ -13106,7 +13106,7 @@
         <v>44624</v>
       </c>
       <c r="B551" t="n">
-        <v>76.46968841552734</v>
+        <v>76.46968078613281</v>
       </c>
       <c r="C551" t="n">
         <v>84.08999633789062</v>
@@ -13129,7 +13129,7 @@
         <v>44627</v>
       </c>
       <c r="B552" t="n">
-        <v>79.22511291503906</v>
+        <v>79.22510528564453</v>
       </c>
       <c r="C552" t="n">
         <v>87.12000274658203</v>
@@ -13152,7 +13152,7 @@
         <v>44628</v>
       </c>
       <c r="B553" t="n">
-        <v>79.82528686523438</v>
+        <v>79.82530212402344</v>
       </c>
       <c r="C553" t="n">
         <v>87.77999877929688</v>
@@ -13175,7 +13175,7 @@
         <v>44629</v>
       </c>
       <c r="B554" t="n">
-        <v>75.28749847412109</v>
+        <v>75.28749084472656</v>
       </c>
       <c r="C554" t="n">
         <v>82.79000091552734</v>
@@ -13198,7 +13198,7 @@
         <v>44630</v>
       </c>
       <c r="B555" t="n">
-        <v>77.62460327148438</v>
+        <v>77.62461090087891</v>
       </c>
       <c r="C555" t="n">
         <v>85.36000061035156</v>
@@ -13244,7 +13244,7 @@
         <v>44634</v>
       </c>
       <c r="B557" t="n">
-        <v>74.45996856689453</v>
+        <v>74.45994567871094</v>
       </c>
       <c r="C557" t="n">
         <v>81.87999725341797</v>
@@ -13267,7 +13267,7 @@
         <v>44635</v>
       </c>
       <c r="B558" t="n">
-        <v>70.22226715087891</v>
+        <v>70.22224426269531</v>
       </c>
       <c r="C558" t="n">
         <v>77.22000122070312</v>
@@ -13290,7 +13290,7 @@
         <v>44636</v>
       </c>
       <c r="B559" t="n">
-        <v>69.95853424072266</v>
+        <v>69.95854187011719</v>
       </c>
       <c r="C559" t="n">
         <v>76.93000030517578</v>
@@ -13313,7 +13313,7 @@
         <v>44637</v>
       </c>
       <c r="B560" t="n">
-        <v>71.82275390625</v>
+        <v>71.82276153564453</v>
       </c>
       <c r="C560" t="n">
         <v>78.98000335693359</v>
@@ -13336,7 +13336,7 @@
         <v>44638</v>
       </c>
       <c r="B561" t="n">
-        <v>71.54084777832031</v>
+        <v>71.54085540771484</v>
       </c>
       <c r="C561" t="n">
         <v>78.66999816894531</v>
@@ -13359,7 +13359,7 @@
         <v>44641</v>
       </c>
       <c r="B562" t="n">
-        <v>74.75096130371094</v>
+        <v>74.75096893310547</v>
       </c>
       <c r="C562" t="n">
         <v>82.19999694824219</v>
@@ -13382,7 +13382,7 @@
         <v>44642</v>
       </c>
       <c r="B563" t="n">
-        <v>74.42359161376953</v>
+        <v>74.42356872558594</v>
       </c>
       <c r="C563" t="n">
         <v>81.83999633789062</v>
@@ -13405,7 +13405,7 @@
         <v>44643</v>
       </c>
       <c r="B564" t="n">
-        <v>75.59667205810547</v>
+        <v>75.5966796875</v>
       </c>
       <c r="C564" t="n">
         <v>83.12999725341797</v>
@@ -13428,7 +13428,7 @@
         <v>44644</v>
       </c>
       <c r="B565" t="n">
-        <v>75.82402801513672</v>
+        <v>75.82402038574219</v>
       </c>
       <c r="C565" t="n">
         <v>83.37999725341797</v>
@@ -13451,7 +13451,7 @@
         <v>44645</v>
       </c>
       <c r="B566" t="n">
-        <v>77.47909545898438</v>
+        <v>77.47910308837891</v>
       </c>
       <c r="C566" t="n">
         <v>85.19999694824219</v>
@@ -13474,7 +13474,7 @@
         <v>44648</v>
       </c>
       <c r="B567" t="n">
-        <v>75.30567932128906</v>
+        <v>75.30568695068359</v>
       </c>
       <c r="C567" t="n">
         <v>82.80999755859375</v>
@@ -13497,7 +13497,7 @@
         <v>44649</v>
       </c>
       <c r="B568" t="n">
-        <v>74.90557098388672</v>
+        <v>74.90555572509766</v>
       </c>
       <c r="C568" t="n">
         <v>82.37000274658203</v>
@@ -13520,7 +13520,7 @@
         <v>44650</v>
       </c>
       <c r="B569" t="n">
-        <v>76.18778228759766</v>
+        <v>76.18777465820312</v>
       </c>
       <c r="C569" t="n">
         <v>83.77999877929688</v>
@@ -13543,7 +13543,7 @@
         <v>44651</v>
       </c>
       <c r="B570" t="n">
-        <v>75.10561370849609</v>
+        <v>75.10562133789062</v>
       </c>
       <c r="C570" t="n">
         <v>82.58999633789062</v>
@@ -13566,7 +13566,7 @@
         <v>44652</v>
       </c>
       <c r="B571" t="n">
-        <v>75.58760070800781</v>
+        <v>75.58759307861328</v>
       </c>
       <c r="C571" t="n">
         <v>83.12000274658203</v>
@@ -13589,7 +13589,7 @@
         <v>44655</v>
       </c>
       <c r="B572" t="n">
-        <v>75.62396240234375</v>
+        <v>75.62397003173828</v>
       </c>
       <c r="C572" t="n">
         <v>83.16000366210938</v>
@@ -13612,7 +13612,7 @@
         <v>44656</v>
       </c>
       <c r="B573" t="n">
-        <v>75.23292541503906</v>
+        <v>75.23294067382812</v>
       </c>
       <c r="C573" t="n">
         <v>82.73000335693359</v>
@@ -13658,7 +13658,7 @@
         <v>44658</v>
       </c>
       <c r="B575" t="n">
-        <v>77.34269714355469</v>
+        <v>77.34268188476562</v>
       </c>
       <c r="C575" t="n">
         <v>85.05000305175781</v>
@@ -13704,7 +13704,7 @@
         <v>44662</v>
       </c>
       <c r="B577" t="n">
-        <v>76.25143432617188</v>
+        <v>76.25144195556641</v>
       </c>
       <c r="C577" t="n">
         <v>83.84999847412109</v>
@@ -13750,7 +13750,7 @@
         <v>44664</v>
       </c>
       <c r="B579" t="n">
-        <v>78.94318389892578</v>
+        <v>78.94319915771484</v>
       </c>
       <c r="C579" t="n">
         <v>86.80999755859375</v>
@@ -13773,7 +13773,7 @@
         <v>44665</v>
       </c>
       <c r="B580" t="n">
-        <v>79.87075805664062</v>
+        <v>79.87078094482422</v>
       </c>
       <c r="C580" t="n">
         <v>87.83000183105469</v>
@@ -13819,7 +13819,7 @@
         <v>44670</v>
       </c>
       <c r="B582" t="n">
-        <v>79.80711364746094</v>
+        <v>79.80710601806641</v>
       </c>
       <c r="C582" t="n">
         <v>87.76000213623047</v>
@@ -13842,7 +13842,7 @@
         <v>44671</v>
       </c>
       <c r="B583" t="n">
-        <v>79.98897552490234</v>
+        <v>79.98899078369141</v>
       </c>
       <c r="C583" t="n">
         <v>87.95999908447266</v>
@@ -13865,7 +13865,7 @@
         <v>44672</v>
       </c>
       <c r="B584" t="n">
-        <v>79.14326477050781</v>
+        <v>79.14325714111328</v>
       </c>
       <c r="C584" t="n">
         <v>87.02999877929688</v>
@@ -13980,7 +13980,7 @@
         <v>44679</v>
       </c>
       <c r="B589" t="n">
-        <v>79.29784393310547</v>
+        <v>79.2978515625</v>
       </c>
       <c r="C589" t="n">
         <v>87.19999694824219</v>
@@ -14026,7 +14026,7 @@
         <v>44683</v>
       </c>
       <c r="B591" t="n">
-        <v>78.57945251464844</v>
+        <v>78.57944488525391</v>
       </c>
       <c r="C591" t="n">
         <v>86.41000366210938</v>
@@ -14049,7 +14049,7 @@
         <v>44684</v>
       </c>
       <c r="B592" t="n">
-        <v>80.19815063476562</v>
+        <v>80.19813537597656</v>
       </c>
       <c r="C592" t="n">
         <v>88.19000244140625</v>
@@ -14072,7 +14072,7 @@
         <v>44685</v>
       </c>
       <c r="B593" t="n">
-        <v>83.39006042480469</v>
+        <v>83.39004516601562</v>
       </c>
       <c r="C593" t="n">
         <v>91.69999694824219</v>
@@ -14095,7 +14095,7 @@
         <v>44686</v>
       </c>
       <c r="B594" t="n">
-        <v>82.12602996826172</v>
+        <v>82.12602233886719</v>
       </c>
       <c r="C594" t="n">
         <v>90.30999755859375</v>
@@ -14164,7 +14164,7 @@
         <v>44691</v>
       </c>
       <c r="B597" t="n">
-        <v>77.31540679931641</v>
+        <v>77.31541442871094</v>
       </c>
       <c r="C597" t="n">
         <v>85.01999664306641</v>
@@ -14187,7 +14187,7 @@
         <v>44692</v>
       </c>
       <c r="B598" t="n">
-        <v>78.92500305175781</v>
+        <v>78.92501831054688</v>
       </c>
       <c r="C598" t="n">
         <v>86.79000091552734</v>
@@ -14210,7 +14210,7 @@
         <v>44693</v>
       </c>
       <c r="B599" t="n">
-        <v>79.28330230712891</v>
+        <v>79.28330993652344</v>
       </c>
       <c r="C599" t="n">
         <v>86.30000305175781</v>
@@ -14233,7 +14233,7 @@
         <v>44694</v>
       </c>
       <c r="B600" t="n">
-        <v>81.63516998291016</v>
+        <v>81.63516235351562</v>
       </c>
       <c r="C600" t="n">
         <v>88.86000061035156</v>
@@ -14256,7 +14256,7 @@
         <v>44697</v>
       </c>
       <c r="B601" t="n">
-        <v>83.55522918701172</v>
+        <v>83.55522155761719</v>
       </c>
       <c r="C601" t="n">
         <v>90.94999694824219</v>
@@ -14325,7 +14325,7 @@
         <v>44700</v>
       </c>
       <c r="B604" t="n">
-        <v>83.72977447509766</v>
+        <v>83.72979736328125</v>
       </c>
       <c r="C604" t="n">
         <v>91.13999938964844</v>
@@ -14371,7 +14371,7 @@
         <v>44704</v>
       </c>
       <c r="B606" t="n">
-        <v>86.25619506835938</v>
+        <v>86.25618743896484</v>
       </c>
       <c r="C606" t="n">
         <v>93.88999938964844</v>
@@ -14417,7 +14417,7 @@
         <v>44706</v>
       </c>
       <c r="B608" t="n">
-        <v>88.47026062011719</v>
+        <v>88.47024536132812</v>
       </c>
       <c r="C608" t="n">
         <v>96.30000305175781</v>
@@ -14440,7 +14440,7 @@
         <v>44707</v>
       </c>
       <c r="B609" t="n">
-        <v>88.78260040283203</v>
+        <v>88.7825927734375</v>
       </c>
       <c r="C609" t="n">
         <v>96.63999938964844</v>
@@ -14509,7 +14509,7 @@
         <v>44713</v>
       </c>
       <c r="B612" t="n">
-        <v>89.88502502441406</v>
+        <v>89.88503265380859</v>
       </c>
       <c r="C612" t="n">
         <v>97.83999633789062</v>
@@ -14532,7 +14532,7 @@
         <v>44714</v>
       </c>
       <c r="B613" t="n">
-        <v>89.72885894775391</v>
+        <v>89.72884368896484</v>
       </c>
       <c r="C613" t="n">
         <v>97.66999816894531</v>
@@ -14555,7 +14555,7 @@
         <v>44715</v>
       </c>
       <c r="B614" t="n">
-        <v>91.03340148925781</v>
+        <v>91.03338623046875</v>
       </c>
       <c r="C614" t="n">
         <v>99.08999633789062</v>
@@ -14601,7 +14601,7 @@
         <v>44719</v>
       </c>
       <c r="B616" t="n">
-        <v>94.96540069580078</v>
+        <v>94.96542358398438</v>
       </c>
       <c r="C616" t="n">
         <v>103.370002746582</v>
@@ -14624,7 +14624,7 @@
         <v>44720</v>
       </c>
       <c r="B617" t="n">
-        <v>96.08621978759766</v>
+        <v>96.08620452880859</v>
       </c>
       <c r="C617" t="n">
         <v>104.5899963378906</v>
@@ -14647,7 +14647,7 @@
         <v>44721</v>
       </c>
       <c r="B618" t="n">
-        <v>94.00997161865234</v>
+        <v>94.00996398925781</v>
       </c>
       <c r="C618" t="n">
         <v>102.3300018310547</v>
@@ -14693,7 +14693,7 @@
         <v>44725</v>
       </c>
       <c r="B620" t="n">
-        <v>88.05684661865234</v>
+        <v>88.05682373046875</v>
       </c>
       <c r="C620" t="n">
         <v>95.84999847412109</v>
@@ -14716,7 +14716,7 @@
         <v>44726</v>
       </c>
       <c r="B621" t="n">
-        <v>88.28651428222656</v>
+        <v>88.28650665283203</v>
       </c>
       <c r="C621" t="n">
         <v>96.09999847412109</v>
@@ -14739,7 +14739,7 @@
         <v>44727</v>
       </c>
       <c r="B622" t="n">
-        <v>87.17488861083984</v>
+        <v>87.17488098144531</v>
       </c>
       <c r="C622" t="n">
         <v>94.88999938964844</v>
@@ -14785,7 +14785,7 @@
         <v>44729</v>
       </c>
       <c r="B624" t="n">
-        <v>79.11795043945312</v>
+        <v>79.11793518066406</v>
       </c>
       <c r="C624" t="n">
         <v>86.12000274658203</v>
@@ -14808,7 +14808,7 @@
         <v>44733</v>
       </c>
       <c r="B625" t="n">
-        <v>84.04214477539062</v>
+        <v>84.04213714599609</v>
       </c>
       <c r="C625" t="n">
         <v>91.48000335693359</v>
@@ -14831,7 +14831,7 @@
         <v>44734</v>
       </c>
       <c r="B626" t="n">
-        <v>80.71646881103516</v>
+        <v>80.71645355224609</v>
       </c>
       <c r="C626" t="n">
         <v>87.86000061035156</v>
@@ -14900,7 +14900,7 @@
         <v>44739</v>
       </c>
       <c r="B629" t="n">
-        <v>81.79133605957031</v>
+        <v>81.79134368896484</v>
       </c>
       <c r="C629" t="n">
         <v>89.02999877929688</v>
@@ -14923,7 +14923,7 @@
         <v>44740</v>
       </c>
       <c r="B630" t="n">
-        <v>84.06052398681641</v>
+        <v>84.06051635742188</v>
       </c>
       <c r="C630" t="n">
         <v>91.5</v>
@@ -15015,7 +15015,7 @@
         <v>44747</v>
       </c>
       <c r="B634" t="n">
-        <v>77.91444396972656</v>
+        <v>77.91443634033203</v>
       </c>
       <c r="C634" t="n">
         <v>84.80999755859375</v>
@@ -15038,7 +15038,7 @@
         <v>44748</v>
       </c>
       <c r="B635" t="n">
-        <v>76.50885009765625</v>
+        <v>76.50884246826172</v>
       </c>
       <c r="C635" t="n">
         <v>83.27999877929688</v>
@@ -15061,7 +15061,7 @@
         <v>44749</v>
       </c>
       <c r="B636" t="n">
-        <v>78.95256805419922</v>
+        <v>78.95257568359375</v>
       </c>
       <c r="C636" t="n">
         <v>85.94000244140625</v>
@@ -15084,7 +15084,7 @@
         <v>44750</v>
       </c>
       <c r="B637" t="n">
-        <v>79.08118438720703</v>
+        <v>79.08119201660156</v>
       </c>
       <c r="C637" t="n">
         <v>86.08000183105469</v>
@@ -15130,7 +15130,7 @@
         <v>44754</v>
       </c>
       <c r="B639" t="n">
-        <v>77.62965393066406</v>
+        <v>77.62964630126953</v>
       </c>
       <c r="C639" t="n">
         <v>84.5</v>
@@ -15176,7 +15176,7 @@
         <v>44756</v>
       </c>
       <c r="B641" t="n">
-        <v>76.38023376464844</v>
+        <v>76.38022613525391</v>
       </c>
       <c r="C641" t="n">
         <v>83.13999938964844</v>
@@ -15199,7 +15199,7 @@
         <v>44757</v>
       </c>
       <c r="B642" t="n">
-        <v>77.66639709472656</v>
+        <v>77.66641235351562</v>
       </c>
       <c r="C642" t="n">
         <v>84.54000091552734</v>
@@ -15245,7 +15245,7 @@
         <v>44761</v>
       </c>
       <c r="B644" t="n">
-        <v>81.09312438964844</v>
+        <v>81.09310913085938</v>
       </c>
       <c r="C644" t="n">
         <v>88.26999664306641</v>
@@ -15314,7 +15314,7 @@
         <v>44764</v>
       </c>
       <c r="B647" t="n">
-        <v>79.99988555908203</v>
+        <v>79.9998779296875</v>
       </c>
       <c r="C647" t="n">
         <v>87.08000183105469</v>
@@ -15337,7 +15337,7 @@
         <v>44767</v>
       </c>
       <c r="B648" t="n">
-        <v>82.66410064697266</v>
+        <v>82.66409301757812</v>
       </c>
       <c r="C648" t="n">
         <v>89.98000335693359</v>
@@ -15360,7 +15360,7 @@
         <v>44768</v>
       </c>
       <c r="B649" t="n">
-        <v>82.34254455566406</v>
+        <v>82.34255981445312</v>
       </c>
       <c r="C649" t="n">
         <v>89.62999725341797</v>
@@ -15406,7 +15406,7 @@
         <v>44770</v>
       </c>
       <c r="B651" t="n">
-        <v>85.10782623291016</v>
+        <v>85.10781097412109</v>
       </c>
       <c r="C651" t="n">
         <v>92.63999938964844</v>
@@ -15475,7 +15475,7 @@
         <v>44775</v>
       </c>
       <c r="B654" t="n">
-        <v>86.42155456542969</v>
+        <v>86.42156219482422</v>
       </c>
       <c r="C654" t="n">
         <v>94.06999969482422</v>
@@ -15498,7 +15498,7 @@
         <v>44776</v>
       </c>
       <c r="B655" t="n">
-        <v>83.61954498291016</v>
+        <v>83.61952209472656</v>
       </c>
       <c r="C655" t="n">
         <v>91.01999664306641</v>
@@ -15521,7 +15521,7 @@
         <v>44777</v>
       </c>
       <c r="B656" t="n">
-        <v>80.1009521484375</v>
+        <v>80.10094451904297</v>
       </c>
       <c r="C656" t="n">
         <v>87.19000244140625</v>
@@ -15544,7 +15544,7 @@
         <v>44778</v>
       </c>
       <c r="B657" t="n">
-        <v>81.25849151611328</v>
+        <v>81.25848388671875</v>
       </c>
       <c r="C657" t="n">
         <v>88.44999694824219</v>
@@ -15590,7 +15590,7 @@
         <v>44782</v>
       </c>
       <c r="B659" t="n">
-        <v>83.22449493408203</v>
+        <v>83.22447967529297</v>
       </c>
       <c r="C659" t="n">
         <v>90.58999633789062</v>
@@ -15659,7 +15659,7 @@
         <v>44785</v>
       </c>
       <c r="B662" t="n">
-        <v>87.19630432128906</v>
+        <v>87.19632720947266</v>
       </c>
       <c r="C662" t="n">
         <v>94</v>
@@ -15682,7 +15682,7 @@
         <v>44788</v>
       </c>
       <c r="B663" t="n">
-        <v>85.63791656494141</v>
+        <v>85.63790130615234</v>
       </c>
       <c r="C663" t="n">
         <v>92.31999969482422</v>
@@ -15728,7 +15728,7 @@
         <v>44790</v>
       </c>
       <c r="B665" t="n">
-        <v>85.52658843994141</v>
+        <v>85.52659606933594</v>
       </c>
       <c r="C665" t="n">
         <v>92.19999694824219</v>
@@ -15774,7 +15774,7 @@
         <v>44792</v>
       </c>
       <c r="B667" t="n">
-        <v>87.27052307128906</v>
+        <v>87.27053070068359</v>
       </c>
       <c r="C667" t="n">
         <v>94.08000183105469</v>
@@ -15797,7 +15797,7 @@
         <v>44795</v>
       </c>
       <c r="B668" t="n">
-        <v>87.20558166503906</v>
+        <v>87.20559692382812</v>
       </c>
       <c r="C668" t="n">
         <v>94.01000213623047</v>
@@ -15820,7 +15820,7 @@
         <v>44796</v>
       </c>
       <c r="B669" t="n">
-        <v>90.90680694580078</v>
+        <v>90.90679168701172</v>
       </c>
       <c r="C669" t="n">
         <v>98</v>
@@ -15843,7 +15843,7 @@
         <v>44797</v>
       </c>
       <c r="B670" t="n">
-        <v>91.44482421875</v>
+        <v>91.44480895996094</v>
       </c>
       <c r="C670" t="n">
         <v>98.58000183105469</v>
@@ -15866,7 +15866,7 @@
         <v>44798</v>
       </c>
       <c r="B671" t="n">
-        <v>91.91790771484375</v>
+        <v>91.91789245605469</v>
       </c>
       <c r="C671" t="n">
         <v>99.08999633789062</v>
@@ -15889,7 +15889,7 @@
         <v>44799</v>
       </c>
       <c r="B672" t="n">
-        <v>90.78621673583984</v>
+        <v>90.78620147705078</v>
       </c>
       <c r="C672" t="n">
         <v>97.87000274658203</v>
@@ -15935,7 +15935,7 @@
         <v>44803</v>
       </c>
       <c r="B674" t="n">
-        <v>89.339111328125</v>
+        <v>89.33911895751953</v>
       </c>
       <c r="C674" t="n">
         <v>96.30999755859375</v>
@@ -15958,7 +15958,7 @@
         <v>44804</v>
       </c>
       <c r="B675" t="n">
-        <v>88.67123413085938</v>
+        <v>88.67121887207031</v>
       </c>
       <c r="C675" t="n">
         <v>95.58999633789062</v>
@@ -15981,7 +15981,7 @@
         <v>44805</v>
       </c>
       <c r="B676" t="n">
-        <v>87.07572174072266</v>
+        <v>87.07571411132812</v>
       </c>
       <c r="C676" t="n">
         <v>93.87000274658203</v>
@@ -16004,7 +16004,7 @@
         <v>44806</v>
       </c>
       <c r="B677" t="n">
-        <v>88.67123413085938</v>
+        <v>88.67121887207031</v>
       </c>
       <c r="C677" t="n">
         <v>95.58999633789062</v>
@@ -16027,7 +16027,7 @@
         <v>44810</v>
       </c>
       <c r="B678" t="n">
-        <v>88.07754516601562</v>
+        <v>88.07755279541016</v>
       </c>
       <c r="C678" t="n">
         <v>94.94999694824219</v>
@@ -16050,7 +16050,7 @@
         <v>44811</v>
       </c>
       <c r="B679" t="n">
-        <v>87.32618713378906</v>
+        <v>87.32617950439453</v>
       </c>
       <c r="C679" t="n">
         <v>94.13999938964844</v>
@@ -16119,7 +16119,7 @@
         <v>44816</v>
       </c>
       <c r="B682" t="n">
-        <v>90.54501342773438</v>
+        <v>90.54502868652344</v>
       </c>
       <c r="C682" t="n">
         <v>97.61000061035156</v>
@@ -16142,7 +16142,7 @@
         <v>44817</v>
       </c>
       <c r="B683" t="n">
-        <v>88.43004608154297</v>
+        <v>88.4300537109375</v>
       </c>
       <c r="C683" t="n">
         <v>95.33000183105469</v>
@@ -16165,7 +16165,7 @@
         <v>44818</v>
       </c>
       <c r="B684" t="n">
-        <v>90.60068511962891</v>
+        <v>90.60066986083984</v>
       </c>
       <c r="C684" t="n">
         <v>97.66999816894531</v>
@@ -16188,7 +16188,7 @@
         <v>44819</v>
       </c>
       <c r="B685" t="n">
-        <v>87.96623992919922</v>
+        <v>87.96624755859375</v>
       </c>
       <c r="C685" t="n">
         <v>94.83000183105469</v>
@@ -16211,7 +16211,7 @@
         <v>44820</v>
       </c>
       <c r="B686" t="n">
-        <v>86.4635009765625</v>
+        <v>86.46348571777344</v>
       </c>
       <c r="C686" t="n">
         <v>93.20999908447266</v>
@@ -16234,7 +16234,7 @@
         <v>44823</v>
       </c>
       <c r="B687" t="n">
-        <v>86.4542236328125</v>
+        <v>86.45421600341797</v>
       </c>
       <c r="C687" t="n">
         <v>93.19999694824219</v>
@@ -16257,7 +16257,7 @@
         <v>44824</v>
       </c>
       <c r="B688" t="n">
-        <v>85.74923706054688</v>
+        <v>85.74922943115234</v>
       </c>
       <c r="C688" t="n">
         <v>92.44000244140625</v>
@@ -16280,7 +16280,7 @@
         <v>44825</v>
       </c>
       <c r="B689" t="n">
-        <v>84.36707305908203</v>
+        <v>84.3670654296875</v>
       </c>
       <c r="C689" t="n">
         <v>90.94999694824219</v>
@@ -16372,7 +16372,7 @@
         <v>44831</v>
       </c>
       <c r="B693" t="n">
-        <v>79.5341796875</v>
+        <v>79.53415679931641</v>
       </c>
       <c r="C693" t="n">
         <v>85.73999786376953</v>
@@ -16395,7 +16395,7 @@
         <v>44832</v>
       </c>
       <c r="B694" t="n">
-        <v>82.42835998535156</v>
+        <v>82.42835235595703</v>
       </c>
       <c r="C694" t="n">
         <v>88.86000061035156</v>
@@ -16418,7 +16418,7 @@
         <v>44833</v>
       </c>
       <c r="B695" t="n">
-        <v>82.26137542724609</v>
+        <v>82.26136779785156</v>
       </c>
       <c r="C695" t="n">
         <v>88.68000030517578</v>
@@ -16441,7 +16441,7 @@
         <v>44834</v>
       </c>
       <c r="B696" t="n">
-        <v>80.99053955078125</v>
+        <v>80.99053192138672</v>
       </c>
       <c r="C696" t="n">
         <v>87.30999755859375</v>
@@ -16533,7 +16533,7 @@
         <v>44840</v>
       </c>
       <c r="B700" t="n">
-        <v>94.67294311523438</v>
+        <v>94.67292785644531</v>
       </c>
       <c r="C700" t="n">
         <v>102.0599975585938</v>
@@ -16556,7 +16556,7 @@
         <v>44841</v>
       </c>
       <c r="B701" t="n">
-        <v>93.71747589111328</v>
+        <v>93.71748352050781</v>
       </c>
       <c r="C701" t="n">
         <v>101.0299987792969</v>
@@ -16579,7 +16579,7 @@
         <v>44844</v>
       </c>
       <c r="B702" t="n">
-        <v>91.68599700927734</v>
+        <v>91.68598937988281</v>
       </c>
       <c r="C702" t="n">
         <v>98.83999633789062</v>
@@ -16602,7 +16602,7 @@
         <v>44845</v>
       </c>
       <c r="B703" t="n">
-        <v>90.90680694580078</v>
+        <v>90.90679168701172</v>
       </c>
       <c r="C703" t="n">
         <v>98</v>
@@ -16625,7 +16625,7 @@
         <v>44846</v>
       </c>
       <c r="B704" t="n">
-        <v>91.30568695068359</v>
+        <v>91.3056640625</v>
       </c>
       <c r="C704" t="n">
         <v>98.43000030517578</v>
@@ -16648,7 +16648,7 @@
         <v>44847</v>
       </c>
       <c r="B705" t="n">
-        <v>94.49669647216797</v>
+        <v>94.49668884277344</v>
       </c>
       <c r="C705" t="n">
         <v>101.870002746582</v>
@@ -16694,7 +16694,7 @@
         <v>44851</v>
       </c>
       <c r="B707" t="n">
-        <v>93.33717346191406</v>
+        <v>93.337158203125</v>
       </c>
       <c r="C707" t="n">
         <v>100.620002746582</v>
@@ -16717,7 +16717,7 @@
         <v>44852</v>
       </c>
       <c r="B708" t="n">
-        <v>93.50412750244141</v>
+        <v>93.50413513183594</v>
       </c>
       <c r="C708" t="n">
         <v>100.8000030517578</v>
@@ -16740,7 +16740,7 @@
         <v>44853</v>
       </c>
       <c r="B709" t="n">
-        <v>96.27772521972656</v>
+        <v>96.2777099609375</v>
       </c>
       <c r="C709" t="n">
         <v>103.7900009155273</v>
@@ -16763,7 +16763,7 @@
         <v>44854</v>
       </c>
       <c r="B710" t="n">
-        <v>96.40757751464844</v>
+        <v>96.40758514404297</v>
       </c>
       <c r="C710" t="n">
         <v>103.9300003051758</v>
@@ -16832,7 +16832,7 @@
         <v>44859</v>
       </c>
       <c r="B713" t="n">
-        <v>98.21643829345703</v>
+        <v>98.21644592285156</v>
       </c>
       <c r="C713" t="n">
         <v>105.879997253418</v>
@@ -16878,7 +16878,7 @@
         <v>44861</v>
       </c>
       <c r="B715" t="n">
-        <v>99.76557159423828</v>
+        <v>99.76558685302734</v>
       </c>
       <c r="C715" t="n">
         <v>107.5500030517578</v>
@@ -16901,7 +16901,7 @@
         <v>44862</v>
       </c>
       <c r="B716" t="n">
-        <v>102.6875839233398</v>
+        <v>102.6875686645508</v>
       </c>
       <c r="C716" t="n">
         <v>110.6999969482422</v>
@@ -16924,7 +16924,7 @@
         <v>44865</v>
       </c>
       <c r="B717" t="n">
-        <v>102.7895965576172</v>
+        <v>102.7896118164062</v>
       </c>
       <c r="C717" t="n">
         <v>110.8099975585938</v>
@@ -16947,7 +16947,7 @@
         <v>44866</v>
       </c>
       <c r="B718" t="n">
-        <v>103.8100128173828</v>
+        <v>103.8100051879883</v>
       </c>
       <c r="C718" t="n">
         <v>111.9100036621094</v>
@@ -16970,7 +16970,7 @@
         <v>44867</v>
       </c>
       <c r="B719" t="n">
-        <v>101.6764602661133</v>
+        <v>101.6764755249023</v>
       </c>
       <c r="C719" t="n">
         <v>109.6100006103516</v>
@@ -16993,7 +16993,7 @@
         <v>44868</v>
       </c>
       <c r="B720" t="n">
-        <v>103.0586242675781</v>
+        <v>103.0586166381836</v>
       </c>
       <c r="C720" t="n">
         <v>111.0999984741211</v>
@@ -17016,7 +17016,7 @@
         <v>44869</v>
       </c>
       <c r="B721" t="n">
-        <v>104.1810455322266</v>
+        <v>104.181037902832</v>
       </c>
       <c r="C721" t="n">
         <v>112.3099975585938</v>
@@ -17039,7 +17039,7 @@
         <v>44872</v>
       </c>
       <c r="B722" t="n">
-        <v>105.4147796630859</v>
+        <v>105.4147720336914</v>
       </c>
       <c r="C722" t="n">
         <v>113.6399993896484</v>
@@ -17062,7 +17062,7 @@
         <v>44873</v>
       </c>
       <c r="B723" t="n">
-        <v>105.7487106323242</v>
+        <v>105.7487182617188</v>
       </c>
       <c r="C723" t="n">
         <v>114</v>
@@ -17085,7 +17085,7 @@
         <v>44874</v>
       </c>
       <c r="B724" t="n">
-        <v>101.0178680419922</v>
+        <v>101.0178604125977</v>
       </c>
       <c r="C724" t="n">
         <v>108.9000015258789</v>
@@ -17108,7 +17108,7 @@
         <v>44875</v>
       </c>
       <c r="B725" t="n">
-        <v>102.5020446777344</v>
+        <v>102.5020599365234</v>
       </c>
       <c r="C725" t="n">
         <v>110.5</v>
@@ -17131,7 +17131,7 @@
         <v>44876</v>
       </c>
       <c r="B726" t="n">
-        <v>105.7023468017578</v>
+        <v>105.7023391723633</v>
       </c>
       <c r="C726" t="n">
         <v>113.9499969482422</v>
@@ -17154,7 +17154,7 @@
         <v>44879</v>
       </c>
       <c r="B727" t="n">
-        <v>106.0109100341797</v>
+        <v>106.0109176635742</v>
       </c>
       <c r="C727" t="n">
         <v>113.370002746582</v>
@@ -17177,7 +17177,7 @@
         <v>44880</v>
       </c>
       <c r="B728" t="n">
-        <v>106.7215805053711</v>
+        <v>106.7215881347656</v>
       </c>
       <c r="C728" t="n">
         <v>114.129997253418</v>
@@ -17200,7 +17200,7 @@
         <v>44881</v>
       </c>
       <c r="B729" t="n">
-        <v>105.5807876586914</v>
+        <v>105.5807800292969</v>
       </c>
       <c r="C729" t="n">
         <v>112.9100036621094</v>
@@ -17223,7 +17223,7 @@
         <v>44882</v>
       </c>
       <c r="B730" t="n">
-        <v>105.7210311889648</v>
+        <v>105.7210388183594</v>
       </c>
       <c r="C730" t="n">
         <v>113.0599975585938</v>
@@ -17269,7 +17269,7 @@
         <v>44886</v>
       </c>
       <c r="B732" t="n">
-        <v>103.7667083740234</v>
+        <v>103.766716003418</v>
       </c>
       <c r="C732" t="n">
         <v>110.9700012207031</v>
@@ -17338,7 +17338,7 @@
         <v>44890</v>
       </c>
       <c r="B735" t="n">
-        <v>105.8612976074219</v>
+        <v>105.8613052368164</v>
       </c>
       <c r="C735" t="n">
         <v>113.2099990844727</v>
@@ -17361,7 +17361,7 @@
         <v>44893</v>
       </c>
       <c r="B736" t="n">
-        <v>102.681999206543</v>
+        <v>102.6820068359375</v>
       </c>
       <c r="C736" t="n">
         <v>109.8099975585938</v>
@@ -17384,7 +17384,7 @@
         <v>44894</v>
       </c>
       <c r="B737" t="n">
-        <v>103.3646240234375</v>
+        <v>103.364616394043</v>
       </c>
       <c r="C737" t="n">
         <v>110.5400009155273</v>
@@ -17407,7 +17407,7 @@
         <v>44895</v>
       </c>
       <c r="B738" t="n">
-        <v>104.1126861572266</v>
+        <v>104.112678527832</v>
       </c>
       <c r="C738" t="n">
         <v>111.3399963378906</v>
@@ -17430,7 +17430,7 @@
         <v>44896</v>
       </c>
       <c r="B739" t="n">
-        <v>103.6077423095703</v>
+        <v>103.6077346801758</v>
       </c>
       <c r="C739" t="n">
         <v>110.8000030517578</v>
@@ -17453,7 +17453,7 @@
         <v>44897</v>
       </c>
       <c r="B740" t="n">
-        <v>102.7287673950195</v>
+        <v>102.7287521362305</v>
       </c>
       <c r="C740" t="n">
         <v>109.8600006103516</v>
@@ -17499,7 +17499,7 @@
         <v>44901</v>
       </c>
       <c r="B742" t="n">
-        <v>97.13694000244141</v>
+        <v>97.13692474365234</v>
       </c>
       <c r="C742" t="n">
         <v>103.879997253418</v>
@@ -17545,7 +17545,7 @@
         <v>44903</v>
       </c>
       <c r="B744" t="n">
-        <v>97.64187622070312</v>
+        <v>97.64188385009766</v>
       </c>
       <c r="C744" t="n">
         <v>104.4199981689453</v>
@@ -17568,7 +17568,7 @@
         <v>44904</v>
       </c>
       <c r="B745" t="n">
-        <v>96.81900787353516</v>
+        <v>96.81900024414062</v>
       </c>
       <c r="C745" t="n">
         <v>103.5400009155273</v>
@@ -17591,7 +17591,7 @@
         <v>44907</v>
       </c>
       <c r="B746" t="n">
-        <v>99.20347595214844</v>
+        <v>99.20346832275391</v>
       </c>
       <c r="C746" t="n">
         <v>106.0899963378906</v>
@@ -17614,7 +17614,7 @@
         <v>44908</v>
       </c>
       <c r="B747" t="n">
-        <v>100.2881927490234</v>
+        <v>100.2881774902344</v>
       </c>
       <c r="C747" t="n">
         <v>107.25</v>
@@ -17637,7 +17637,7 @@
         <v>44909</v>
       </c>
       <c r="B748" t="n">
-        <v>99.54945373535156</v>
+        <v>99.54946899414062</v>
       </c>
       <c r="C748" t="n">
         <v>106.4599990844727</v>
@@ -17660,7 +17660,7 @@
         <v>44910</v>
       </c>
       <c r="B749" t="n">
-        <v>98.59567260742188</v>
+        <v>98.59568023681641</v>
       </c>
       <c r="C749" t="n">
         <v>105.4400024414062</v>
@@ -17683,7 +17683,7 @@
         <v>44911</v>
       </c>
       <c r="B750" t="n">
-        <v>97.90371704101562</v>
+        <v>97.90370178222656</v>
       </c>
       <c r="C750" t="n">
         <v>104.6999969482422</v>
@@ -17706,7 +17706,7 @@
         <v>44914</v>
       </c>
       <c r="B751" t="n">
-        <v>98.34320068359375</v>
+        <v>98.34319305419922</v>
       </c>
       <c r="C751" t="n">
         <v>105.1699981689453</v>
@@ -17729,7 +17729,7 @@
         <v>44915</v>
       </c>
       <c r="B752" t="n">
-        <v>99.7645263671875</v>
+        <v>99.76454162597656</v>
       </c>
       <c r="C752" t="n">
         <v>106.6900024414062</v>
@@ -17752,7 +17752,7 @@
         <v>44916</v>
       </c>
       <c r="B753" t="n">
-        <v>101.0456008911133</v>
+        <v>101.0455932617188</v>
       </c>
       <c r="C753" t="n">
         <v>108.0599975585938</v>
@@ -17775,7 +17775,7 @@
         <v>44917</v>
       </c>
       <c r="B754" t="n">
-        <v>99.00710296630859</v>
+        <v>99.00711059570312</v>
       </c>
       <c r="C754" t="n">
         <v>105.879997253418</v>
@@ -17798,7 +17798,7 @@
         <v>44918</v>
       </c>
       <c r="B755" t="n">
-        <v>101.6253662109375</v>
+        <v>101.6253509521484</v>
       </c>
       <c r="C755" t="n">
         <v>108.6800003051758</v>
@@ -17844,7 +17844,7 @@
         <v>44923</v>
       </c>
       <c r="B757" t="n">
-        <v>101.3448181152344</v>
+        <v>101.3448257446289</v>
       </c>
       <c r="C757" t="n">
         <v>108.379997253418</v>
@@ -17890,7 +17890,7 @@
         <v>44925</v>
       </c>
       <c r="B759" t="n">
-        <v>103.1401977539062</v>
+        <v>103.1401901245117</v>
       </c>
       <c r="C759" t="n">
         <v>110.3000030517578</v>
@@ -17936,7 +17936,7 @@
         <v>44930</v>
       </c>
       <c r="B761" t="n">
-        <v>99.88609313964844</v>
+        <v>99.88608551025391</v>
       </c>
       <c r="C761" t="n">
         <v>106.8199996948242</v>
@@ -17959,7 +17959,7 @@
         <v>44931</v>
       </c>
       <c r="B762" t="n">
-        <v>102.1209487915039</v>
+        <v>102.1209564208984</v>
       </c>
       <c r="C762" t="n">
         <v>109.2099990844727</v>
@@ -18051,7 +18051,7 @@
         <v>44937</v>
       </c>
       <c r="B766" t="n">
-        <v>104.1407470703125</v>
+        <v>104.1407318115234</v>
       </c>
       <c r="C766" t="n">
         <v>111.370002746582</v>
@@ -18074,7 +18074,7 @@
         <v>44938</v>
       </c>
       <c r="B767" t="n">
-        <v>105.8706512451172</v>
+        <v>105.8706588745117</v>
       </c>
       <c r="C767" t="n">
         <v>113.2200012207031</v>
@@ -18097,7 +18097,7 @@
         <v>44939</v>
       </c>
       <c r="B768" t="n">
-        <v>105.8052062988281</v>
+        <v>105.8052139282227</v>
       </c>
       <c r="C768" t="n">
         <v>113.1500015258789</v>
@@ -18143,7 +18143,7 @@
         <v>44944</v>
       </c>
       <c r="B770" t="n">
-        <v>103.4300689697266</v>
+        <v>103.4300765991211</v>
       </c>
       <c r="C770" t="n">
         <v>110.6100006103516</v>
@@ -18166,7 +18166,7 @@
         <v>44945</v>
       </c>
       <c r="B771" t="n">
-        <v>104.093994140625</v>
+        <v>104.0939788818359</v>
       </c>
       <c r="C771" t="n">
         <v>111.3199996948242</v>
@@ -18235,7 +18235,7 @@
         <v>44950</v>
       </c>
       <c r="B774" t="n">
-        <v>106.4223556518555</v>
+        <v>106.42236328125</v>
       </c>
       <c r="C774" t="n">
         <v>113.8099975585938</v>
@@ -18258,7 +18258,7 @@
         <v>44951</v>
       </c>
       <c r="B775" t="n">
-        <v>105.8612976074219</v>
+        <v>105.8613052368164</v>
       </c>
       <c r="C775" t="n">
         <v>113.2099990844727</v>
@@ -18281,7 +18281,7 @@
         <v>44952</v>
       </c>
       <c r="B776" t="n">
-        <v>110.1159515380859</v>
+        <v>110.1159591674805</v>
       </c>
       <c r="C776" t="n">
         <v>117.7600021362305</v>
@@ -18304,7 +18304,7 @@
         <v>44953</v>
       </c>
       <c r="B777" t="n">
-        <v>108.1055145263672</v>
+        <v>108.1055221557617</v>
       </c>
       <c r="C777" t="n">
         <v>115.6100006103516</v>
@@ -18327,7 +18327,7 @@
         <v>44956</v>
       </c>
       <c r="B778" t="n">
-        <v>106.188591003418</v>
+        <v>106.1885833740234</v>
       </c>
       <c r="C778" t="n">
         <v>113.5599975585938</v>
@@ -18373,7 +18373,7 @@
         <v>44958</v>
       </c>
       <c r="B780" t="n">
-        <v>107.2919921875</v>
+        <v>107.2919769287109</v>
       </c>
       <c r="C780" t="n">
         <v>114.7399978637695</v>
@@ -18396,7 +18396,7 @@
         <v>44959</v>
       </c>
       <c r="B781" t="n">
-        <v>103.9350280761719</v>
+        <v>103.9350357055664</v>
       </c>
       <c r="C781" t="n">
         <v>111.1500015258789</v>
@@ -18419,7 +18419,7 @@
         <v>44960</v>
       </c>
       <c r="B782" t="n">
-        <v>104.6550369262695</v>
+        <v>104.6550445556641</v>
       </c>
       <c r="C782" t="n">
         <v>111.9199981689453</v>
@@ -18465,7 +18465,7 @@
         <v>44964</v>
       </c>
       <c r="B784" t="n">
-        <v>107.4603118896484</v>
+        <v>107.4603042602539</v>
       </c>
       <c r="C784" t="n">
         <v>114.9199981689453</v>
@@ -18488,7 +18488,7 @@
         <v>44965</v>
       </c>
       <c r="B785" t="n">
-        <v>106.5252075195312</v>
+        <v>106.5252151489258</v>
       </c>
       <c r="C785" t="n">
         <v>113.9199981689453</v>
@@ -18557,7 +18557,7 @@
         <v>44970</v>
       </c>
       <c r="B788" t="n">
-        <v>111.0009765625</v>
+        <v>111.0009689331055</v>
       </c>
       <c r="C788" t="n">
         <v>117.8000030517578</v>
@@ -18603,7 +18603,7 @@
         <v>44972</v>
       </c>
       <c r="B790" t="n">
-        <v>109.3708343505859</v>
+        <v>109.3708190917969</v>
       </c>
       <c r="C790" t="n">
         <v>116.0699996948242</v>
@@ -18626,7 +18626,7 @@
         <v>44973</v>
       </c>
       <c r="B791" t="n">
-        <v>109.0504608154297</v>
+        <v>109.0504379272461</v>
       </c>
       <c r="C791" t="n">
         <v>115.7300033569336</v>
@@ -18649,7 +18649,7 @@
         <v>44974</v>
       </c>
       <c r="B792" t="n">
-        <v>104.857292175293</v>
+        <v>104.8572769165039</v>
       </c>
       <c r="C792" t="n">
         <v>111.2799987792969</v>
@@ -18672,7 +18672,7 @@
         <v>44978</v>
       </c>
       <c r="B793" t="n">
-        <v>104.7536315917969</v>
+        <v>104.7536468505859</v>
       </c>
       <c r="C793" t="n">
         <v>111.1699981689453</v>
@@ -18695,7 +18695,7 @@
         <v>44979</v>
       </c>
       <c r="B794" t="n">
-        <v>103.3967514038086</v>
+        <v>103.3967437744141</v>
       </c>
       <c r="C794" t="n">
         <v>109.7300033569336</v>
@@ -18718,7 +18718,7 @@
         <v>44980</v>
       </c>
       <c r="B795" t="n">
-        <v>104.3484420776367</v>
+        <v>104.3484573364258</v>
       </c>
       <c r="C795" t="n">
         <v>110.7399978637695</v>
@@ -18741,7 +18741,7 @@
         <v>44981</v>
       </c>
       <c r="B796" t="n">
-        <v>104.3578796386719</v>
+        <v>104.3578720092773</v>
       </c>
       <c r="C796" t="n">
         <v>110.75</v>
@@ -18764,7 +18764,7 @@
         <v>44984</v>
       </c>
       <c r="B797" t="n">
-        <v>104.1694259643555</v>
+        <v>104.1694183349609</v>
       </c>
       <c r="C797" t="n">
         <v>110.5500030517578</v>
@@ -18787,7 +18787,7 @@
         <v>44985</v>
       </c>
       <c r="B798" t="n">
-        <v>103.5663681030273</v>
+        <v>103.5663604736328</v>
       </c>
       <c r="C798" t="n">
         <v>109.9100036621094</v>
@@ -18810,7 +18810,7 @@
         <v>44986</v>
       </c>
       <c r="B799" t="n">
-        <v>104.4897842407227</v>
+        <v>104.4897994995117</v>
       </c>
       <c r="C799" t="n">
         <v>110.8899993896484</v>
@@ -18856,7 +18856,7 @@
         <v>44988</v>
       </c>
       <c r="B801" t="n">
-        <v>106.2989730834961</v>
+        <v>106.2989883422852</v>
       </c>
       <c r="C801" t="n">
         <v>112.8099975585938</v>
@@ -18925,7 +18925,7 @@
         <v>44993</v>
       </c>
       <c r="B804" t="n">
-        <v>103.63232421875</v>
+        <v>103.6323089599609</v>
       </c>
       <c r="C804" t="n">
         <v>109.9800033569336</v>
@@ -18971,7 +18971,7 @@
         <v>44995</v>
       </c>
       <c r="B806" t="n">
-        <v>101.5592956542969</v>
+        <v>101.5593032836914</v>
       </c>
       <c r="C806" t="n">
         <v>107.7799987792969</v>
@@ -18994,7 +18994,7 @@
         <v>44998</v>
       </c>
       <c r="B807" t="n">
-        <v>100.3908767700195</v>
+        <v>100.390869140625</v>
       </c>
       <c r="C807" t="n">
         <v>106.5400009155273</v>
@@ -19017,7 +19017,7 @@
         <v>44999</v>
       </c>
       <c r="B808" t="n">
-        <v>100.7677764892578</v>
+        <v>100.7677841186523</v>
       </c>
       <c r="C808" t="n">
         <v>106.9400024414062</v>
@@ -19086,7 +19086,7 @@
         <v>45002</v>
       </c>
       <c r="B811" t="n">
-        <v>94.07756805419922</v>
+        <v>94.07756042480469</v>
       </c>
       <c r="C811" t="n">
         <v>99.83999633789062</v>
@@ -19132,7 +19132,7 @@
         <v>45006</v>
       </c>
       <c r="B813" t="n">
-        <v>100.8620147705078</v>
+        <v>100.8619995117188</v>
       </c>
       <c r="C813" t="n">
         <v>107.0400009155273</v>
@@ -19155,7 +19155,7 @@
         <v>45007</v>
       </c>
       <c r="B814" t="n">
-        <v>98.55340576171875</v>
+        <v>98.55341339111328</v>
       </c>
       <c r="C814" t="n">
         <v>104.5899963378906</v>
@@ -19178,7 +19178,7 @@
         <v>45008</v>
       </c>
       <c r="B815" t="n">
-        <v>97.44152069091797</v>
+        <v>97.44153594970703</v>
       </c>
       <c r="C815" t="n">
         <v>103.4100036621094</v>
@@ -19201,7 +19201,7 @@
         <v>45009</v>
       </c>
       <c r="B816" t="n">
-        <v>97.55458831787109</v>
+        <v>97.55459594726562</v>
       </c>
       <c r="C816" t="n">
         <v>103.5299987792969</v>
@@ -19247,7 +19247,7 @@
         <v>45013</v>
       </c>
       <c r="B818" t="n">
-        <v>100.9374008178711</v>
+        <v>100.9373931884766</v>
       </c>
       <c r="C818" t="n">
         <v>107.120002746582</v>
@@ -19293,7 +19293,7 @@
         <v>45015</v>
       </c>
       <c r="B820" t="n">
-        <v>103.1705932617188</v>
+        <v>103.1706008911133</v>
       </c>
       <c r="C820" t="n">
         <v>109.4899978637695</v>
@@ -19316,7 +19316,7 @@
         <v>45016</v>
       </c>
       <c r="B821" t="n">
-        <v>103.3307876586914</v>
+        <v>103.3307952880859</v>
       </c>
       <c r="C821" t="n">
         <v>109.6600036621094</v>
@@ -19339,7 +19339,7 @@
         <v>45019</v>
       </c>
       <c r="B822" t="n">
-        <v>109.427360534668</v>
+        <v>109.4273681640625</v>
       </c>
       <c r="C822" t="n">
         <v>116.129997253418</v>
@@ -19385,7 +19385,7 @@
         <v>45021</v>
       </c>
       <c r="B824" t="n">
-        <v>110.2377319335938</v>
+        <v>110.2377243041992</v>
       </c>
       <c r="C824" t="n">
         <v>116.9899978637695</v>
@@ -19431,7 +19431,7 @@
         <v>45026</v>
       </c>
       <c r="B826" t="n">
-        <v>107.9291305541992</v>
+        <v>107.9291381835938</v>
       </c>
       <c r="C826" t="n">
         <v>114.5400009155273</v>
@@ -19454,7 +19454,7 @@
         <v>45027</v>
       </c>
       <c r="B827" t="n">
-        <v>108.6923828125</v>
+        <v>108.6923751831055</v>
       </c>
       <c r="C827" t="n">
         <v>115.3499984741211</v>
@@ -19500,7 +19500,7 @@
         <v>45029</v>
       </c>
       <c r="B829" t="n">
-        <v>109.0881423950195</v>
+        <v>109.0881500244141</v>
       </c>
       <c r="C829" t="n">
         <v>115.7699966430664</v>
@@ -19569,7 +19569,7 @@
         <v>45034</v>
       </c>
       <c r="B832" t="n">
-        <v>110.1906127929688</v>
+        <v>110.1906204223633</v>
       </c>
       <c r="C832" t="n">
         <v>116.9400024414062</v>
@@ -19615,7 +19615,7 @@
         <v>45036</v>
       </c>
       <c r="B834" t="n">
-        <v>108.9656524658203</v>
+        <v>108.9656448364258</v>
       </c>
       <c r="C834" t="n">
         <v>115.6399993896484</v>
@@ -19638,7 +19638,7 @@
         <v>45037</v>
       </c>
       <c r="B835" t="n">
-        <v>109.3142852783203</v>
+        <v>109.3142929077148</v>
       </c>
       <c r="C835" t="n">
         <v>116.0100021362305</v>
@@ -19661,7 +19661,7 @@
         <v>45040</v>
       </c>
       <c r="B836" t="n">
-        <v>111.3778991699219</v>
+        <v>111.3778915405273</v>
       </c>
       <c r="C836" t="n">
         <v>118.1999969482422</v>
@@ -19684,7 +19684,7 @@
         <v>45041</v>
       </c>
       <c r="B837" t="n">
-        <v>109.7948455810547</v>
+        <v>109.7948608398438</v>
       </c>
       <c r="C837" t="n">
         <v>116.5199966430664</v>
@@ -19707,7 +19707,7 @@
         <v>45042</v>
       </c>
       <c r="B838" t="n">
-        <v>108.7866134643555</v>
+        <v>108.7866058349609</v>
       </c>
       <c r="C838" t="n">
         <v>115.4499969482422</v>
@@ -19730,7 +19730,7 @@
         <v>45043</v>
       </c>
       <c r="B839" t="n">
-        <v>110.0869598388672</v>
+        <v>110.0869674682617</v>
       </c>
       <c r="C839" t="n">
         <v>116.8300018310547</v>
@@ -19753,7 +19753,7 @@
         <v>45044</v>
       </c>
       <c r="B840" t="n">
-        <v>111.5098037719727</v>
+        <v>111.5098114013672</v>
       </c>
       <c r="C840" t="n">
         <v>118.3399963378906</v>
@@ -19776,7 +19776,7 @@
         <v>45047</v>
       </c>
       <c r="B841" t="n">
-        <v>108.0516357421875</v>
+        <v>108.0516204833984</v>
       </c>
       <c r="C841" t="n">
         <v>114.6699981689453</v>
@@ -19799,7 +19799,7 @@
         <v>45048</v>
       </c>
       <c r="B842" t="n">
-        <v>103.7453994750977</v>
+        <v>103.7453918457031</v>
       </c>
       <c r="C842" t="n">
         <v>110.0999984741211</v>
@@ -19822,7 +19822,7 @@
         <v>45049</v>
       </c>
       <c r="B843" t="n">
-        <v>101.7006301879883</v>
+        <v>101.7006378173828</v>
       </c>
       <c r="C843" t="n">
         <v>107.9300003051758</v>
@@ -19868,7 +19868,7 @@
         <v>45051</v>
       </c>
       <c r="B845" t="n">
-        <v>102.4073638916016</v>
+        <v>102.407356262207</v>
       </c>
       <c r="C845" t="n">
         <v>108.6800003051758</v>
@@ -19891,7 +19891,7 @@
         <v>45054</v>
       </c>
       <c r="B846" t="n">
-        <v>102.8125305175781</v>
+        <v>102.8125381469727</v>
       </c>
       <c r="C846" t="n">
         <v>109.1100006103516</v>
@@ -19914,7 +19914,7 @@
         <v>45055</v>
       </c>
       <c r="B847" t="n">
-        <v>102.8407974243164</v>
+        <v>102.8408050537109</v>
       </c>
       <c r="C847" t="n">
         <v>109.1399993896484</v>
@@ -19937,7 +19937,7 @@
         <v>45056</v>
       </c>
       <c r="B848" t="n">
-        <v>101.521598815918</v>
+        <v>101.521614074707</v>
       </c>
       <c r="C848" t="n">
         <v>107.7399978637695</v>
@@ -19960,7 +19960,7 @@
         <v>45057</v>
       </c>
       <c r="B849" t="n">
-        <v>99.68415832519531</v>
+        <v>99.68415069580078</v>
       </c>
       <c r="C849" t="n">
         <v>105.7900009155273</v>
@@ -19983,7 +19983,7 @@
         <v>45058</v>
       </c>
       <c r="B850" t="n">
-        <v>99.67472076416016</v>
+        <v>99.67472839355469</v>
       </c>
       <c r="C850" t="n">
         <v>105.7799987792969</v>
@@ -20006,7 +20006,7 @@
         <v>45061</v>
       </c>
       <c r="B851" t="n">
-        <v>99.86483001708984</v>
+        <v>99.86482238769531</v>
       </c>
       <c r="C851" t="n">
         <v>105.0699996948242</v>
@@ -20029,7 +20029,7 @@
         <v>45062</v>
       </c>
       <c r="B852" t="n">
-        <v>97.44113922119141</v>
+        <v>97.44115447998047</v>
       </c>
       <c r="C852" t="n">
         <v>102.5199966430664</v>
@@ -20052,7 +20052,7 @@
         <v>45063</v>
       </c>
       <c r="B853" t="n">
-        <v>99.627197265625</v>
+        <v>99.62720489501953</v>
       </c>
       <c r="C853" t="n">
         <v>104.8199996948242</v>
@@ -20075,7 +20075,7 @@
         <v>45064</v>
       </c>
       <c r="B854" t="n">
-        <v>100.530143737793</v>
+        <v>100.5301361083984</v>
       </c>
       <c r="C854" t="n">
         <v>105.7699966430664</v>
@@ -20098,7 +20098,7 @@
         <v>45065</v>
       </c>
       <c r="B855" t="n">
-        <v>100.9958648681641</v>
+        <v>100.9958724975586</v>
       </c>
       <c r="C855" t="n">
         <v>106.2600021362305</v>
@@ -20144,7 +20144,7 @@
         <v>45069</v>
       </c>
       <c r="B857" t="n">
-        <v>101.1289443969727</v>
+        <v>101.1289291381836</v>
       </c>
       <c r="C857" t="n">
         <v>106.4000015258789</v>
@@ -20236,7 +20236,7 @@
         <v>45076</v>
       </c>
       <c r="B861" t="n">
-        <v>98.88585662841797</v>
+        <v>98.88583374023438</v>
       </c>
       <c r="C861" t="n">
         <v>104.0400009155273</v>
@@ -20351,7 +20351,7 @@
         <v>45083</v>
       </c>
       <c r="B866" t="n">
-        <v>100.8913192749023</v>
+        <v>100.8913116455078</v>
       </c>
       <c r="C866" t="n">
         <v>106.1500015258789</v>
@@ -20397,7 +20397,7 @@
         <v>45085</v>
       </c>
       <c r="B868" t="n">
-        <v>102.8302459716797</v>
+        <v>102.8302536010742</v>
       </c>
       <c r="C868" t="n">
         <v>108.1900024414062</v>
@@ -20420,7 +20420,7 @@
         <v>45086</v>
       </c>
       <c r="B869" t="n">
-        <v>102.0698852539062</v>
+        <v>102.0698928833008</v>
       </c>
       <c r="C869" t="n">
         <v>107.3899993896484</v>
@@ -20443,7 +20443,7 @@
         <v>45089</v>
       </c>
       <c r="B870" t="n">
-        <v>101.1479415893555</v>
+        <v>101.14794921875</v>
       </c>
       <c r="C870" t="n">
         <v>106.4199981689453</v>
@@ -20466,7 +20466,7 @@
         <v>45090</v>
       </c>
       <c r="B871" t="n">
-        <v>101.1669464111328</v>
+        <v>101.1669616699219</v>
       </c>
       <c r="C871" t="n">
         <v>106.4400024414062</v>
@@ -20489,7 +20489,7 @@
         <v>45091</v>
       </c>
       <c r="B872" t="n">
-        <v>99.95036315917969</v>
+        <v>99.95037078857422</v>
       </c>
       <c r="C872" t="n">
         <v>105.1600036621094</v>
@@ -20512,7 +20512,7 @@
         <v>45092</v>
       </c>
       <c r="B873" t="n">
-        <v>100.6441955566406</v>
+        <v>100.6442031860352</v>
       </c>
       <c r="C873" t="n">
         <v>105.8899993896484</v>
@@ -20535,7 +20535,7 @@
         <v>45093</v>
       </c>
       <c r="B874" t="n">
-        <v>99.92183685302734</v>
+        <v>99.92184448242188</v>
       </c>
       <c r="C874" t="n">
         <v>105.129997253418</v>
@@ -20558,7 +20558,7 @@
         <v>45097</v>
       </c>
       <c r="B875" t="n">
-        <v>97.63124084472656</v>
+        <v>97.63123321533203</v>
       </c>
       <c r="C875" t="n">
         <v>102.7200012207031</v>
@@ -20581,7 +20581,7 @@
         <v>45098</v>
       </c>
       <c r="B876" t="n">
-        <v>98.72426605224609</v>
+        <v>98.72427368164062</v>
       </c>
       <c r="C876" t="n">
         <v>103.870002746582</v>
@@ -20604,7 +20604,7 @@
         <v>45099</v>
       </c>
       <c r="B877" t="n">
-        <v>98.18251800537109</v>
+        <v>98.18250274658203</v>
       </c>
       <c r="C877" t="n">
         <v>103.3000030517578</v>
@@ -20627,7 +20627,7 @@
         <v>45100</v>
       </c>
       <c r="B878" t="n">
-        <v>97.32709503173828</v>
+        <v>97.32708740234375</v>
       </c>
       <c r="C878" t="n">
         <v>102.4000015258789</v>
@@ -20650,7 +20650,7 @@
         <v>45103</v>
       </c>
       <c r="B879" t="n">
-        <v>99.12346649169922</v>
+        <v>99.12345886230469</v>
       </c>
       <c r="C879" t="n">
         <v>104.2900009155273</v>
@@ -20673,7 +20673,7 @@
         <v>45104</v>
       </c>
       <c r="B880" t="n">
-        <v>99.37059020996094</v>
+        <v>99.37058258056641</v>
       </c>
       <c r="C880" t="n">
         <v>104.5500030517578</v>
@@ -20719,7 +20719,7 @@
         <v>45106</v>
       </c>
       <c r="B882" t="n">
-        <v>101.4140625</v>
+        <v>101.4140701293945</v>
       </c>
       <c r="C882" t="n">
         <v>106.6999969482422</v>
@@ -20742,7 +20742,7 @@
         <v>45107</v>
       </c>
       <c r="B883" t="n">
-        <v>101.9368286132812</v>
+        <v>101.9368209838867</v>
       </c>
       <c r="C883" t="n">
         <v>107.25</v>
@@ -20788,7 +20788,7 @@
         <v>45112</v>
       </c>
       <c r="B885" t="n">
-        <v>101.6136703491211</v>
+        <v>101.6136627197266</v>
       </c>
       <c r="C885" t="n">
         <v>106.9100036621094</v>
@@ -20811,7 +20811,7 @@
         <v>45113</v>
       </c>
       <c r="B886" t="n">
-        <v>97.82133483886719</v>
+        <v>97.82132720947266</v>
       </c>
       <c r="C886" t="n">
         <v>102.9199981689453</v>
@@ -20834,7 +20834,7 @@
         <v>45114</v>
       </c>
       <c r="B887" t="n">
-        <v>98.0494384765625</v>
+        <v>98.04944610595703</v>
       </c>
       <c r="C887" t="n">
         <v>103.1600036621094</v>
@@ -20926,7 +20926,7 @@
         <v>45120</v>
       </c>
       <c r="B891" t="n">
-        <v>99.36106872558594</v>
+        <v>99.361083984375</v>
       </c>
       <c r="C891" t="n">
         <v>104.5400009155273</v>
@@ -20949,7 +20949,7 @@
         <v>45121</v>
       </c>
       <c r="B892" t="n">
-        <v>95.93942260742188</v>
+        <v>95.93941497802734</v>
       </c>
       <c r="C892" t="n">
         <v>100.9400024414062</v>
@@ -20972,7 +20972,7 @@
         <v>45124</v>
       </c>
       <c r="B893" t="n">
-        <v>96.35762786865234</v>
+        <v>96.35762023925781</v>
       </c>
       <c r="C893" t="n">
         <v>101.379997253418</v>
@@ -21041,7 +21041,7 @@
         <v>45127</v>
       </c>
       <c r="B896" t="n">
-        <v>98.28706359863281</v>
+        <v>98.28707122802734</v>
       </c>
       <c r="C896" t="n">
         <v>103.4100036621094</v>
@@ -21064,7 +21064,7 @@
         <v>45128</v>
       </c>
       <c r="B897" t="n">
-        <v>98.7432861328125</v>
+        <v>98.74327850341797</v>
       </c>
       <c r="C897" t="n">
         <v>103.8899993896484</v>
@@ -21087,7 +21087,7 @@
         <v>45131</v>
       </c>
       <c r="B898" t="n">
-        <v>100.2925338745117</v>
+        <v>100.2925262451172</v>
       </c>
       <c r="C898" t="n">
         <v>105.5199966430664</v>
@@ -21179,7 +21179,7 @@
         <v>45135</v>
       </c>
       <c r="B902" t="n">
-        <v>98.99990081787109</v>
+        <v>98.99990844726562</v>
       </c>
       <c r="C902" t="n">
         <v>104.1600036621094</v>
@@ -21225,7 +21225,7 @@
         <v>45139</v>
       </c>
       <c r="B904" t="n">
-        <v>101.3380355834961</v>
+        <v>101.3380279541016</v>
       </c>
       <c r="C904" t="n">
         <v>106.620002746582</v>
@@ -21271,7 +21271,7 @@
         <v>45141</v>
       </c>
       <c r="B906" t="n">
-        <v>101.8132781982422</v>
+        <v>101.8132629394531</v>
       </c>
       <c r="C906" t="n">
         <v>107.120002746582</v>
@@ -21294,7 +21294,7 @@
         <v>45142</v>
       </c>
       <c r="B907" t="n">
-        <v>102.0984039306641</v>
+        <v>102.0983963012695</v>
       </c>
       <c r="C907" t="n">
         <v>107.4199981689453</v>
@@ -21317,7 +21317,7 @@
         <v>45145</v>
       </c>
       <c r="B908" t="n">
-        <v>101.889289855957</v>
+        <v>101.8892974853516</v>
       </c>
       <c r="C908" t="n">
         <v>107.1999969482422</v>
@@ -21340,7 +21340,7 @@
         <v>45146</v>
       </c>
       <c r="B909" t="n">
-        <v>102.3930511474609</v>
+        <v>102.3930435180664</v>
       </c>
       <c r="C909" t="n">
         <v>107.7300033569336</v>
@@ -21386,7 +21386,7 @@
         <v>45148</v>
       </c>
       <c r="B911" t="n">
-        <v>104.6646575927734</v>
+        <v>104.6646423339844</v>
       </c>
       <c r="C911" t="n">
         <v>110.120002746582</v>
@@ -21432,7 +21432,7 @@
         <v>45152</v>
       </c>
       <c r="B913" t="n">
-        <v>106.3754653930664</v>
+        <v>106.3754730224609</v>
       </c>
       <c r="C913" t="n">
         <v>111.9199981689453</v>
@@ -21455,7 +21455,7 @@
         <v>45153</v>
       </c>
       <c r="B914" t="n">
-        <v>103.6444549560547</v>
+        <v>103.6444625854492</v>
       </c>
       <c r="C914" t="n">
         <v>108.1600036621094</v>
@@ -21524,7 +21524,7 @@
         <v>45156</v>
       </c>
       <c r="B917" t="n">
-        <v>105.4459686279297</v>
+        <v>105.4459609985352</v>
       </c>
       <c r="C917" t="n">
         <v>110.0400009155273</v>
@@ -21547,7 +21547,7 @@
         <v>45159</v>
       </c>
       <c r="B918" t="n">
-        <v>104.1714859008789</v>
+        <v>104.1714935302734</v>
       </c>
       <c r="C918" t="n">
         <v>108.7099990844727</v>
@@ -21616,7 +21616,7 @@
         <v>45162</v>
       </c>
       <c r="B921" t="n">
-        <v>101.9100189208984</v>
+        <v>101.9100112915039</v>
       </c>
       <c r="C921" t="n">
         <v>106.3499984741211</v>
@@ -21639,7 +21639,7 @@
         <v>45163</v>
       </c>
       <c r="B922" t="n">
-        <v>103.7306976318359</v>
+        <v>103.7306900024414</v>
       </c>
       <c r="C922" t="n">
         <v>108.25</v>
@@ -21708,7 +21708,7 @@
         <v>45168</v>
       </c>
       <c r="B925" t="n">
-        <v>106.2509002685547</v>
+        <v>106.2508850097656</v>
       </c>
       <c r="C925" t="n">
         <v>110.879997253418</v>
@@ -21731,7 +21731,7 @@
         <v>45169</v>
       </c>
       <c r="B926" t="n">
-        <v>106.5479507446289</v>
+        <v>106.5479583740234</v>
       </c>
       <c r="C926" t="n">
         <v>111.1900024414062</v>
@@ -21754,7 +21754,7 @@
         <v>45170</v>
       </c>
       <c r="B927" t="n">
-        <v>108.7806701660156</v>
+        <v>108.7806777954102</v>
       </c>
       <c r="C927" t="n">
         <v>113.5199966430664</v>
@@ -21777,7 +21777,7 @@
         <v>45174</v>
       </c>
       <c r="B928" t="n">
-        <v>108.7902603149414</v>
+        <v>108.7902526855469</v>
       </c>
       <c r="C928" t="n">
         <v>113.5299987792969</v>
@@ -21823,7 +21823,7 @@
         <v>45176</v>
       </c>
       <c r="B930" t="n">
-        <v>109.1927261352539</v>
+        <v>109.1927185058594</v>
       </c>
       <c r="C930" t="n">
         <v>113.9499969482422</v>
@@ -21846,7 +21846,7 @@
         <v>45177</v>
       </c>
       <c r="B931" t="n">
-        <v>110.7834320068359</v>
+        <v>110.7834243774414</v>
       </c>
       <c r="C931" t="n">
         <v>115.6100006103516</v>
@@ -21892,7 +21892,7 @@
         <v>45181</v>
       </c>
       <c r="B933" t="n">
-        <v>112.5849456787109</v>
+        <v>112.5849304199219</v>
       </c>
       <c r="C933" t="n">
         <v>117.4899978637695</v>
@@ -21915,7 +21915,7 @@
         <v>45182</v>
       </c>
       <c r="B934" t="n">
-        <v>111.5787734985352</v>
+        <v>111.5787887573242</v>
       </c>
       <c r="C934" t="n">
         <v>116.4400024414062</v>
@@ -21984,7 +21984,7 @@
         <v>45187</v>
       </c>
       <c r="B937" t="n">
-        <v>112.7286834716797</v>
+        <v>112.7286758422852</v>
       </c>
       <c r="C937" t="n">
         <v>117.6399993896484</v>
@@ -22076,7 +22076,7 @@
         <v>45191</v>
       </c>
       <c r="B941" t="n">
-        <v>110.1413955688477</v>
+        <v>110.1414031982422</v>
       </c>
       <c r="C941" t="n">
         <v>114.9400024414062</v>
@@ -22168,7 +22168,7 @@
         <v>45197</v>
       </c>
       <c r="B945" t="n">
-        <v>114.4822769165039</v>
+        <v>114.4822845458984</v>
       </c>
       <c r="C945" t="n">
         <v>119.4700012207031</v>
@@ -22214,7 +22214,7 @@
         <v>45201</v>
       </c>
       <c r="B947" t="n">
-        <v>110.8025970458984</v>
+        <v>110.8025894165039</v>
       </c>
       <c r="C947" t="n">
         <v>115.629997253418</v>
@@ -22237,7 +22237,7 @@
         <v>45202</v>
       </c>
       <c r="B948" t="n">
-        <v>110.9942321777344</v>
+        <v>110.9942398071289</v>
       </c>
       <c r="C948" t="n">
         <v>115.8300018310547</v>
@@ -22260,7 +22260,7 @@
         <v>45203</v>
       </c>
       <c r="B949" t="n">
-        <v>106.8450164794922</v>
+        <v>106.8450088500977</v>
       </c>
       <c r="C949" t="n">
         <v>111.5</v>
@@ -22283,7 +22283,7 @@
         <v>45204</v>
       </c>
       <c r="B950" t="n">
-        <v>104.4398040771484</v>
+        <v>104.4397964477539</v>
       </c>
       <c r="C950" t="n">
         <v>108.9899978637695</v>
@@ -22375,7 +22375,7 @@
         <v>45210</v>
       </c>
       <c r="B954" t="n">
-        <v>102.0441741943359</v>
+        <v>102.0441665649414</v>
       </c>
       <c r="C954" t="n">
         <v>106.4899978637695</v>
@@ -22398,7 +22398,7 @@
         <v>45211</v>
       </c>
       <c r="B955" t="n">
-        <v>102.0250091552734</v>
+        <v>102.0250015258789</v>
       </c>
       <c r="C955" t="n">
         <v>106.4700012207031</v>
@@ -22421,7 +22421,7 @@
         <v>45212</v>
       </c>
       <c r="B956" t="n">
-        <v>105.2830581665039</v>
+        <v>105.2830657958984</v>
       </c>
       <c r="C956" t="n">
         <v>109.870002746582</v>
@@ -22536,7 +22536,7 @@
         <v>45219</v>
       </c>
       <c r="B961" t="n">
-        <v>106.4425506591797</v>
+        <v>106.4425430297852</v>
       </c>
       <c r="C961" t="n">
         <v>111.0800018310547</v>
@@ -22559,7 +22559,7 @@
         <v>45222</v>
       </c>
       <c r="B962" t="n">
-        <v>104.8805923461914</v>
+        <v>104.8805999755859</v>
       </c>
       <c r="C962" t="n">
         <v>109.4499969482422</v>
@@ -22582,7 +22582,7 @@
         <v>45223</v>
       </c>
       <c r="B963" t="n">
-        <v>103.8648529052734</v>
+        <v>103.8648452758789</v>
       </c>
       <c r="C963" t="n">
         <v>108.3899993896484</v>
@@ -22605,7 +22605,7 @@
         <v>45224</v>
       </c>
       <c r="B964" t="n">
-        <v>104.0564880371094</v>
+        <v>104.0564956665039</v>
       </c>
       <c r="C964" t="n">
         <v>108.5899963378906</v>
@@ -22628,7 +22628,7 @@
         <v>45225</v>
       </c>
       <c r="B965" t="n">
-        <v>103.1078262329102</v>
+        <v>103.1078338623047</v>
       </c>
       <c r="C965" t="n">
         <v>107.5999984741211</v>
@@ -22651,7 +22651,7 @@
         <v>45226</v>
       </c>
       <c r="B966" t="n">
-        <v>101.1434173583984</v>
+        <v>101.1434097290039</v>
       </c>
       <c r="C966" t="n">
         <v>105.5500030517578</v>
@@ -22720,7 +22720,7 @@
         <v>45231</v>
       </c>
       <c r="B969" t="n">
-        <v>101.2296524047852</v>
+        <v>101.2296600341797</v>
       </c>
       <c r="C969" t="n">
         <v>105.6399993896484</v>
@@ -22812,7 +22812,7 @@
         <v>45237</v>
       </c>
       <c r="B973" t="n">
-        <v>99.85935974121094</v>
+        <v>99.85935211181641</v>
       </c>
       <c r="C973" t="n">
         <v>104.2099990844727</v>
@@ -22858,7 +22858,7 @@
         <v>45239</v>
       </c>
       <c r="B975" t="n">
-        <v>98.66153717041016</v>
+        <v>98.66154479980469</v>
       </c>
       <c r="C975" t="n">
         <v>102.9599990844727</v>
@@ -22881,7 +22881,7 @@
         <v>45240</v>
       </c>
       <c r="B976" t="n">
-        <v>99.41857147216797</v>
+        <v>99.41856384277344</v>
       </c>
       <c r="C976" t="n">
         <v>103.75</v>
@@ -22950,7 +22950,7 @@
         <v>45245</v>
       </c>
       <c r="B979" t="n">
-        <v>100.2406463623047</v>
+        <v>100.2406539916992</v>
       </c>
       <c r="C979" t="n">
         <v>103.6600036621094</v>
@@ -22973,7 +22973,7 @@
         <v>45246</v>
       </c>
       <c r="B980" t="n">
-        <v>99.08023834228516</v>
+        <v>99.08023071289062</v>
       </c>
       <c r="C980" t="n">
         <v>102.4599990844727</v>
@@ -22996,7 +22996,7 @@
         <v>45247</v>
       </c>
       <c r="B981" t="n">
-        <v>101.4977569580078</v>
+        <v>101.4977722167969</v>
       </c>
       <c r="C981" t="n">
         <v>104.9599990844727</v>
@@ -23019,7 +23019,7 @@
         <v>45250</v>
       </c>
       <c r="B982" t="n">
-        <v>101.0529403686523</v>
+        <v>101.0529479980469</v>
       </c>
       <c r="C982" t="n">
         <v>104.5</v>
@@ -23111,7 +23111,7 @@
         <v>45257</v>
       </c>
       <c r="B986" t="n">
-        <v>100.5307464599609</v>
+        <v>100.5307540893555</v>
       </c>
       <c r="C986" t="n">
         <v>103.9599990844727</v>
@@ -23134,7 +23134,7 @@
         <v>45258</v>
       </c>
       <c r="B987" t="n">
-        <v>100.4727325439453</v>
+        <v>100.4727249145508</v>
       </c>
       <c r="C987" t="n">
         <v>103.9000015258789</v>
@@ -23180,7 +23180,7 @@
         <v>45260</v>
       </c>
       <c r="B989" t="n">
-        <v>99.35099792480469</v>
+        <v>99.35099029541016</v>
       </c>
       <c r="C989" t="n">
         <v>102.7399978637695</v>
@@ -23203,7 +23203,7 @@
         <v>45261</v>
       </c>
       <c r="B990" t="n">
-        <v>99.59274291992188</v>
+        <v>99.59275054931641</v>
       </c>
       <c r="C990" t="n">
         <v>102.9899978637695</v>
@@ -23226,7 +23226,7 @@
         <v>45264</v>
       </c>
       <c r="B991" t="n">
-        <v>99.05121612548828</v>
+        <v>99.05122375488281</v>
       </c>
       <c r="C991" t="n">
         <v>102.4300003051758</v>
@@ -23249,7 +23249,7 @@
         <v>45265</v>
       </c>
       <c r="B992" t="n">
-        <v>97.12686920166016</v>
+        <v>97.12686157226562</v>
       </c>
       <c r="C992" t="n">
         <v>100.4400024414062</v>
@@ -23318,7 +23318,7 @@
         <v>45268</v>
       </c>
       <c r="B995" t="n">
-        <v>96.26622772216797</v>
+        <v>96.26622009277344</v>
       </c>
       <c r="C995" t="n">
         <v>99.55000305175781</v>
@@ -23410,7 +23410,7 @@
         <v>45274</v>
       </c>
       <c r="B999" t="n">
-        <v>98.22927093505859</v>
+        <v>98.22926330566406</v>
       </c>
       <c r="C999" t="n">
         <v>101.5800018310547</v>
@@ -23456,7 +23456,7 @@
         <v>45278</v>
       </c>
       <c r="B1001" t="n">
-        <v>98.29694366455078</v>
+        <v>98.29695892333984</v>
       </c>
       <c r="C1001" t="n">
         <v>101.6500015258789</v>
@@ -23479,7 +23479,7 @@
         <v>45279</v>
       </c>
       <c r="B1002" t="n">
-        <v>99.59274291992188</v>
+        <v>99.59275054931641</v>
       </c>
       <c r="C1002" t="n">
         <v>102.9899978637695</v>
@@ -23548,7 +23548,7 @@
         <v>45282</v>
       </c>
       <c r="B1005" t="n">
-        <v>98.54837799072266</v>
+        <v>98.54837036132812</v>
       </c>
       <c r="C1005" t="n">
         <v>101.9100036621094</v>
@@ -23617,7 +23617,7 @@
         <v>45288</v>
       </c>
       <c r="B1008" t="n">
-        <v>96.88510894775391</v>
+        <v>96.88511657714844</v>
       </c>
       <c r="C1008" t="n">
         <v>100.1900024414062</v>
@@ -23663,7 +23663,7 @@
         <v>45293</v>
       </c>
       <c r="B1010" t="n">
-        <v>98.98352813720703</v>
+        <v>98.9835205078125</v>
       </c>
       <c r="C1010" t="n">
         <v>102.3600006103516</v>
@@ -23686,7 +23686,7 @@
         <v>45294</v>
       </c>
       <c r="B1011" t="n">
-        <v>99.81517028808594</v>
+        <v>99.81516265869141</v>
       </c>
       <c r="C1011" t="n">
         <v>103.2200012207031</v>
@@ -23755,7 +23755,7 @@
         <v>45299</v>
       </c>
       <c r="B1014" t="n">
-        <v>97.59102630615234</v>
+        <v>97.59103393554688</v>
       </c>
       <c r="C1014" t="n">
         <v>100.9199981689453</v>
@@ -23778,7 +23778,7 @@
         <v>45300</v>
       </c>
       <c r="B1015" t="n">
-        <v>96.38226318359375</v>
+        <v>96.38225555419922</v>
       </c>
       <c r="C1015" t="n">
         <v>99.66999816894531</v>
@@ -23824,7 +23824,7 @@
         <v>45302</v>
       </c>
       <c r="B1017" t="n">
-        <v>95.41524505615234</v>
+        <v>95.41525268554688</v>
       </c>
       <c r="C1017" t="n">
         <v>98.66999816894531</v>
@@ -23870,7 +23870,7 @@
         <v>45307</v>
       </c>
       <c r="B1019" t="n">
-        <v>94.46758270263672</v>
+        <v>94.46757507324219</v>
       </c>
       <c r="C1019" t="n">
         <v>97.69000244140625</v>
@@ -23916,7 +23916,7 @@
         <v>45309</v>
       </c>
       <c r="B1021" t="n">
-        <v>93.60693359375</v>
+        <v>93.60694885253906</v>
       </c>
       <c r="C1021" t="n">
         <v>96.80000305175781</v>
@@ -23939,7 +23939,7 @@
         <v>45310</v>
       </c>
       <c r="B1022" t="n">
-        <v>93.75198364257812</v>
+        <v>93.75199127197266</v>
       </c>
       <c r="C1022" t="n">
         <v>96.94999694824219</v>
@@ -23985,7 +23985,7 @@
         <v>45314</v>
       </c>
       <c r="B1024" t="n">
-        <v>94.68032836914062</v>
+        <v>94.68032073974609</v>
       </c>
       <c r="C1024" t="n">
         <v>97.91000366210938</v>
@@ -24008,7 +24008,7 @@
         <v>45315</v>
       </c>
       <c r="B1025" t="n">
-        <v>96.3145751953125</v>
+        <v>96.31456756591797</v>
       </c>
       <c r="C1025" t="n">
         <v>99.59999847412109</v>
@@ -24054,7 +24054,7 @@
         <v>45317</v>
       </c>
       <c r="B1027" t="n">
-        <v>99.60242462158203</v>
+        <v>99.60240936279297</v>
       </c>
       <c r="C1027" t="n">
         <v>103</v>
@@ -24077,7 +24077,7 @@
         <v>45320</v>
       </c>
       <c r="B1028" t="n">
-        <v>99.72812652587891</v>
+        <v>99.72811889648438</v>
       </c>
       <c r="C1028" t="n">
         <v>103.129997253418</v>
@@ -24123,7 +24123,7 @@
         <v>45322</v>
       </c>
       <c r="B1030" t="n">
-        <v>99.41867828369141</v>
+        <v>99.41868591308594</v>
       </c>
       <c r="C1030" t="n">
         <v>102.8099975585938</v>
@@ -24146,7 +24146,7 @@
         <v>45323</v>
       </c>
       <c r="B1031" t="n">
-        <v>99.01253509521484</v>
+        <v>99.01254272460938</v>
       </c>
       <c r="C1031" t="n">
         <v>102.3899993896484</v>
@@ -24169,7 +24169,7 @@
         <v>45324</v>
       </c>
       <c r="B1032" t="n">
-        <v>98.60639190673828</v>
+        <v>98.60640716552734</v>
       </c>
       <c r="C1032" t="n">
         <v>101.9700012207031</v>
@@ -24238,7 +24238,7 @@
         <v>45329</v>
       </c>
       <c r="B1035" t="n">
-        <v>98.84814453125</v>
+        <v>98.84815216064453</v>
       </c>
       <c r="C1035" t="n">
         <v>102.2200012207031</v>
@@ -24261,7 +24261,7 @@
         <v>45330</v>
       </c>
       <c r="B1036" t="n">
-        <v>100.5404281616211</v>
+        <v>100.5404205322266</v>
       </c>
       <c r="C1036" t="n">
         <v>103.9700012207031</v>
@@ -24284,7 +24284,7 @@
         <v>45331</v>
       </c>
       <c r="B1037" t="n">
-        <v>98.41299438476562</v>
+        <v>98.41298675537109</v>
       </c>
       <c r="C1037" t="n">
         <v>101.7699966430664</v>
@@ -24376,7 +24376,7 @@
         <v>45337</v>
       </c>
       <c r="B1041" t="n">
-        <v>101.2405700683594</v>
+        <v>101.2405776977539</v>
       </c>
       <c r="C1041" t="n">
         <v>103.7300033569336</v>
@@ -24399,7 +24399,7 @@
         <v>45338</v>
       </c>
       <c r="B1042" t="n">
-        <v>101.2405700683594</v>
+        <v>101.2405776977539</v>
       </c>
       <c r="C1042" t="n">
         <v>103.7300033569336</v>
@@ -24445,7 +24445,7 @@
         <v>45343</v>
       </c>
       <c r="B1044" t="n">
-        <v>102.3336868286133</v>
+        <v>102.3336944580078</v>
       </c>
       <c r="C1044" t="n">
         <v>104.8499984741211</v>
@@ -24514,7 +24514,7 @@
         <v>45348</v>
       </c>
       <c r="B1047" t="n">
-        <v>101.7480850219727</v>
+        <v>101.7480926513672</v>
       </c>
       <c r="C1047" t="n">
         <v>104.25</v>
@@ -24560,7 +24560,7 @@
         <v>45350</v>
       </c>
       <c r="B1049" t="n">
-        <v>101.81640625</v>
+        <v>101.8164138793945</v>
       </c>
       <c r="C1049" t="n">
         <v>104.3199996948242</v>
@@ -24606,7 +24606,7 @@
         <v>45352</v>
       </c>
       <c r="B1051" t="n">
-        <v>103.299934387207</v>
+        <v>103.2999267578125</v>
       </c>
       <c r="C1051" t="n">
         <v>105.8399963378906</v>
@@ -24652,7 +24652,7 @@
         <v>45356</v>
       </c>
       <c r="B1053" t="n">
-        <v>103.1047286987305</v>
+        <v>103.104736328125</v>
       </c>
       <c r="C1053" t="n">
         <v>105.6399993896484</v>
@@ -24698,7 +24698,7 @@
         <v>45358</v>
       </c>
       <c r="B1055" t="n">
-        <v>104.793212890625</v>
+        <v>104.7932205200195</v>
       </c>
       <c r="C1055" t="n">
         <v>107.370002746582</v>
@@ -24721,7 +24721,7 @@
         <v>45359</v>
       </c>
       <c r="B1056" t="n">
-        <v>105.7789764404297</v>
+        <v>105.7789688110352</v>
       </c>
       <c r="C1056" t="n">
         <v>108.379997253418</v>
@@ -24767,7 +24767,7 @@
         <v>45363</v>
       </c>
       <c r="B1058" t="n">
-        <v>105.7204208374023</v>
+        <v>105.7204055786133</v>
       </c>
       <c r="C1058" t="n">
         <v>108.3199996948242</v>
@@ -24790,7 +24790,7 @@
         <v>45364</v>
       </c>
       <c r="B1059" t="n">
-        <v>106.9013671875</v>
+        <v>106.9013748168945</v>
       </c>
       <c r="C1059" t="n">
         <v>109.5299987792969</v>
@@ -24836,7 +24836,7 @@
         <v>45366</v>
       </c>
       <c r="B1061" t="n">
-        <v>108.5996170043945</v>
+        <v>108.599609375</v>
       </c>
       <c r="C1061" t="n">
         <v>111.2699966430664</v>
@@ -24905,7 +24905,7 @@
         <v>45371</v>
       </c>
       <c r="B1064" t="n">
-        <v>110.2783355712891</v>
+        <v>110.2783432006836</v>
       </c>
       <c r="C1064" t="n">
         <v>112.9899978637695</v>
@@ -24997,7 +24997,7 @@
         <v>45377</v>
       </c>
       <c r="B1068" t="n">
-        <v>111.0591354370117</v>
+        <v>111.0591430664062</v>
       </c>
       <c r="C1068" t="n">
         <v>113.7900009155273</v>
@@ -25066,7 +25066,7 @@
         <v>45383</v>
       </c>
       <c r="B1071" t="n">
-        <v>114.1823348999023</v>
+        <v>114.1823425292969</v>
       </c>
       <c r="C1071" t="n">
         <v>116.9899978637695</v>
@@ -25089,7 +25089,7 @@
         <v>45384</v>
       </c>
       <c r="B1072" t="n">
-        <v>116.4173889160156</v>
+        <v>116.4173812866211</v>
       </c>
       <c r="C1072" t="n">
         <v>119.2799987792969</v>
@@ -25112,7 +25112,7 @@
         <v>45385</v>
       </c>
       <c r="B1073" t="n">
-        <v>116.4369125366211</v>
+        <v>116.4369049072266</v>
       </c>
       <c r="C1073" t="n">
         <v>119.3000030517578</v>
@@ -25204,7 +25204,7 @@
         <v>45391</v>
       </c>
       <c r="B1077" t="n">
-        <v>118.2717895507812</v>
+        <v>118.2717819213867</v>
       </c>
       <c r="C1077" t="n">
         <v>121.1800003051758</v>
@@ -25342,7 +25342,7 @@
         <v>45399</v>
       </c>
       <c r="B1083" t="n">
-        <v>115.7829818725586</v>
+        <v>115.7829895019531</v>
       </c>
       <c r="C1083" t="n">
         <v>118.629997253418</v>
@@ -25365,7 +25365,7 @@
         <v>45400</v>
       </c>
       <c r="B1084" t="n">
-        <v>115.6756134033203</v>
+        <v>115.6756210327148</v>
       </c>
       <c r="C1084" t="n">
         <v>118.5199966430664</v>
@@ -25457,7 +25457,7 @@
         <v>45406</v>
       </c>
       <c r="B1088" t="n">
-        <v>118.1449127197266</v>
+        <v>118.144905090332</v>
       </c>
       <c r="C1088" t="n">
         <v>121.0500030517578</v>
@@ -25480,7 +25480,7 @@
         <v>45407</v>
       </c>
       <c r="B1089" t="n">
-        <v>118.4181900024414</v>
+        <v>118.4181823730469</v>
       </c>
       <c r="C1089" t="n">
         <v>121.3300018310547</v>
@@ -25526,7 +25526,7 @@
         <v>45411</v>
       </c>
       <c r="B1091" t="n">
-        <v>116.7687454223633</v>
+        <v>116.7687377929688</v>
       </c>
       <c r="C1091" t="n">
         <v>119.6399993896484</v>
@@ -25572,7 +25572,7 @@
         <v>45413</v>
       </c>
       <c r="B1093" t="n">
-        <v>113.2453842163086</v>
+        <v>113.2453765869141</v>
       </c>
       <c r="C1093" t="n">
         <v>116.0299987792969</v>
@@ -25664,7 +25664,7 @@
         <v>45419</v>
       </c>
       <c r="B1097" t="n">
-        <v>113.3820190429688</v>
+        <v>113.3820266723633</v>
       </c>
       <c r="C1097" t="n">
         <v>116.1699981689453</v>
@@ -25756,7 +25756,7 @@
         <v>45425</v>
       </c>
       <c r="B1101" t="n">
-        <v>115.0802764892578</v>
+        <v>115.0802688598633</v>
       </c>
       <c r="C1101" t="n">
         <v>117.9100036621094</v>
@@ -25779,7 +25779,7 @@
         <v>45426</v>
       </c>
       <c r="B1102" t="n">
-        <v>115.7788467407227</v>
+        <v>115.7788543701172</v>
       </c>
       <c r="C1102" t="n">
         <v>117.6699981689453</v>
@@ -25848,7 +25848,7 @@
         <v>45429</v>
       </c>
       <c r="B1105" t="n">
-        <v>117.7171936035156</v>
+        <v>117.7171859741211</v>
       </c>
       <c r="C1105" t="n">
         <v>119.6399993896484</v>
@@ -25894,7 +25894,7 @@
         <v>45433</v>
       </c>
       <c r="B1107" t="n">
-        <v>115.9559631347656</v>
+        <v>115.9559555053711</v>
       </c>
       <c r="C1107" t="n">
         <v>117.8499984741211</v>
@@ -25940,7 +25940,7 @@
         <v>45435</v>
       </c>
       <c r="B1109" t="n">
-        <v>111.6857147216797</v>
+        <v>111.6857070922852</v>
       </c>
       <c r="C1109" t="n">
         <v>113.5100021362305</v>
@@ -25963,7 +25963,7 @@
         <v>45436</v>
       </c>
       <c r="B1110" t="n">
-        <v>111.5971527099609</v>
+        <v>111.5971603393555</v>
       </c>
       <c r="C1110" t="n">
         <v>113.4199981689453</v>
@@ -26032,7 +26032,7 @@
         <v>45442</v>
       </c>
       <c r="B1113" t="n">
-        <v>112.1579895019531</v>
+        <v>112.1579971313477</v>
       </c>
       <c r="C1113" t="n">
         <v>113.9899978637695</v>
@@ -26055,7 +26055,7 @@
         <v>45443</v>
       </c>
       <c r="B1114" t="n">
-        <v>115.3754425048828</v>
+        <v>115.3754501342773</v>
       </c>
       <c r="C1114" t="n">
         <v>117.2600021362305</v>
@@ -26078,7 +26078,7 @@
         <v>45446</v>
       </c>
       <c r="B1115" t="n">
-        <v>112.6106033325195</v>
+        <v>112.610595703125</v>
       </c>
       <c r="C1115" t="n">
         <v>114.4499969482422</v>
@@ -26101,7 +26101,7 @@
         <v>45447</v>
       </c>
       <c r="B1116" t="n">
-        <v>110.8592071533203</v>
+        <v>110.8592147827148</v>
       </c>
       <c r="C1116" t="n">
         <v>112.6699981689453</v>
@@ -26308,7 +26308,7 @@
         <v>45460</v>
       </c>
       <c r="B1125" t="n">
-        <v>106.6184844970703</v>
+        <v>106.6184768676758</v>
       </c>
       <c r="C1125" t="n">
         <v>108.3600006103516</v>
@@ -26354,7 +26354,7 @@
         <v>45463</v>
       </c>
       <c r="B1127" t="n">
-        <v>109.9441604614258</v>
+        <v>109.9441528320312</v>
       </c>
       <c r="C1127" t="n">
         <v>111.7399978637695</v>
@@ -26469,7 +26469,7 @@
         <v>45470</v>
       </c>
       <c r="B1132" t="n">
-        <v>113.0533752441406</v>
+        <v>113.0533676147461</v>
       </c>
       <c r="C1132" t="n">
         <v>114.9000015258789</v>
@@ -26630,7 +26630,7 @@
         <v>45482</v>
       </c>
       <c r="B1139" t="n">
-        <v>109.1570129394531</v>
+        <v>109.1570205688477</v>
       </c>
       <c r="C1139" t="n">
         <v>110.9400024414062</v>
@@ -26653,7 +26653,7 @@
         <v>45483</v>
       </c>
       <c r="B1140" t="n">
-        <v>110.1212692260742</v>
+        <v>110.1212615966797</v>
       </c>
       <c r="C1140" t="n">
         <v>111.9199981689453</v>
@@ -26676,7 +26676,7 @@
         <v>45484</v>
       </c>
       <c r="B1141" t="n">
-        <v>111.4298934936523</v>
+        <v>111.4298858642578</v>
       </c>
       <c r="C1141" t="n">
         <v>113.25</v>
@@ -26699,7 +26699,7 @@
         <v>45485</v>
       </c>
       <c r="B1142" t="n">
-        <v>111.4495620727539</v>
+        <v>111.4495697021484</v>
       </c>
       <c r="C1142" t="n">
         <v>113.2699966430664</v>
@@ -26791,7 +26791,7 @@
         <v>45491</v>
       </c>
       <c r="B1146" t="n">
-        <v>116.8906936645508</v>
+        <v>116.8907012939453</v>
       </c>
       <c r="C1146" t="n">
         <v>118.8000030517578</v>
@@ -26860,7 +26860,7 @@
         <v>45496</v>
       </c>
       <c r="B1149" t="n">
-        <v>111.5873260498047</v>
+        <v>111.5873184204102</v>
       </c>
       <c r="C1149" t="n">
         <v>113.4100036621094</v>
@@ -26929,7 +26929,7 @@
         <v>45499</v>
       </c>
       <c r="B1152" t="n">
-        <v>115.4443206787109</v>
+        <v>115.4443130493164</v>
       </c>
       <c r="C1152" t="n">
         <v>117.3300018310547</v>
@@ -26998,7 +26998,7 @@
         <v>45504</v>
       </c>
       <c r="B1155" t="n">
-        <v>116.6840591430664</v>
+        <v>116.6840667724609</v>
       </c>
       <c r="C1155" t="n">
         <v>118.5899963378906</v>
@@ -27067,7 +27067,7 @@
         <v>45509</v>
       </c>
       <c r="B1158" t="n">
-        <v>112.9254608154297</v>
+        <v>112.9254531860352</v>
       </c>
       <c r="C1158" t="n">
         <v>114.7699966430664</v>
@@ -27205,7 +27205,7 @@
         <v>45517</v>
       </c>
       <c r="B1164" t="n">
-        <v>115.9657974243164</v>
+        <v>115.9658050537109</v>
       </c>
       <c r="C1164" t="n">
         <v>117.8600006103516</v>
@@ -27228,7 +27228,7 @@
         <v>45518</v>
       </c>
       <c r="B1165" t="n">
-        <v>117.0382766723633</v>
+        <v>117.0382843017578</v>
       </c>
       <c r="C1165" t="n">
         <v>118.9499969482422</v>
